--- a/hans/OcrmReceiptTableEntity.xlsx
+++ b/hans/OcrmReceiptTableEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="1803">
   <si>
     <t>_id</t>
   </si>
@@ -378,7 +378,7 @@
     <t>66</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5402.01-租金成本  ", "content" : "第72期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "116550" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "116550" } } ]</t>
+    <t>[ { "fundCategory" : "5402.01-租金成本  ", "content" : "第72期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "116550" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "116550" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>116550</t>
@@ -5340,9 +5340,6 @@
     <t>6264.33</t>
   </si>
   <si>
-    <t>882.735151130839</t>
-  </si>
-  <si>
     <t>1069</t>
   </si>
   <si>
@@ -5355,10 +5352,16 @@
     <t>1071</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "租金尾款收入", "orgGathered" : 63068.44, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 63068.44, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
-  </si>
-  <si>
-    <t>63068.44</t>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "租金总收入（按USD7000）", "orgGathered" : 517093.89, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 517093.89, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "租金总收入(按USD9000)", "orgGathered" : 478496.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 478496.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.02-佣金成本", "content" : "5%佣金支出", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 49784.5, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 49784.5, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "交船重油价值", "orgGathered" : 259948.8, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 259948.8, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "交船轻油价值", "orgGathered" : { "$numberInt" : "52840" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "52840" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "还船重油价值", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 177516.8, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 177516.8, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "还船轻油价值", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "27620" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "27620" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "租家补重油差价", "orgGathered" : 1627.37, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 1627.37, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "C/E/V", "orgGathered" : 6352.4, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 6352.4, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.03-劳务费奖金", "content" : "ILOHC", "orgGathered" : { "$numberInt" : "5000" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "5000" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.17-律师等专业服务费", "content" : "还船50%量油支出", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "350" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "350" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.16-航次监装费等", "content" : "租家支付船员风险区奖金", "orgGathered" : { "$numberInt" : "8500" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "8500" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付防海盗材料费用", "orgGathered" : 445.43, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 445.43, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.16-航次监装费等", "content" : "租家支付码头监装费用", "orgGathered" : { "$numberInt" : "3150" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "3150" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.17-律师等专业服务费", "content" : "租家支付WAR&amp;KNR保险费用", "orgGathered" : 18858.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 18858.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.17-律师等专业服务费", "content" : "租家支付高风险区安保费用", "orgGathered" : { "$numberInt" : "43200" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "43200" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付船员割除地令费用", "orgGathered" : { "$numberInt" : "7304" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "7304" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付安保人员在船吃饭费用", "orgGathered" : { "$numberInt" : "1050" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "1050" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "等待时间", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 3498.75, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 3498.75, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "佣金收入", "orgGathered" : 131.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 131.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1145227.59</t>
+  </si>
+  <si>
+    <t>1403997.64</t>
+  </si>
+  <si>
+    <t>258770.05</t>
   </si>
   <si>
     <t>1073</t>
@@ -5386,6 +5389,39 @@
   </si>
   <si>
     <t>472.5</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.01-租金运费成本  ", "content" : "支付第76期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "119700" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "119700" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>119700</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.13-装港使费 ", "content" : "马尼拉装港最终港使费USD21087.46 , 我司预付USD30900 ，退还我司9812.54", "orgGathered" : 9812.54, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 9812.54, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "退款银行手续费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 38.32, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 38.32, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>9774.22</t>
+  </si>
+  <si>
+    <t>9812.54</t>
+  </si>
+  <si>
+    <t>38.32</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2206-分红收入", "content" : " Lauren ocean 2023年度1~3月應分潤67002.3", "orgGathered" : 66993.98, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 66993.98, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>66993.98</t>
   </si>
 </sst>
 </file>
@@ -5429,7 +5465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G598"/>
+  <dimension ref="A1:G601"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -19068,27 +19104,27 @@
         <v>10</v>
       </c>
       <c r="G593" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B594" t="s">
         <v>1776</v>
       </c>
-      <c r="B594" t="s">
+      <c r="C594" t="s">
         <v>1777</v>
       </c>
-      <c r="C594" t="s">
-        <v>1778</v>
-      </c>
       <c r="D594" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E594" t="s">
         <v>10</v>
       </c>
       <c r="F594" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="G594" t="s">
         <v>10</v>
@@ -19096,94 +19132,163 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B595" t="s">
         <v>1779</v>
       </c>
-      <c r="B595" t="s">
+      <c r="C595" t="s">
         <v>1780</v>
-      </c>
-      <c r="C595" t="s">
-        <v>1781</v>
       </c>
       <c r="D595" t="s">
         <v>1781</v>
       </c>
       <c r="E595" t="s">
-        <v>10</v>
+        <v>1782</v>
       </c>
       <c r="F595" t="s">
         <v>1781</v>
       </c>
       <c r="G595" t="s">
-        <v>10</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B596" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C596" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="D596" t="s">
         <v>10</v>
       </c>
       <c r="E596" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="F596" t="s">
         <v>10</v>
       </c>
       <c r="G596" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B597" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C597" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D597" t="s">
         <v>10</v>
       </c>
       <c r="E597" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="F597" t="s">
         <v>10</v>
       </c>
       <c r="G597" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B598" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="C598" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D598" t="s">
         <v>10</v>
       </c>
       <c r="E598" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="F598" t="s">
         <v>10</v>
       </c>
       <c r="G598" t="s">
-        <v>1790</v>
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D599" t="s">
+        <v>10</v>
+      </c>
+      <c r="E599" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F599" t="s">
+        <v>10</v>
+      </c>
+      <c r="G599" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E600" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F600" t="s">
+        <v>1798</v>
+      </c>
+      <c r="G600" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E601" t="s">
+        <v>10</v>
+      </c>
+      <c r="F601" t="s">
+        <v>1802</v>
+      </c>
+      <c r="G601" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/hans/OcrmReceiptTableEntity.xlsx
+++ b/hans/OcrmReceiptTableEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="1803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="1821">
   <si>
     <t>_id</t>
   </si>
@@ -3387,10 +3387,7 @@
     <t>713</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.11-物料", "content" : "1月6日在华滋船厂，换下船的抓斗折价处理给南通海吉", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "20000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 2910.48794330369, "isDiscard" : null } ]</t>
-  </si>
-  <si>
-    <t>-20000</t>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "1月6日在华滋船厂，换下船的抓斗折价处理给南通海吉", "orgGathered" : { "$numberInt" : "20000" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 2910.48794330369, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>2910.48794330369</t>
@@ -5352,16 +5349,16 @@
     <t>1071</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "租金总收入（按USD7000）", "orgGathered" : 517093.89, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 517093.89, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "租金总收入(按USD9000)", "orgGathered" : 478496.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 478496.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.02-佣金成本", "content" : "5%佣金支出", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 49784.5, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 49784.5, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "交船重油价值", "orgGathered" : 259948.8, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 259948.8, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "交船轻油价值", "orgGathered" : { "$numberInt" : "52840" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "52840" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "还船重油价值", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 177516.8, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 177516.8, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "还船轻油价值", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "27620" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "27620" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "租家补重油差价", "orgGathered" : 1627.37, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 1627.37, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "C/E/V", "orgGathered" : 6352.4, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 6352.4, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.03-劳务费奖金", "content" : "ILOHC", "orgGathered" : { "$numberInt" : "5000" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "5000" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.17-律师等专业服务费", "content" : "还船50%量油支出", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "350" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "350" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.16-航次监装费等", "content" : "租家支付船员风险区奖金", "orgGathered" : { "$numberInt" : "8500" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "8500" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付防海盗材料费用", "orgGathered" : 445.43, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 445.43, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.16-航次监装费等", "content" : "租家支付码头监装费用", "orgGathered" : { "$numberInt" : "3150" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "3150" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.17-律师等专业服务费", "content" : "租家支付WAR&amp;KNR保险费用", "orgGathered" : 18858.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 18858.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.17-律师等专业服务费", "content" : "租家支付高风险区安保费用", "orgGathered" : { "$numberInt" : "43200" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "43200" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付船员割除地令费用", "orgGathered" : { "$numberInt" : "7304" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "7304" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付安保人员在船吃饭费用", "orgGathered" : { "$numberInt" : "1050" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "1050" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "等待时间", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 3498.75, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 3498.75, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "佣金收入", "orgGathered" : 131.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 131.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
-  </si>
-  <si>
-    <t>1145227.59</t>
-  </si>
-  <si>
-    <t>1403997.64</t>
-  </si>
-  <si>
-    <t>258770.05</t>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "租金总收入（按USD7000）", "orgGathered" : 517093.89, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 517093.89, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "租金总收入(按USD9000)", "orgGathered" : 478596.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 478596.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.02-佣金成本", "content" : "5%佣金支出", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 49784.5, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 49784.5, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "交船重油价值", "orgGathered" : 259948.8, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 259948.8, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "交船轻油价值", "orgGathered" : { "$numberInt" : "52840" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "52840" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "还船重油价值", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 177516.8, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 177516.8, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "还船轻油价值", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "27620" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "27620" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "租家补重油差价", "orgGathered" : 1627.37, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 1627.37, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "C/E/V", "orgGathered" : 6352.4, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 6352.4, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.03-劳务费奖金", "content" : "ILOHC", "orgGathered" : { "$numberInt" : "5000" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "5000" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.17-律师等专业服务费", "content" : "还船50%量油支出", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "350" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "350" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.16-航次监装费等", "content" : "租家支付船员风险区奖金", "orgGathered" : { "$numberInt" : "8500" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "8500" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付防海盗材料费用", "orgGathered" : 445.43, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 445.43, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.16-航次监装费等", "content" : "租家支付码头监装费用", "orgGathered" : { "$numberInt" : "3150" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "3150" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.17-律师等专业服务费", "content" : "租家支付WAR&amp;KNR保险费用", "orgGathered" : 18858.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 18858.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.17-律师等专业服务费", "content" : "租家支付高风险区安保费用", "orgGathered" : { "$numberInt" : "43200" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "43200" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付船员割除地令费用", "orgGathered" : { "$numberInt" : "7304" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "7304" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付安保人员在船吃饭费用", "orgGathered" : { "$numberInt" : "1050" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "1050" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "等待时间", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 3498.75, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 3498.75, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "佣金收入", "orgGathered" : 131.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 131.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "等待时间", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 5128.28, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 5128.28, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "佣金收入", "orgGathered" : 153.13, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 153.13, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "节省距离费用", "orgGathered" : 1657.64, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 1657.64, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "佣金费用", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 28.28, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 28.28, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "等待时间", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 30323.09, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 30323.09, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "佣金收入", "orgGathered" : 1101.03, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 1101.03, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1112759.74</t>
+  </si>
+  <si>
+    <t>1407009.44</t>
+  </si>
+  <si>
+    <t>294249.7</t>
   </si>
   <si>
     <t>1073</t>
@@ -5422,6 +5419,63 @@
   </si>
   <si>
     <t>66993.98</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "第五期租金", "orgGathered" : 52189.14, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 52189.14, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>52189.14</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.14-卸港使费 ", "content" : "岚桥港使费退费", "orgGathered" : 4691.14, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 677.861426197529, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>4691.14</t>
+  </si>
+  <si>
+    <t>677.861426197529</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5101.03-运费收入", "content" : "100% 运费收入", "orgGathered" : 1113044.73, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 1113044.73, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.02-佣金成本", "content" : "3.75% 佣金扣除", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 41739.18, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 41739.18, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "银行手续费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "10" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "10" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1071295.55</t>
+  </si>
+  <si>
+    <t>1113044.73</t>
+  </si>
+  <si>
+    <t>41749.18</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.03-劳务费奖金", "content" : "DO2302扫洗舱费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 17716.75, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2500" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>17716.75</t>
+  </si>
+  <si>
+    <t>2560.03901452207</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.17-律师等专业服务费", "content" : "支付CAMPBELL JOHNSTON CLARK 处理货物延迟交付索赔律师费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "4000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 2962.96296296296, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>5405.40540540541</t>
   </si>
 </sst>
 </file>
@@ -5465,7 +5519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G601"/>
+  <dimension ref="A1:G606"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -14101,73 +14155,73 @@
         <v>1124</v>
       </c>
       <c r="C376" t="s">
+        <v>66</v>
+      </c>
+      <c r="D376" t="s">
+        <v>66</v>
+      </c>
+      <c r="E376" t="s">
+        <v>10</v>
+      </c>
+      <c r="F376" t="s">
         <v>1125</v>
       </c>
-      <c r="D376" t="s">
-        <v>10</v>
-      </c>
-      <c r="E376" t="s">
-        <v>66</v>
-      </c>
-      <c r="F376" t="s">
-        <v>10</v>
-      </c>
       <c r="G376" t="s">
-        <v>1126</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B377" t="s">
         <v>1127</v>
       </c>
-      <c r="B377" t="s">
+      <c r="C377" t="s">
         <v>1128</v>
       </c>
-      <c r="C377" t="s">
-        <v>1129</v>
-      </c>
       <c r="D377" t="s">
         <v>10</v>
       </c>
       <c r="E377" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F377" t="s">
         <v>10</v>
       </c>
       <c r="G377" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B378" t="s">
         <v>1130</v>
       </c>
-      <c r="B378" t="s">
+      <c r="C378" t="s">
         <v>1131</v>
       </c>
-      <c r="C378" t="s">
+      <c r="D378" t="s">
+        <v>10</v>
+      </c>
+      <c r="E378" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F378" t="s">
+        <v>10</v>
+      </c>
+      <c r="G378" t="s">
         <v>1132</v>
-      </c>
-      <c r="D378" t="s">
-        <v>10</v>
-      </c>
-      <c r="E378" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F378" t="s">
-        <v>10</v>
-      </c>
-      <c r="G378" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B379" t="s">
         <v>1134</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1135</v>
       </c>
       <c r="C379" t="s">
         <v>427</v>
@@ -14190,99 +14244,99 @@
         <v>1063</v>
       </c>
       <c r="B380" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C380" t="s">
         <v>1136</v>
       </c>
-      <c r="C380" t="s">
-        <v>1137</v>
-      </c>
       <c r="D380" t="s">
         <v>10</v>
       </c>
       <c r="E380" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F380" t="s">
         <v>10</v>
       </c>
       <c r="G380" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B381" t="s">
         <v>1138</v>
       </c>
-      <c r="B381" t="s">
+      <c r="C381" t="s">
         <v>1139</v>
       </c>
-      <c r="C381" t="s">
-        <v>1140</v>
-      </c>
       <c r="D381" t="s">
         <v>10</v>
       </c>
       <c r="E381" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F381" t="s">
         <v>10</v>
       </c>
       <c r="G381" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B382" t="s">
         <v>1141</v>
       </c>
-      <c r="B382" t="s">
+      <c r="C382" t="s">
         <v>1142</v>
       </c>
-      <c r="C382" t="s">
-        <v>1143</v>
-      </c>
       <c r="D382" t="s">
         <v>10</v>
       </c>
       <c r="E382" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F382" t="s">
         <v>10</v>
       </c>
       <c r="G382" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B383" t="s">
         <v>1144</v>
       </c>
-      <c r="B383" t="s">
+      <c r="C383" t="s">
         <v>1145</v>
       </c>
-      <c r="C383" t="s">
-        <v>1146</v>
-      </c>
       <c r="D383" t="s">
         <v>10</v>
       </c>
       <c r="E383" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F383" t="s">
         <v>10</v>
       </c>
       <c r="G383" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B384" t="s">
         <v>1147</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1148</v>
       </c>
       <c r="C384" t="s">
         <v>600</v>
@@ -14302,137 +14356,137 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B385" t="s">
         <v>1149</v>
       </c>
-      <c r="B385" t="s">
+      <c r="C385" t="s">
         <v>1150</v>
       </c>
-      <c r="C385" t="s">
+      <c r="D385" t="s">
+        <v>10</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F385" t="s">
+        <v>10</v>
+      </c>
+      <c r="G385" t="s">
         <v>1151</v>
-      </c>
-      <c r="D385" t="s">
-        <v>10</v>
-      </c>
-      <c r="E385" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F385" t="s">
-        <v>10</v>
-      </c>
-      <c r="G385" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B386" t="s">
         <v>1153</v>
       </c>
-      <c r="B386" t="s">
+      <c r="C386" t="s">
         <v>1154</v>
       </c>
-      <c r="C386" t="s">
-        <v>1155</v>
-      </c>
       <c r="D386" t="s">
         <v>10</v>
       </c>
       <c r="E386" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F386" t="s">
         <v>10</v>
       </c>
       <c r="G386" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B387" t="s">
         <v>1156</v>
       </c>
-      <c r="B387" t="s">
+      <c r="C387" t="s">
         <v>1157</v>
       </c>
-      <c r="C387" t="s">
-        <v>1158</v>
-      </c>
       <c r="D387" t="s">
         <v>10</v>
       </c>
       <c r="E387" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F387" t="s">
         <v>10</v>
       </c>
       <c r="G387" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B388" t="s">
         <v>1159</v>
       </c>
-      <c r="B388" t="s">
+      <c r="C388" t="s">
         <v>1160</v>
       </c>
-      <c r="C388" t="s">
+      <c r="D388" t="s">
+        <v>10</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F388" t="s">
+        <v>10</v>
+      </c>
+      <c r="G388" t="s">
         <v>1161</v>
-      </c>
-      <c r="D388" t="s">
-        <v>10</v>
-      </c>
-      <c r="E388" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F388" t="s">
-        <v>10</v>
-      </c>
-      <c r="G388" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B389" t="s">
         <v>1163</v>
       </c>
-      <c r="B389" t="s">
+      <c r="C389" t="s">
         <v>1164</v>
       </c>
-      <c r="C389" t="s">
+      <c r="D389" t="s">
         <v>1165</v>
       </c>
-      <c r="D389" t="s">
+      <c r="E389" t="s">
         <v>1166</v>
       </c>
-      <c r="E389" t="s">
-        <v>1167</v>
-      </c>
       <c r="F389" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G389" t="s">
         <v>1166</v>
-      </c>
-      <c r="G389" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B390" t="s">
         <v>1168</v>
       </c>
-      <c r="B390" t="s">
+      <c r="C390" t="s">
         <v>1169</v>
       </c>
-      <c r="C390" t="s">
-        <v>1170</v>
-      </c>
       <c r="D390" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E390" t="s">
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G390" t="s">
         <v>10</v>
@@ -14440,33 +14494,33 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B391" t="s">
         <v>1171</v>
       </c>
-      <c r="B391" t="s">
+      <c r="C391" t="s">
         <v>1172</v>
       </c>
-      <c r="C391" t="s">
+      <c r="D391" t="s">
         <v>1173</v>
       </c>
-      <c r="D391" t="s">
+      <c r="E391" t="s">
         <v>1174</v>
       </c>
-      <c r="E391" t="s">
-        <v>1175</v>
-      </c>
       <c r="F391" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G391" t="s">
         <v>1174</v>
-      </c>
-      <c r="G391" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B392" t="s">
         <v>1176</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1177</v>
       </c>
       <c r="C392" t="s">
         <v>145</v>
@@ -14486,22 +14540,22 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B393" t="s">
         <v>1178</v>
       </c>
-      <c r="B393" t="s">
+      <c r="C393" t="s">
         <v>1179</v>
       </c>
-      <c r="C393" t="s">
-        <v>1180</v>
-      </c>
       <c r="D393" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E393" t="s">
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G393" t="s">
         <v>10</v>
@@ -14509,45 +14563,45 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B394" t="s">
         <v>1181</v>
       </c>
-      <c r="B394" t="s">
+      <c r="C394" t="s">
         <v>1182</v>
       </c>
-      <c r="C394" t="s">
+      <c r="D394" t="s">
+        <v>10</v>
+      </c>
+      <c r="E394" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F394" t="s">
+        <v>10</v>
+      </c>
+      <c r="G394" t="s">
         <v>1183</v>
-      </c>
-      <c r="D394" t="s">
-        <v>10</v>
-      </c>
-      <c r="E394" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F394" t="s">
-        <v>10</v>
-      </c>
-      <c r="G394" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B395" t="s">
         <v>1185</v>
       </c>
-      <c r="B395" t="s">
+      <c r="C395" t="s">
         <v>1186</v>
       </c>
-      <c r="C395" t="s">
-        <v>1187</v>
-      </c>
       <c r="D395" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E395" t="s">
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G395" t="s">
         <v>10</v>
@@ -14555,45 +14609,45 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B396" t="s">
         <v>1188</v>
       </c>
-      <c r="B396" t="s">
+      <c r="C396" t="s">
         <v>1189</v>
       </c>
-      <c r="C396" t="s">
-        <v>1190</v>
-      </c>
       <c r="D396" t="s">
         <v>10</v>
       </c>
       <c r="E396" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F396" t="s">
         <v>10</v>
       </c>
       <c r="G396" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B397" t="s">
         <v>1191</v>
       </c>
-      <c r="B397" t="s">
+      <c r="C397" t="s">
         <v>1192</v>
       </c>
-      <c r="C397" t="s">
-        <v>1193</v>
-      </c>
       <c r="D397" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E397" t="s">
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G397" t="s">
         <v>10</v>
@@ -14601,91 +14655,91 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B398" t="s">
         <v>1194</v>
       </c>
-      <c r="B398" t="s">
+      <c r="C398" t="s">
         <v>1195</v>
       </c>
-      <c r="C398" t="s">
+      <c r="D398" t="s">
+        <v>10</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F398" t="s">
+        <v>10</v>
+      </c>
+      <c r="G398" t="s">
         <v>1196</v>
-      </c>
-      <c r="D398" t="s">
-        <v>10</v>
-      </c>
-      <c r="E398" t="s">
-        <v>1196</v>
-      </c>
-      <c r="F398" t="s">
-        <v>10</v>
-      </c>
-      <c r="G398" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B399" t="s">
         <v>1198</v>
       </c>
-      <c r="B399" t="s">
+      <c r="C399" t="s">
         <v>1199</v>
       </c>
-      <c r="C399" t="s">
-        <v>1200</v>
-      </c>
       <c r="D399" t="s">
         <v>10</v>
       </c>
       <c r="E399" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F399" t="s">
         <v>10</v>
       </c>
       <c r="G399" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B400" t="s">
         <v>1201</v>
       </c>
-      <c r="B400" t="s">
+      <c r="C400" t="s">
         <v>1202</v>
       </c>
-      <c r="C400" t="s">
-        <v>1203</v>
-      </c>
       <c r="D400" t="s">
         <v>10</v>
       </c>
       <c r="E400" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F400" t="s">
         <v>10</v>
       </c>
       <c r="G400" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B401" t="s">
         <v>1204</v>
       </c>
-      <c r="B401" t="s">
+      <c r="C401" t="s">
         <v>1205</v>
       </c>
-      <c r="C401" t="s">
-        <v>1206</v>
-      </c>
       <c r="D401" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E401" t="s">
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G401" t="s">
         <v>10</v>
@@ -14693,22 +14747,22 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B402" t="s">
         <v>1207</v>
       </c>
-      <c r="B402" t="s">
+      <c r="C402" t="s">
         <v>1208</v>
       </c>
-      <c r="C402" t="s">
-        <v>1209</v>
-      </c>
       <c r="D402" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E402" t="s">
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G402" t="s">
         <v>10</v>
@@ -14716,22 +14770,22 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B403" t="s">
         <v>1210</v>
       </c>
-      <c r="B403" t="s">
+      <c r="C403" t="s">
         <v>1211</v>
       </c>
-      <c r="C403" t="s">
-        <v>1212</v>
-      </c>
       <c r="D403" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E403" t="s">
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G403" t="s">
         <v>10</v>
@@ -14739,22 +14793,22 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B404" t="s">
         <v>1213</v>
       </c>
-      <c r="B404" t="s">
+      <c r="C404" t="s">
         <v>1214</v>
       </c>
-      <c r="C404" t="s">
-        <v>1215</v>
-      </c>
       <c r="D404" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E404" t="s">
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G404" t="s">
         <v>10</v>
@@ -14762,22 +14816,22 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B405" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C405" t="s">
         <v>1205</v>
       </c>
-      <c r="C405" t="s">
-        <v>1206</v>
-      </c>
       <c r="D405" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E405" t="s">
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G405" t="s">
         <v>10</v>
@@ -14785,22 +14839,22 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B406" t="s">
         <v>1217</v>
       </c>
-      <c r="B406" t="s">
-        <v>1218</v>
-      </c>
       <c r="C406" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D406" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E406" t="s">
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G406" t="s">
         <v>10</v>
@@ -14808,45 +14862,45 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B407" t="s">
         <v>1219</v>
       </c>
-      <c r="B407" t="s">
+      <c r="C407" t="s">
         <v>1220</v>
       </c>
-      <c r="C407" t="s">
+      <c r="D407" t="s">
+        <v>10</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F407" t="s">
+        <v>10</v>
+      </c>
+      <c r="G407" t="s">
         <v>1221</v>
-      </c>
-      <c r="D407" t="s">
-        <v>10</v>
-      </c>
-      <c r="E407" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F407" t="s">
-        <v>10</v>
-      </c>
-      <c r="G407" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B408" t="s">
         <v>1223</v>
       </c>
-      <c r="B408" t="s">
+      <c r="C408" t="s">
         <v>1224</v>
       </c>
-      <c r="C408" t="s">
-        <v>1225</v>
-      </c>
       <c r="D408" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E408" t="s">
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G408" t="s">
         <v>10</v>
@@ -14854,22 +14908,22 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B409" t="s">
         <v>1226</v>
       </c>
-      <c r="B409" t="s">
+      <c r="C409" t="s">
         <v>1227</v>
       </c>
-      <c r="C409" t="s">
-        <v>1228</v>
-      </c>
       <c r="D409" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E409" t="s">
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G409" t="s">
         <v>10</v>
@@ -14877,10 +14931,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B410" t="s">
         <v>1229</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1230</v>
       </c>
       <c r="C410" t="s">
         <v>680</v>
@@ -14900,22 +14954,22 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B411" t="s">
         <v>1231</v>
       </c>
-      <c r="B411" t="s">
+      <c r="C411" t="s">
         <v>1232</v>
       </c>
-      <c r="C411" t="s">
-        <v>1233</v>
-      </c>
       <c r="D411" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E411" t="s">
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G411" t="s">
         <v>10</v>
@@ -14923,22 +14977,22 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B412" t="s">
         <v>1234</v>
       </c>
-      <c r="B412" t="s">
+      <c r="C412" t="s">
         <v>1235</v>
       </c>
-      <c r="C412" t="s">
-        <v>1236</v>
-      </c>
       <c r="D412" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E412" t="s">
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G412" t="s">
         <v>10</v>
@@ -14946,33 +15000,33 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B413" t="s">
         <v>1237</v>
       </c>
-      <c r="B413" t="s">
+      <c r="C413" t="s">
         <v>1238</v>
       </c>
-      <c r="C413" t="s">
-        <v>1239</v>
-      </c>
       <c r="D413" t="s">
         <v>10</v>
       </c>
       <c r="E413" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F413" t="s">
         <v>10</v>
       </c>
       <c r="G413" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B414" t="s">
         <v>1240</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1241</v>
       </c>
       <c r="C414" t="s">
         <v>976</v>
@@ -14992,22 +15046,22 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B415" t="s">
         <v>1242</v>
       </c>
-      <c r="B415" t="s">
+      <c r="C415" t="s">
         <v>1243</v>
       </c>
-      <c r="C415" t="s">
-        <v>1244</v>
-      </c>
       <c r="D415" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E415" t="s">
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G415" t="s">
         <v>10</v>
@@ -15015,68 +15069,68 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B416" t="s">
         <v>1245</v>
       </c>
-      <c r="B416" t="s">
+      <c r="C416" t="s">
         <v>1246</v>
       </c>
-      <c r="C416" t="s">
+      <c r="D416" t="s">
+        <v>10</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F416" t="s">
+        <v>10</v>
+      </c>
+      <c r="G416" t="s">
         <v>1247</v>
-      </c>
-      <c r="D416" t="s">
-        <v>10</v>
-      </c>
-      <c r="E416" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F416" t="s">
-        <v>10</v>
-      </c>
-      <c r="G416" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B417" t="s">
         <v>1249</v>
       </c>
-      <c r="B417" t="s">
+      <c r="C417" t="s">
         <v>1250</v>
       </c>
-      <c r="C417" t="s">
-        <v>1251</v>
-      </c>
       <c r="D417" t="s">
         <v>10</v>
       </c>
       <c r="E417" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F417" t="s">
         <v>10</v>
       </c>
       <c r="G417" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B418" t="s">
         <v>1252</v>
       </c>
-      <c r="B418" t="s">
+      <c r="C418" t="s">
         <v>1253</v>
       </c>
-      <c r="C418" t="s">
-        <v>1254</v>
-      </c>
       <c r="D418" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E418" t="s">
         <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G418" t="s">
         <v>10</v>
@@ -15084,45 +15138,45 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B419" t="s">
         <v>1255</v>
       </c>
-      <c r="B419" t="s">
+      <c r="C419" t="s">
         <v>1256</v>
       </c>
-      <c r="C419" t="s">
+      <c r="D419" t="s">
+        <v>10</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F419" t="s">
+        <v>10</v>
+      </c>
+      <c r="G419" t="s">
         <v>1257</v>
-      </c>
-      <c r="D419" t="s">
-        <v>10</v>
-      </c>
-      <c r="E419" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F419" t="s">
-        <v>10</v>
-      </c>
-      <c r="G419" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B420" t="s">
         <v>1259</v>
       </c>
-      <c r="B420" t="s">
+      <c r="C420" t="s">
         <v>1260</v>
       </c>
-      <c r="C420" t="s">
-        <v>1261</v>
-      </c>
       <c r="D420" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E420" t="s">
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G420" t="s">
         <v>10</v>
@@ -15130,33 +15184,33 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B421" t="s">
         <v>1262</v>
       </c>
-      <c r="B421" t="s">
+      <c r="C421" t="s">
         <v>1263</v>
-      </c>
-      <c r="C421" t="s">
-        <v>1264</v>
       </c>
       <c r="D421" t="s">
         <v>41</v>
       </c>
       <c r="E421" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F421" t="s">
         <v>41</v>
       </c>
       <c r="G421" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B422" t="s">
         <v>1266</v>
-      </c>
-      <c r="B422" t="s">
-        <v>1267</v>
       </c>
       <c r="C422" t="s">
         <v>393</v>
@@ -15176,140 +15230,140 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B423" t="s">
         <v>1268</v>
       </c>
-      <c r="B423" t="s">
+      <c r="C423" t="s">
         <v>1269</v>
       </c>
-      <c r="C423" t="s">
+      <c r="D423" t="s">
+        <v>10</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F423" t="s">
+        <v>10</v>
+      </c>
+      <c r="G423" t="s">
         <v>1270</v>
-      </c>
-      <c r="D423" t="s">
-        <v>10</v>
-      </c>
-      <c r="E423" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F423" t="s">
-        <v>10</v>
-      </c>
-      <c r="G423" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B424" t="s">
         <v>1272</v>
       </c>
-      <c r="B424" t="s">
+      <c r="C424" t="s">
         <v>1273</v>
       </c>
-      <c r="C424" t="s">
+      <c r="D424" t="s">
+        <v>10</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F424" t="s">
+        <v>10</v>
+      </c>
+      <c r="G424" t="s">
         <v>1274</v>
-      </c>
-      <c r="D424" t="s">
-        <v>10</v>
-      </c>
-      <c r="E424" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F424" t="s">
-        <v>10</v>
-      </c>
-      <c r="G424" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B425" t="s">
         <v>1276</v>
       </c>
-      <c r="B425" t="s">
+      <c r="C425" t="s">
         <v>1277</v>
       </c>
-      <c r="C425" t="s">
+      <c r="D425" t="s">
+        <v>10</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F425" t="s">
+        <v>10</v>
+      </c>
+      <c r="G425" t="s">
         <v>1278</v>
-      </c>
-      <c r="D425" t="s">
-        <v>10</v>
-      </c>
-      <c r="E425" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F425" t="s">
-        <v>10</v>
-      </c>
-      <c r="G425" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B426" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C426" t="s">
         <v>1269</v>
       </c>
-      <c r="C426" t="s">
+      <c r="D426" t="s">
+        <v>10</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F426" t="s">
+        <v>10</v>
+      </c>
+      <c r="G426" t="s">
         <v>1270</v>
-      </c>
-      <c r="D426" t="s">
-        <v>10</v>
-      </c>
-      <c r="E426" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F426" t="s">
-        <v>10</v>
-      </c>
-      <c r="G426" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B427" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C427" t="s">
         <v>1273</v>
       </c>
-      <c r="C427" t="s">
+      <c r="D427" t="s">
+        <v>10</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F427" t="s">
+        <v>10</v>
+      </c>
+      <c r="G427" t="s">
         <v>1274</v>
-      </c>
-      <c r="D427" t="s">
-        <v>10</v>
-      </c>
-      <c r="E427" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F427" t="s">
-        <v>10</v>
-      </c>
-      <c r="G427" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B428" t="s">
         <v>1282</v>
       </c>
-      <c r="B428" t="s">
-        <v>1283</v>
-      </c>
       <c r="C428" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D428" t="s">
         <v>10</v>
       </c>
       <c r="E428" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F428" t="s">
         <v>10</v>
       </c>
       <c r="G428" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="429">
@@ -15317,203 +15371,203 @@
         <v>50</v>
       </c>
       <c r="B429" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C429" t="s">
         <v>1284</v>
       </c>
-      <c r="C429" t="s">
+      <c r="D429" t="s">
+        <v>10</v>
+      </c>
+      <c r="E429" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F429" t="s">
+        <v>10</v>
+      </c>
+      <c r="G429" t="s">
         <v>1285</v>
-      </c>
-      <c r="D429" t="s">
-        <v>10</v>
-      </c>
-      <c r="E429" t="s">
-        <v>1285</v>
-      </c>
-      <c r="F429" t="s">
-        <v>10</v>
-      </c>
-      <c r="G429" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B430" t="s">
         <v>1287</v>
       </c>
-      <c r="B430" t="s">
+      <c r="C430" t="s">
         <v>1288</v>
       </c>
-      <c r="C430" t="s">
+      <c r="D430" t="s">
+        <v>10</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F430" t="s">
+        <v>10</v>
+      </c>
+      <c r="G430" t="s">
         <v>1289</v>
-      </c>
-      <c r="D430" t="s">
-        <v>10</v>
-      </c>
-      <c r="E430" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F430" t="s">
-        <v>10</v>
-      </c>
-      <c r="G430" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B431" t="s">
         <v>1291</v>
       </c>
-      <c r="B431" t="s">
+      <c r="C431" t="s">
         <v>1292</v>
       </c>
-      <c r="C431" t="s">
+      <c r="D431" t="s">
+        <v>10</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F431" t="s">
+        <v>10</v>
+      </c>
+      <c r="G431" t="s">
         <v>1293</v>
-      </c>
-      <c r="D431" t="s">
-        <v>10</v>
-      </c>
-      <c r="E431" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F431" t="s">
-        <v>10</v>
-      </c>
-      <c r="G431" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B432" t="s">
         <v>1295</v>
       </c>
-      <c r="B432" t="s">
-        <v>1296</v>
-      </c>
       <c r="C432" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D432" t="s">
+        <v>10</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F432" t="s">
+        <v>10</v>
+      </c>
+      <c r="G432" t="s">
         <v>1278</v>
-      </c>
-      <c r="D432" t="s">
-        <v>10</v>
-      </c>
-      <c r="E432" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F432" t="s">
-        <v>10</v>
-      </c>
-      <c r="G432" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B433" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C433" t="s">
         <v>1292</v>
       </c>
-      <c r="C433" t="s">
+      <c r="D433" t="s">
+        <v>10</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F433" t="s">
+        <v>10</v>
+      </c>
+      <c r="G433" t="s">
         <v>1293</v>
-      </c>
-      <c r="D433" t="s">
-        <v>10</v>
-      </c>
-      <c r="E433" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F433" t="s">
-        <v>10</v>
-      </c>
-      <c r="G433" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B434" t="s">
         <v>1298</v>
       </c>
-      <c r="B434" t="s">
+      <c r="C434" t="s">
         <v>1299</v>
       </c>
-      <c r="C434" t="s">
+      <c r="D434" t="s">
+        <v>10</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F434" t="s">
+        <v>10</v>
+      </c>
+      <c r="G434" t="s">
         <v>1300</v>
-      </c>
-      <c r="D434" t="s">
-        <v>10</v>
-      </c>
-      <c r="E434" t="s">
-        <v>1300</v>
-      </c>
-      <c r="F434" t="s">
-        <v>10</v>
-      </c>
-      <c r="G434" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B435" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C435" t="s">
         <v>1299</v>
       </c>
-      <c r="C435" t="s">
+      <c r="D435" t="s">
+        <v>10</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F435" t="s">
+        <v>10</v>
+      </c>
+      <c r="G435" t="s">
         <v>1300</v>
-      </c>
-      <c r="D435" t="s">
-        <v>10</v>
-      </c>
-      <c r="E435" t="s">
-        <v>1300</v>
-      </c>
-      <c r="F435" t="s">
-        <v>10</v>
-      </c>
-      <c r="G435" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B436" t="s">
         <v>1303</v>
       </c>
-      <c r="B436" t="s">
+      <c r="C436" t="s">
         <v>1304</v>
       </c>
-      <c r="C436" t="s">
+      <c r="D436" t="s">
+        <v>10</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F436" t="s">
+        <v>10</v>
+      </c>
+      <c r="G436" t="s">
         <v>1305</v>
-      </c>
-      <c r="D436" t="s">
-        <v>10</v>
-      </c>
-      <c r="E436" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F436" t="s">
-        <v>10</v>
-      </c>
-      <c r="G436" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B437" t="s">
         <v>1307</v>
       </c>
-      <c r="B437" t="s">
+      <c r="C437" t="s">
         <v>1308</v>
       </c>
-      <c r="C437" t="s">
-        <v>1309</v>
-      </c>
       <c r="D437" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E437" t="s">
         <v>10</v>
       </c>
       <c r="F437" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G437" t="s">
         <v>10</v>
@@ -15521,10 +15575,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B438" t="s">
         <v>1310</v>
-      </c>
-      <c r="B438" t="s">
-        <v>1311</v>
       </c>
       <c r="C438" t="s">
         <v>630</v>
@@ -15539,15 +15593,15 @@
         <v>10</v>
       </c>
       <c r="G438" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B439" t="s">
         <v>1313</v>
-      </c>
-      <c r="B439" t="s">
-        <v>1314</v>
       </c>
       <c r="C439" t="s">
         <v>1053</v>
@@ -15567,22 +15621,22 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B440" t="s">
         <v>1315</v>
       </c>
-      <c r="B440" t="s">
+      <c r="C440" t="s">
         <v>1316</v>
       </c>
-      <c r="C440" t="s">
-        <v>1317</v>
-      </c>
       <c r="D440" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E440" t="s">
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G440" t="s">
         <v>10</v>
@@ -15590,45 +15644,45 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B441" t="s">
         <v>1318</v>
       </c>
-      <c r="B441" t="s">
+      <c r="C441" t="s">
         <v>1319</v>
       </c>
-      <c r="C441" t="s">
+      <c r="D441" t="s">
         <v>1320</v>
       </c>
-      <c r="D441" t="s">
+      <c r="E441" t="s">
         <v>1321</v>
       </c>
-      <c r="E441" t="s">
-        <v>1322</v>
-      </c>
       <c r="F441" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G441" t="s">
         <v>1321</v>
-      </c>
-      <c r="G441" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B442" t="s">
         <v>1323</v>
       </c>
-      <c r="B442" t="s">
+      <c r="C442" t="s">
         <v>1324</v>
       </c>
-      <c r="C442" t="s">
-        <v>1325</v>
-      </c>
       <c r="D442" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E442" t="s">
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G442" t="s">
         <v>10</v>
@@ -15636,10 +15690,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B443" t="s">
         <v>1326</v>
-      </c>
-      <c r="B443" t="s">
-        <v>1327</v>
       </c>
       <c r="C443" t="s">
         <v>1053</v>
@@ -15659,22 +15713,22 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B444" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C444" t="s">
         <v>1243</v>
       </c>
-      <c r="C444" t="s">
-        <v>1244</v>
-      </c>
       <c r="D444" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E444" t="s">
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G444" t="s">
         <v>10</v>
@@ -15682,10 +15736,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B445" t="s">
         <v>1329</v>
-      </c>
-      <c r="B445" t="s">
-        <v>1330</v>
       </c>
       <c r="C445" t="s">
         <v>466</v>
@@ -15705,56 +15759,56 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B446" t="s">
         <v>1331</v>
       </c>
-      <c r="B446" t="s">
+      <c r="C446" t="s">
         <v>1332</v>
       </c>
-      <c r="C446" t="s">
-        <v>1333</v>
-      </c>
       <c r="D446" t="s">
         <v>10</v>
       </c>
       <c r="E446" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F446" t="s">
         <v>10</v>
       </c>
       <c r="G446" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B447" t="s">
         <v>1334</v>
       </c>
-      <c r="B447" t="s">
-        <v>1335</v>
-      </c>
       <c r="C447" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D447" t="s">
         <v>10</v>
       </c>
       <c r="E447" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F447" t="s">
         <v>10</v>
       </c>
       <c r="G447" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B448" t="s">
         <v>1336</v>
-      </c>
-      <c r="B448" t="s">
-        <v>1337</v>
       </c>
       <c r="C448" t="s">
         <v>1095</v>
@@ -15774,22 +15828,22 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B449" t="s">
         <v>1338</v>
       </c>
-      <c r="B449" t="s">
-        <v>1339</v>
-      </c>
       <c r="C449" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D449" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E449" t="s">
         <v>10</v>
       </c>
       <c r="F449" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G449" t="s">
         <v>10</v>
@@ -15797,125 +15851,125 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B450" t="s">
         <v>1340</v>
       </c>
-      <c r="B450" t="s">
+      <c r="C450" t="s">
         <v>1341</v>
       </c>
-      <c r="C450" t="s">
+      <c r="D450" t="s">
+        <v>10</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F450" t="s">
+        <v>10</v>
+      </c>
+      <c r="G450" t="s">
         <v>1342</v>
-      </c>
-      <c r="D450" t="s">
-        <v>10</v>
-      </c>
-      <c r="E450" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F450" t="s">
-        <v>10</v>
-      </c>
-      <c r="G450" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B451" t="s">
         <v>1344</v>
       </c>
-      <c r="B451" t="s">
+      <c r="C451" t="s">
         <v>1345</v>
       </c>
-      <c r="C451" t="s">
-        <v>1346</v>
-      </c>
       <c r="D451" t="s">
         <v>10</v>
       </c>
       <c r="E451" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F451" t="s">
         <v>10</v>
       </c>
       <c r="G451" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B452" t="s">
         <v>1347</v>
       </c>
-      <c r="B452" t="s">
+      <c r="C452" t="s">
         <v>1348</v>
       </c>
-      <c r="C452" t="s">
-        <v>1349</v>
-      </c>
       <c r="D452" t="s">
         <v>10</v>
       </c>
       <c r="E452" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F452" t="s">
         <v>10</v>
       </c>
       <c r="G452" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B453" t="s">
         <v>1350</v>
       </c>
-      <c r="B453" t="s">
+      <c r="C453" t="s">
         <v>1351</v>
       </c>
-      <c r="C453" t="s">
-        <v>1352</v>
-      </c>
       <c r="D453" t="s">
         <v>10</v>
       </c>
       <c r="E453" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F453" t="s">
         <v>10</v>
       </c>
       <c r="G453" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B454" t="s">
         <v>1353</v>
       </c>
-      <c r="B454" t="s">
+      <c r="C454" t="s">
         <v>1354</v>
       </c>
-      <c r="C454" t="s">
-        <v>1355</v>
-      </c>
       <c r="D454" t="s">
         <v>10</v>
       </c>
       <c r="E454" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F454" t="s">
         <v>10</v>
       </c>
       <c r="G454" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B455" t="s">
         <v>1356</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1357</v>
       </c>
       <c r="C455" t="s">
         <v>387</v>
@@ -15930,38 +15984,38 @@
         <v>10</v>
       </c>
       <c r="G455" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B456" t="s">
         <v>1359</v>
       </c>
-      <c r="B456" t="s">
+      <c r="C456" t="s">
         <v>1360</v>
       </c>
-      <c r="C456" t="s">
+      <c r="D456" t="s">
+        <v>10</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F456" t="s">
+        <v>10</v>
+      </c>
+      <c r="G456" t="s">
         <v>1361</v>
-      </c>
-      <c r="D456" t="s">
-        <v>10</v>
-      </c>
-      <c r="E456" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F456" t="s">
-        <v>10</v>
-      </c>
-      <c r="G456" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B457" t="s">
         <v>1363</v>
-      </c>
-      <c r="B457" t="s">
-        <v>1364</v>
       </c>
       <c r="C457" t="s">
         <v>600</v>
@@ -15976,15 +16030,15 @@
         <v>10</v>
       </c>
       <c r="G457" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B458" t="s">
         <v>1366</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1367</v>
       </c>
       <c r="C458" t="s">
         <v>600</v>
@@ -16004,42 +16058,42 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B459" t="s">
         <v>1368</v>
       </c>
-      <c r="B459" t="s">
+      <c r="C459" t="s">
         <v>1369</v>
       </c>
-      <c r="C459" t="s">
-        <v>1370</v>
-      </c>
       <c r="D459" t="s">
         <v>10</v>
       </c>
       <c r="E459" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F459" t="s">
         <v>10</v>
       </c>
       <c r="G459" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B460" t="s">
         <v>1371</v>
       </c>
-      <c r="B460" t="s">
+      <c r="C460" t="s">
         <v>1372</v>
       </c>
-      <c r="C460" t="s">
-        <v>1373</v>
-      </c>
       <c r="D460" t="s">
         <v>10</v>
       </c>
       <c r="E460" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F460" t="s">
         <v>10</v>
@@ -16050,19 +16104,19 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B461" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C461" t="s">
         <v>1372</v>
       </c>
-      <c r="C461" t="s">
-        <v>1373</v>
-      </c>
       <c r="D461" t="s">
         <v>10</v>
       </c>
       <c r="E461" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F461" t="s">
         <v>10</v>
@@ -16073,10 +16127,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B462" t="s">
         <v>1375</v>
-      </c>
-      <c r="B462" t="s">
-        <v>1376</v>
       </c>
       <c r="C462" t="s">
         <v>1040</v>
@@ -16091,38 +16145,38 @@
         <v>10</v>
       </c>
       <c r="G462" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B463" t="s">
         <v>1378</v>
       </c>
-      <c r="B463" t="s">
+      <c r="C463" t="s">
         <v>1379</v>
       </c>
-      <c r="C463" t="s">
-        <v>1380</v>
-      </c>
       <c r="D463" t="s">
         <v>10</v>
       </c>
       <c r="E463" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F463" t="s">
         <v>10</v>
       </c>
       <c r="G463" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B464" t="s">
         <v>1381</v>
-      </c>
-      <c r="B464" t="s">
-        <v>1382</v>
       </c>
       <c r="C464" t="s">
         <v>793</v>
@@ -16142,10 +16196,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B465" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C465" t="s">
         <v>89</v>
@@ -16165,42 +16219,42 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B466" t="s">
         <v>1384</v>
       </c>
-      <c r="B466" t="s">
+      <c r="C466" t="s">
         <v>1385</v>
       </c>
-      <c r="C466" t="s">
-        <v>1386</v>
-      </c>
       <c r="D466" t="s">
         <v>10</v>
       </c>
       <c r="E466" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F466" t="s">
         <v>10</v>
       </c>
       <c r="G466" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B467" t="s">
         <v>1387</v>
       </c>
-      <c r="B467" t="s">
-        <v>1388</v>
-      </c>
       <c r="C467" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D467" t="s">
         <v>10</v>
       </c>
       <c r="E467" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F467" t="s">
         <v>10</v>
@@ -16211,79 +16265,79 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B468" t="s">
         <v>1389</v>
       </c>
-      <c r="B468" t="s">
+      <c r="C468" t="s">
         <v>1390</v>
       </c>
-      <c r="C468" t="s">
+      <c r="D468" t="s">
+        <v>10</v>
+      </c>
+      <c r="E468" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F468" t="s">
+        <v>10</v>
+      </c>
+      <c r="G468" t="s">
         <v>1391</v>
-      </c>
-      <c r="D468" t="s">
-        <v>10</v>
-      </c>
-      <c r="E468" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F468" t="s">
-        <v>10</v>
-      </c>
-      <c r="G468" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B469" t="s">
         <v>1393</v>
       </c>
-      <c r="B469" t="s">
+      <c r="C469" t="s">
         <v>1394</v>
       </c>
-      <c r="C469" t="s">
-        <v>1395</v>
-      </c>
       <c r="D469" t="s">
         <v>10</v>
       </c>
       <c r="E469" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F469" t="s">
         <v>10</v>
       </c>
       <c r="G469" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B470" t="s">
         <v>1396</v>
       </c>
-      <c r="B470" t="s">
+      <c r="C470" t="s">
         <v>1397</v>
       </c>
-      <c r="C470" t="s">
-        <v>1398</v>
-      </c>
       <c r="D470" t="s">
         <v>10</v>
       </c>
       <c r="E470" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F470" t="s">
         <v>10</v>
       </c>
       <c r="G470" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B471" t="s">
         <v>1399</v>
-      </c>
-      <c r="B471" t="s">
-        <v>1400</v>
       </c>
       <c r="C471" t="s">
         <v>681</v>
@@ -16303,114 +16357,114 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B472" t="s">
         <v>1401</v>
       </c>
-      <c r="B472" t="s">
+      <c r="C472" t="s">
         <v>1402</v>
       </c>
-      <c r="C472" t="s">
-        <v>1403</v>
-      </c>
       <c r="D472" t="s">
         <v>10</v>
       </c>
       <c r="E472" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F472" t="s">
         <v>10</v>
       </c>
       <c r="G472" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B473" t="s">
         <v>1404</v>
       </c>
-      <c r="B473" t="s">
+      <c r="C473" t="s">
         <v>1405</v>
       </c>
-      <c r="C473" t="s">
-        <v>1406</v>
-      </c>
       <c r="D473" t="s">
         <v>10</v>
       </c>
       <c r="E473" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F473" t="s">
         <v>10</v>
       </c>
       <c r="G473" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B474" t="s">
         <v>1407</v>
       </c>
-      <c r="B474" t="s">
+      <c r="C474" t="s">
         <v>1408</v>
       </c>
-      <c r="C474" t="s">
-        <v>1409</v>
-      </c>
       <c r="D474" t="s">
         <v>10</v>
       </c>
       <c r="E474" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F474" t="s">
         <v>10</v>
       </c>
       <c r="G474" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B475" t="s">
         <v>1410</v>
       </c>
-      <c r="B475" t="s">
+      <c r="C475" t="s">
         <v>1411</v>
       </c>
-      <c r="C475" t="s">
-        <v>1412</v>
-      </c>
       <c r="D475" t="s">
         <v>10</v>
       </c>
       <c r="E475" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F475" t="s">
         <v>10</v>
       </c>
       <c r="G475" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B476" t="s">
         <v>1413</v>
       </c>
-      <c r="B476" t="s">
+      <c r="C476" t="s">
         <v>1414</v>
       </c>
-      <c r="C476" t="s">
-        <v>1415</v>
-      </c>
       <c r="D476" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E476" t="s">
         <v>10</v>
       </c>
       <c r="F476" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G476" t="s">
         <v>10</v>
@@ -16418,22 +16472,22 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B477" t="s">
         <v>1416</v>
       </c>
-      <c r="B477" t="s">
+      <c r="C477" t="s">
         <v>1417</v>
       </c>
-      <c r="C477" t="s">
-        <v>1418</v>
-      </c>
       <c r="D477" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E477" t="s">
         <v>10</v>
       </c>
       <c r="F477" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G477" t="s">
         <v>10</v>
@@ -16441,10 +16495,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B478" t="s">
         <v>1419</v>
-      </c>
-      <c r="B478" t="s">
-        <v>1420</v>
       </c>
       <c r="C478" t="s">
         <v>989</v>
@@ -16464,19 +16518,19 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B479" t="s">
         <v>1421</v>
       </c>
-      <c r="B479" t="s">
-        <v>1422</v>
-      </c>
       <c r="C479" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D479" t="s">
         <v>10</v>
       </c>
       <c r="E479" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F479" t="s">
         <v>10</v>
@@ -16487,125 +16541,125 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B480" t="s">
         <v>1423</v>
       </c>
-      <c r="B480" t="s">
+      <c r="C480" t="s">
         <v>1424</v>
       </c>
-      <c r="C480" t="s">
-        <v>1425</v>
-      </c>
       <c r="D480" t="s">
         <v>10</v>
       </c>
       <c r="E480" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F480" t="s">
         <v>10</v>
       </c>
       <c r="G480" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B481" t="s">
         <v>1426</v>
       </c>
-      <c r="B481" t="s">
+      <c r="C481" t="s">
         <v>1427</v>
       </c>
-      <c r="C481" t="s">
+      <c r="D481" t="s">
+        <v>10</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F481" t="s">
+        <v>10</v>
+      </c>
+      <c r="G481" t="s">
         <v>1428</v>
-      </c>
-      <c r="D481" t="s">
-        <v>10</v>
-      </c>
-      <c r="E481" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F481" t="s">
-        <v>10</v>
-      </c>
-      <c r="G481" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B482" t="s">
         <v>1430</v>
       </c>
-      <c r="B482" t="s">
+      <c r="C482" t="s">
         <v>1431</v>
       </c>
-      <c r="C482" t="s">
-        <v>1432</v>
-      </c>
       <c r="D482" t="s">
         <v>10</v>
       </c>
       <c r="E482" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F482" t="s">
         <v>10</v>
       </c>
       <c r="G482" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B483" t="s">
         <v>1433</v>
       </c>
-      <c r="B483" t="s">
+      <c r="C483" t="s">
         <v>1434</v>
       </c>
-      <c r="C483" t="s">
-        <v>1435</v>
-      </c>
       <c r="D483" t="s">
         <v>10</v>
       </c>
       <c r="E483" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="F483" t="s">
         <v>10</v>
       </c>
       <c r="G483" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B484" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C484" t="s">
         <v>1436</v>
       </c>
-      <c r="C484" t="s">
-        <v>1437</v>
-      </c>
       <c r="D484" t="s">
         <v>10</v>
       </c>
       <c r="E484" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F484" t="s">
         <v>10</v>
       </c>
       <c r="G484" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B485" t="s">
         <v>1438</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1439</v>
       </c>
       <c r="C485" t="s">
         <v>19</v>
@@ -16620,30 +16674,30 @@
         <v>10</v>
       </c>
       <c r="G485" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B486" t="s">
         <v>1441</v>
       </c>
-      <c r="B486" t="s">
+      <c r="C486" t="s">
         <v>1442</v>
       </c>
-      <c r="C486" t="s">
+      <c r="D486" t="s">
         <v>1443</v>
       </c>
-      <c r="D486" t="s">
+      <c r="E486" t="s">
         <v>1444</v>
       </c>
-      <c r="E486" t="s">
-        <v>1445</v>
-      </c>
       <c r="F486" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G486" t="s">
         <v>1444</v>
-      </c>
-      <c r="G486" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="487">
@@ -16651,42 +16705,42 @@
         <v>354</v>
       </c>
       <c r="B487" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C487" t="s">
         <v>1446</v>
       </c>
-      <c r="C487" t="s">
+      <c r="D487" t="s">
+        <v>10</v>
+      </c>
+      <c r="E487" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F487" t="s">
+        <v>10</v>
+      </c>
+      <c r="G487" t="s">
         <v>1447</v>
-      </c>
-      <c r="D487" t="s">
-        <v>10</v>
-      </c>
-      <c r="E487" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F487" t="s">
-        <v>10</v>
-      </c>
-      <c r="G487" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B488" t="s">
         <v>1449</v>
       </c>
-      <c r="B488" t="s">
+      <c r="C488" t="s">
         <v>1450</v>
       </c>
-      <c r="C488" t="s">
-        <v>1451</v>
-      </c>
       <c r="D488" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E488" t="s">
         <v>10</v>
       </c>
       <c r="F488" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G488" t="s">
         <v>10</v>
@@ -16694,45 +16748,45 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B489" t="s">
         <v>1452</v>
       </c>
-      <c r="B489" t="s">
+      <c r="C489" t="s">
         <v>1453</v>
       </c>
-      <c r="C489" t="s">
+      <c r="D489" t="s">
         <v>1454</v>
       </c>
-      <c r="D489" t="s">
+      <c r="E489" t="s">
         <v>1455</v>
       </c>
-      <c r="E489" t="s">
-        <v>1456</v>
-      </c>
       <c r="F489" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G489" t="s">
         <v>1455</v>
-      </c>
-      <c r="G489" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B490" t="s">
         <v>1457</v>
       </c>
-      <c r="B490" t="s">
+      <c r="C490" t="s">
         <v>1458</v>
       </c>
-      <c r="C490" t="s">
-        <v>1459</v>
-      </c>
       <c r="D490" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E490" t="s">
         <v>10</v>
       </c>
       <c r="F490" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G490" t="s">
         <v>10</v>
@@ -16740,22 +16794,22 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B491" t="s">
         <v>1460</v>
       </c>
-      <c r="B491" t="s">
+      <c r="C491" t="s">
         <v>1461</v>
       </c>
-      <c r="C491" t="s">
+      <c r="D491" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E491" t="s">
+        <v>10</v>
+      </c>
+      <c r="F491" t="s">
         <v>1462</v>
-      </c>
-      <c r="D491" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E491" t="s">
-        <v>10</v>
-      </c>
-      <c r="F491" t="s">
-        <v>1463</v>
       </c>
       <c r="G491" t="s">
         <v>10</v>
@@ -16763,22 +16817,22 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B492" t="s">
         <v>1464</v>
       </c>
-      <c r="B492" t="s">
+      <c r="C492" t="s">
         <v>1465</v>
       </c>
-      <c r="C492" t="s">
+      <c r="D492" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E492" t="s">
+        <v>10</v>
+      </c>
+      <c r="F492" t="s">
         <v>1466</v>
-      </c>
-      <c r="D492" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E492" t="s">
-        <v>10</v>
-      </c>
-      <c r="F492" t="s">
-        <v>1467</v>
       </c>
       <c r="G492" t="s">
         <v>10</v>
@@ -16786,22 +16840,22 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B493" t="s">
         <v>1468</v>
       </c>
-      <c r="B493" t="s">
+      <c r="C493" t="s">
         <v>1469</v>
       </c>
-      <c r="C493" t="s">
-        <v>1470</v>
-      </c>
       <c r="D493" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E493" t="s">
         <v>10</v>
       </c>
       <c r="F493" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G493" t="s">
         <v>10</v>
@@ -16809,10 +16863,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B494" t="s">
         <v>1471</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1472</v>
       </c>
       <c r="C494" t="s">
         <v>89</v>
@@ -16832,22 +16886,22 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B495" t="s">
         <v>1473</v>
       </c>
-      <c r="B495" t="s">
+      <c r="C495" t="s">
         <v>1474</v>
       </c>
-      <c r="C495" t="s">
-        <v>1475</v>
-      </c>
       <c r="D495" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E495" t="s">
         <v>10</v>
       </c>
       <c r="F495" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G495" t="s">
         <v>10</v>
@@ -16855,22 +16909,22 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B496" t="s">
         <v>1476</v>
       </c>
-      <c r="B496" t="s">
+      <c r="C496" t="s">
         <v>1477</v>
       </c>
-      <c r="C496" t="s">
+      <c r="D496" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E496" t="s">
+        <v>10</v>
+      </c>
+      <c r="F496" t="s">
         <v>1478</v>
-      </c>
-      <c r="D496" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E496" t="s">
-        <v>10</v>
-      </c>
-      <c r="F496" t="s">
-        <v>1479</v>
       </c>
       <c r="G496" t="s">
         <v>10</v>
@@ -16878,22 +16932,22 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B497" t="s">
         <v>1480</v>
       </c>
-      <c r="B497" t="s">
+      <c r="C497" t="s">
         <v>1481</v>
       </c>
-      <c r="C497" t="s">
-        <v>1482</v>
-      </c>
       <c r="D497" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E497" t="s">
         <v>10</v>
       </c>
       <c r="F497" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G497" t="s">
         <v>10</v>
@@ -16901,10 +16955,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B498" t="s">
         <v>1483</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1484</v>
       </c>
       <c r="C498" t="s">
         <v>135</v>
@@ -16924,10 +16978,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B499" t="s">
         <v>1485</v>
-      </c>
-      <c r="B499" t="s">
-        <v>1486</v>
       </c>
       <c r="C499" t="s">
         <v>333</v>
@@ -16942,27 +16996,27 @@
         <v>10</v>
       </c>
       <c r="G499" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B500" t="s">
         <v>1488</v>
       </c>
-      <c r="B500" t="s">
+      <c r="C500" t="s">
         <v>1489</v>
       </c>
-      <c r="C500" t="s">
-        <v>1490</v>
-      </c>
       <c r="D500" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E500" t="s">
         <v>10</v>
       </c>
       <c r="F500" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="G500" t="s">
         <v>10</v>
@@ -16970,22 +17024,22 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B501" t="s">
         <v>1491</v>
       </c>
-      <c r="B501" t="s">
+      <c r="C501" t="s">
         <v>1492</v>
       </c>
-      <c r="C501" t="s">
-        <v>1493</v>
-      </c>
       <c r="D501" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E501" t="s">
         <v>10</v>
       </c>
       <c r="F501" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G501" t="s">
         <v>10</v>
@@ -16993,45 +17047,45 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B502" t="s">
         <v>1494</v>
       </c>
-      <c r="B502" t="s">
+      <c r="C502" t="s">
+        <v>10</v>
+      </c>
+      <c r="D502" t="s">
         <v>1495</v>
       </c>
-      <c r="C502" t="s">
-        <v>10</v>
-      </c>
-      <c r="D502" t="s">
-        <v>1496</v>
-      </c>
       <c r="E502" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="F502" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G502" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B503" t="s">
         <v>1497</v>
       </c>
-      <c r="B503" t="s">
+      <c r="C503" t="s">
         <v>1498</v>
       </c>
-      <c r="C503" t="s">
+      <c r="D503" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E503" t="s">
+        <v>10</v>
+      </c>
+      <c r="F503" t="s">
         <v>1499</v>
-      </c>
-      <c r="D503" t="s">
-        <v>1499</v>
-      </c>
-      <c r="E503" t="s">
-        <v>10</v>
-      </c>
-      <c r="F503" t="s">
-        <v>1500</v>
       </c>
       <c r="G503" t="s">
         <v>10</v>
@@ -17039,10 +17093,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B504" t="s">
         <v>1501</v>
-      </c>
-      <c r="B504" t="s">
-        <v>1502</v>
       </c>
       <c r="C504" t="s">
         <v>451</v>
@@ -17062,25 +17116,25 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B505" t="s">
         <v>1503</v>
       </c>
-      <c r="B505" t="s">
+      <c r="C505" t="s">
         <v>1504</v>
       </c>
-      <c r="C505" t="s">
+      <c r="D505" t="s">
+        <v>10</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F505" t="s">
+        <v>10</v>
+      </c>
+      <c r="G505" t="s">
         <v>1505</v>
-      </c>
-      <c r="D505" t="s">
-        <v>10</v>
-      </c>
-      <c r="E505" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F505" t="s">
-        <v>10</v>
-      </c>
-      <c r="G505" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="506">
@@ -17088,19 +17142,19 @@
         <v>107</v>
       </c>
       <c r="B506" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C506" t="s">
         <v>1507</v>
       </c>
-      <c r="C506" t="s">
-        <v>1508</v>
-      </c>
       <c r="D506" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="E506" t="s">
         <v>10</v>
       </c>
       <c r="F506" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G506" t="s">
         <v>10</v>
@@ -17108,10 +17162,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B507" t="s">
         <v>1509</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1510</v>
       </c>
       <c r="C507" t="s">
         <v>19</v>
@@ -17131,68 +17185,68 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B508" t="s">
         <v>1511</v>
       </c>
-      <c r="B508" t="s">
+      <c r="C508" t="s">
         <v>1512</v>
       </c>
-      <c r="C508" t="s">
+      <c r="D508" t="s">
+        <v>10</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F508" t="s">
+        <v>10</v>
+      </c>
+      <c r="G508" t="s">
         <v>1513</v>
-      </c>
-      <c r="D508" t="s">
-        <v>10</v>
-      </c>
-      <c r="E508" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F508" t="s">
-        <v>10</v>
-      </c>
-      <c r="G508" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B509" t="s">
         <v>1515</v>
       </c>
-      <c r="B509" t="s">
+      <c r="C509" t="s">
         <v>1516</v>
       </c>
-      <c r="C509" t="s">
+      <c r="D509" t="s">
         <v>1517</v>
       </c>
-      <c r="D509" t="s">
+      <c r="E509" t="s">
         <v>1518</v>
       </c>
-      <c r="E509" t="s">
-        <v>1519</v>
-      </c>
       <c r="F509" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G509" t="s">
         <v>1518</v>
-      </c>
-      <c r="G509" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B510" t="s">
         <v>1520</v>
       </c>
-      <c r="B510" t="s">
+      <c r="C510" t="s">
         <v>1521</v>
       </c>
-      <c r="C510" t="s">
-        <v>1522</v>
-      </c>
       <c r="D510" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E510" t="s">
         <v>10</v>
       </c>
       <c r="F510" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G510" t="s">
         <v>10</v>
@@ -17200,22 +17254,22 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B511" t="s">
         <v>1523</v>
       </c>
-      <c r="B511" t="s">
+      <c r="C511" t="s">
         <v>1524</v>
       </c>
-      <c r="C511" t="s">
-        <v>1525</v>
-      </c>
       <c r="D511" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E511" t="s">
         <v>10</v>
       </c>
       <c r="F511" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G511" t="s">
         <v>10</v>
@@ -17223,22 +17277,22 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B512" t="s">
         <v>1526</v>
       </c>
-      <c r="B512" t="s">
+      <c r="C512" t="s">
         <v>1527</v>
       </c>
-      <c r="C512" t="s">
-        <v>1528</v>
-      </c>
       <c r="D512" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E512" t="s">
         <v>10</v>
       </c>
       <c r="F512" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G512" t="s">
         <v>10</v>
@@ -17246,22 +17300,22 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B513" t="s">
         <v>1529</v>
       </c>
-      <c r="B513" t="s">
+      <c r="C513" t="s">
         <v>1530</v>
       </c>
-      <c r="C513" t="s">
-        <v>1531</v>
-      </c>
       <c r="D513" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E513" t="s">
         <v>10</v>
       </c>
       <c r="F513" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="G513" t="s">
         <v>10</v>
@@ -17269,171 +17323,171 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B514" t="s">
         <v>1532</v>
       </c>
-      <c r="B514" t="s">
+      <c r="C514" t="s">
         <v>1533</v>
       </c>
-      <c r="C514" t="s">
+      <c r="D514" t="s">
+        <v>10</v>
+      </c>
+      <c r="E514" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F514" t="s">
+        <v>10</v>
+      </c>
+      <c r="G514" t="s">
         <v>1534</v>
-      </c>
-      <c r="D514" t="s">
-        <v>10</v>
-      </c>
-      <c r="E514" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F514" t="s">
-        <v>10</v>
-      </c>
-      <c r="G514" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B515" t="s">
         <v>1536</v>
       </c>
-      <c r="B515" t="s">
+      <c r="C515" t="s">
         <v>1537</v>
       </c>
-      <c r="C515" t="s">
+      <c r="D515" t="s">
+        <v>10</v>
+      </c>
+      <c r="E515" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F515" t="s">
+        <v>10</v>
+      </c>
+      <c r="G515" t="s">
         <v>1538</v>
-      </c>
-      <c r="D515" t="s">
-        <v>10</v>
-      </c>
-      <c r="E515" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F515" t="s">
-        <v>10</v>
-      </c>
-      <c r="G515" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B516" t="s">
         <v>1540</v>
       </c>
-      <c r="B516" t="s">
+      <c r="C516" t="s">
         <v>1541</v>
-      </c>
-      <c r="C516" t="s">
-        <v>1542</v>
       </c>
       <c r="D516" t="s">
         <v>637</v>
       </c>
       <c r="E516" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F516" t="s">
         <v>637</v>
       </c>
       <c r="G516" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B517" t="s">
         <v>1544</v>
       </c>
-      <c r="B517" t="s">
+      <c r="C517" t="s">
         <v>1545</v>
       </c>
-      <c r="C517" t="s">
-        <v>1546</v>
-      </c>
       <c r="D517" t="s">
         <v>10</v>
       </c>
       <c r="E517" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F517" t="s">
         <v>10</v>
       </c>
       <c r="G517" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B518" t="s">
         <v>1547</v>
       </c>
-      <c r="B518" t="s">
+      <c r="C518" t="s">
         <v>1548</v>
       </c>
-      <c r="C518" t="s">
+      <c r="D518" t="s">
+        <v>10</v>
+      </c>
+      <c r="E518" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F518" t="s">
+        <v>10</v>
+      </c>
+      <c r="G518" t="s">
         <v>1549</v>
-      </c>
-      <c r="D518" t="s">
-        <v>10</v>
-      </c>
-      <c r="E518" t="s">
-        <v>1549</v>
-      </c>
-      <c r="F518" t="s">
-        <v>10</v>
-      </c>
-      <c r="G518" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B519" t="s">
         <v>1551</v>
       </c>
-      <c r="B519" t="s">
+      <c r="C519" t="s">
         <v>1552</v>
       </c>
-      <c r="C519" t="s">
+      <c r="D519" t="s">
+        <v>10</v>
+      </c>
+      <c r="E519" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F519" t="s">
+        <v>10</v>
+      </c>
+      <c r="G519" t="s">
         <v>1553</v>
-      </c>
-      <c r="D519" t="s">
-        <v>10</v>
-      </c>
-      <c r="E519" t="s">
-        <v>1553</v>
-      </c>
-      <c r="F519" t="s">
-        <v>10</v>
-      </c>
-      <c r="G519" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B520" t="s">
         <v>1555</v>
       </c>
-      <c r="B520" t="s">
+      <c r="C520" t="s">
         <v>1556</v>
       </c>
-      <c r="C520" t="s">
-        <v>1557</v>
-      </c>
       <c r="D520" t="s">
         <v>10</v>
       </c>
       <c r="E520" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F520" t="s">
         <v>10</v>
       </c>
       <c r="G520" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B521" t="s">
         <v>1558</v>
-      </c>
-      <c r="B521" t="s">
-        <v>1559</v>
       </c>
       <c r="C521" t="s">
         <v>1020</v>
@@ -17453,33 +17507,33 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B522" t="s">
         <v>1560</v>
       </c>
-      <c r="B522" t="s">
+      <c r="C522" t="s">
         <v>1561</v>
       </c>
-      <c r="C522" t="s">
+      <c r="D522" t="s">
+        <v>10</v>
+      </c>
+      <c r="E522" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F522" t="s">
+        <v>10</v>
+      </c>
+      <c r="G522" t="s">
         <v>1562</v>
-      </c>
-      <c r="D522" t="s">
-        <v>10</v>
-      </c>
-      <c r="E522" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F522" t="s">
-        <v>10</v>
-      </c>
-      <c r="G522" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B523" t="s">
         <v>1564</v>
-      </c>
-      <c r="B523" t="s">
-        <v>1565</v>
       </c>
       <c r="C523" t="s">
         <v>904</v>
@@ -17499,125 +17553,125 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B524" t="s">
         <v>1566</v>
       </c>
-      <c r="B524" t="s">
+      <c r="C524" t="s">
         <v>1567</v>
       </c>
-      <c r="C524" t="s">
-        <v>1568</v>
-      </c>
       <c r="D524" t="s">
         <v>10</v>
       </c>
       <c r="E524" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F524" t="s">
         <v>10</v>
       </c>
       <c r="G524" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B525" t="s">
         <v>1569</v>
       </c>
-      <c r="B525" t="s">
+      <c r="C525" t="s">
         <v>1570</v>
       </c>
-      <c r="C525" t="s">
-        <v>1571</v>
-      </c>
       <c r="D525" t="s">
         <v>10</v>
       </c>
       <c r="E525" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="F525" t="s">
         <v>10</v>
       </c>
       <c r="G525" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B526" t="s">
         <v>1572</v>
       </c>
-      <c r="B526" t="s">
+      <c r="C526" t="s">
         <v>1573</v>
       </c>
-      <c r="C526" t="s">
+      <c r="D526" t="s">
+        <v>10</v>
+      </c>
+      <c r="E526" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F526" t="s">
+        <v>10</v>
+      </c>
+      <c r="G526" t="s">
         <v>1574</v>
-      </c>
-      <c r="D526" t="s">
-        <v>10</v>
-      </c>
-      <c r="E526" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F526" t="s">
-        <v>10</v>
-      </c>
-      <c r="G526" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B527" t="s">
         <v>1576</v>
       </c>
-      <c r="B527" t="s">
+      <c r="C527" t="s">
         <v>1577</v>
       </c>
-      <c r="C527" t="s">
-        <v>1578</v>
-      </c>
       <c r="D527" t="s">
         <v>10</v>
       </c>
       <c r="E527" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="F527" t="s">
         <v>10</v>
       </c>
       <c r="G527" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B528" t="s">
         <v>1579</v>
       </c>
-      <c r="B528" t="s">
+      <c r="C528" t="s">
         <v>1580</v>
       </c>
-      <c r="C528" t="s">
-        <v>1581</v>
-      </c>
       <c r="D528" t="s">
         <v>10</v>
       </c>
       <c r="E528" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="F528" t="s">
         <v>10</v>
       </c>
       <c r="G528" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B529" t="s">
         <v>1582</v>
-      </c>
-      <c r="B529" t="s">
-        <v>1583</v>
       </c>
       <c r="C529" t="s">
         <v>549</v>
@@ -17637,10 +17691,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B530" t="s">
         <v>1584</v>
-      </c>
-      <c r="B530" t="s">
-        <v>1585</v>
       </c>
       <c r="C530" t="s">
         <v>186</v>
@@ -17660,22 +17714,22 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B531" t="s">
         <v>1586</v>
       </c>
-      <c r="B531" t="s">
+      <c r="C531" t="s">
         <v>1587</v>
       </c>
-      <c r="C531" t="s">
-        <v>1588</v>
-      </c>
       <c r="D531" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E531" t="s">
         <v>10</v>
       </c>
       <c r="F531" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="G531" t="s">
         <v>10</v>
@@ -17683,45 +17737,45 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B532" t="s">
         <v>1589</v>
       </c>
-      <c r="B532" t="s">
+      <c r="C532" t="s">
         <v>1590</v>
       </c>
-      <c r="C532" t="s">
+      <c r="D532" t="s">
         <v>1591</v>
       </c>
-      <c r="D532" t="s">
+      <c r="E532" t="s">
         <v>1592</v>
       </c>
-      <c r="E532" t="s">
-        <v>1593</v>
-      </c>
       <c r="F532" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G532" t="s">
         <v>1592</v>
-      </c>
-      <c r="G532" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B533" t="s">
         <v>1594</v>
       </c>
-      <c r="B533" t="s">
+      <c r="C533" t="s">
         <v>1595</v>
       </c>
-      <c r="C533" t="s">
-        <v>1596</v>
-      </c>
       <c r="D533" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E533" t="s">
         <v>10</v>
       </c>
       <c r="F533" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="G533" t="s">
         <v>10</v>
@@ -17729,79 +17783,79 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B534" t="s">
         <v>1597</v>
       </c>
-      <c r="B534" t="s">
+      <c r="C534" t="s">
         <v>1598</v>
       </c>
-      <c r="C534" t="s">
-        <v>1599</v>
-      </c>
       <c r="D534" t="s">
         <v>10</v>
       </c>
       <c r="E534" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F534" t="s">
         <v>10</v>
       </c>
       <c r="G534" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B535" t="s">
         <v>1600</v>
       </c>
-      <c r="B535" t="s">
+      <c r="C535" t="s">
         <v>1601</v>
       </c>
-      <c r="C535" t="s">
+      <c r="D535" t="s">
+        <v>10</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F535" t="s">
+        <v>10</v>
+      </c>
+      <c r="G535" t="s">
         <v>1602</v>
-      </c>
-      <c r="D535" t="s">
-        <v>10</v>
-      </c>
-      <c r="E535" t="s">
-        <v>1602</v>
-      </c>
-      <c r="F535" t="s">
-        <v>10</v>
-      </c>
-      <c r="G535" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B536" t="s">
         <v>1604</v>
       </c>
-      <c r="B536" t="s">
+      <c r="C536" t="s">
         <v>1605</v>
       </c>
-      <c r="C536" t="s">
+      <c r="D536" t="s">
+        <v>10</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F536" t="s">
+        <v>10</v>
+      </c>
+      <c r="G536" t="s">
         <v>1606</v>
-      </c>
-      <c r="D536" t="s">
-        <v>10</v>
-      </c>
-      <c r="E536" t="s">
-        <v>1606</v>
-      </c>
-      <c r="F536" t="s">
-        <v>10</v>
-      </c>
-      <c r="G536" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B537" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C537" t="s">
         <v>333</v>
@@ -17821,33 +17875,33 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B538" t="s">
         <v>1609</v>
       </c>
-      <c r="B538" t="s">
+      <c r="C538" t="s">
         <v>1610</v>
       </c>
-      <c r="C538" t="s">
-        <v>1611</v>
-      </c>
       <c r="D538" t="s">
         <v>10</v>
       </c>
       <c r="E538" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F538" t="s">
         <v>10</v>
       </c>
       <c r="G538" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B539" t="s">
         <v>1612</v>
-      </c>
-      <c r="B539" t="s">
-        <v>1613</v>
       </c>
       <c r="C539" t="s">
         <v>1044</v>
@@ -17862,245 +17916,245 @@
         <v>10</v>
       </c>
       <c r="G539" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B540" t="s">
         <v>1615</v>
       </c>
-      <c r="B540" t="s">
+      <c r="C540" t="s">
         <v>1616</v>
       </c>
-      <c r="C540" t="s">
-        <v>1617</v>
-      </c>
       <c r="D540" t="s">
         <v>10</v>
       </c>
       <c r="E540" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="F540" t="s">
         <v>10</v>
       </c>
       <c r="G540" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B541" t="s">
         <v>1618</v>
       </c>
-      <c r="B541" t="s">
+      <c r="C541" t="s">
         <v>1619</v>
       </c>
-      <c r="C541" t="s">
-        <v>1620</v>
-      </c>
       <c r="D541" t="s">
         <v>10</v>
       </c>
       <c r="E541" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="F541" t="s">
         <v>10</v>
       </c>
       <c r="G541" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B542" t="s">
         <v>1621</v>
       </c>
-      <c r="B542" t="s">
+      <c r="C542" t="s">
         <v>1622</v>
       </c>
-      <c r="C542" t="s">
-        <v>1623</v>
-      </c>
       <c r="D542" t="s">
         <v>10</v>
       </c>
       <c r="E542" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="F542" t="s">
         <v>10</v>
       </c>
       <c r="G542" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B543" t="s">
         <v>1624</v>
       </c>
-      <c r="B543" t="s">
+      <c r="C543" t="s">
         <v>1625</v>
       </c>
-      <c r="C543" t="s">
-        <v>1626</v>
-      </c>
       <c r="D543" t="s">
         <v>10</v>
       </c>
       <c r="E543" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="F543" t="s">
         <v>10</v>
       </c>
       <c r="G543" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B544" t="s">
         <v>1627</v>
       </c>
-      <c r="B544" t="s">
+      <c r="C544" t="s">
         <v>1628</v>
       </c>
-      <c r="C544" t="s">
-        <v>1629</v>
-      </c>
       <c r="D544" t="s">
         <v>10</v>
       </c>
       <c r="E544" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="F544" t="s">
         <v>10</v>
       </c>
       <c r="G544" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B545" t="s">
         <v>1630</v>
       </c>
-      <c r="B545" t="s">
+      <c r="C545" t="s">
         <v>1631</v>
       </c>
-      <c r="C545" t="s">
-        <v>1632</v>
-      </c>
       <c r="D545" t="s">
         <v>10</v>
       </c>
       <c r="E545" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="F545" t="s">
         <v>10</v>
       </c>
       <c r="G545" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B546" t="s">
         <v>1633</v>
       </c>
-      <c r="B546" t="s">
+      <c r="C546" t="s">
         <v>1634</v>
       </c>
-      <c r="C546" t="s">
-        <v>1635</v>
-      </c>
       <c r="D546" t="s">
         <v>10</v>
       </c>
       <c r="E546" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="F546" t="s">
         <v>10</v>
       </c>
       <c r="G546" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B547" t="s">
         <v>1636</v>
       </c>
-      <c r="B547" t="s">
+      <c r="C547" t="s">
         <v>1637</v>
       </c>
-      <c r="C547" t="s">
-        <v>1638</v>
-      </c>
       <c r="D547" t="s">
         <v>10</v>
       </c>
       <c r="E547" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="F547" t="s">
         <v>10</v>
       </c>
       <c r="G547" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B548" t="s">
         <v>1639</v>
       </c>
-      <c r="B548" t="s">
-        <v>1640</v>
-      </c>
       <c r="C548" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D548" t="s">
         <v>10</v>
       </c>
       <c r="E548" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F548" t="s">
         <v>10</v>
       </c>
       <c r="G548" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B549" t="s">
         <v>1641</v>
       </c>
-      <c r="B549" t="s">
+      <c r="C549" t="s">
         <v>1642</v>
       </c>
-      <c r="C549" t="s">
-        <v>1643</v>
-      </c>
       <c r="D549" t="s">
         <v>10</v>
       </c>
       <c r="E549" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="F549" t="s">
         <v>10</v>
       </c>
       <c r="G549" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B550" t="s">
         <v>1644</v>
-      </c>
-      <c r="B550" t="s">
-        <v>1645</v>
       </c>
       <c r="C550" t="s">
         <v>135</v>
@@ -18120,79 +18174,79 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B551" t="s">
         <v>1646</v>
       </c>
-      <c r="B551" t="s">
+      <c r="C551" t="s">
         <v>1647</v>
       </c>
-      <c r="C551" t="s">
+      <c r="D551" t="s">
+        <v>10</v>
+      </c>
+      <c r="E551" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F551" t="s">
+        <v>10</v>
+      </c>
+      <c r="G551" t="s">
         <v>1648</v>
-      </c>
-      <c r="D551" t="s">
-        <v>10</v>
-      </c>
-      <c r="E551" t="s">
-        <v>1648</v>
-      </c>
-      <c r="F551" t="s">
-        <v>10</v>
-      </c>
-      <c r="G551" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B552" t="s">
         <v>1650</v>
       </c>
-      <c r="B552" t="s">
+      <c r="C552" t="s">
         <v>1651</v>
       </c>
-      <c r="C552" t="s">
-        <v>1652</v>
-      </c>
       <c r="D552" t="s">
         <v>10</v>
       </c>
       <c r="E552" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="F552" t="s">
         <v>10</v>
       </c>
       <c r="G552" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B553" t="s">
         <v>1653</v>
       </c>
-      <c r="B553" t="s">
-        <v>1654</v>
-      </c>
       <c r="C553" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D553" t="s">
         <v>10</v>
       </c>
       <c r="E553" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F553" t="s">
         <v>10</v>
       </c>
       <c r="G553" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B554" t="s">
         <v>1655</v>
-      </c>
-      <c r="B554" t="s">
-        <v>1656</v>
       </c>
       <c r="C554" t="s">
         <v>575</v>
@@ -18212,22 +18266,22 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B555" t="s">
         <v>1657</v>
       </c>
-      <c r="B555" t="s">
+      <c r="C555" t="s">
         <v>1658</v>
       </c>
-      <c r="C555" t="s">
-        <v>1659</v>
-      </c>
       <c r="D555" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="E555" t="s">
         <v>10</v>
       </c>
       <c r="F555" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G555" t="s">
         <v>10</v>
@@ -18235,33 +18289,33 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B556" t="s">
         <v>1660</v>
       </c>
-      <c r="B556" t="s">
+      <c r="C556" t="s">
         <v>1661</v>
       </c>
-      <c r="C556" t="s">
-        <v>1662</v>
-      </c>
       <c r="D556" t="s">
         <v>10</v>
       </c>
       <c r="E556" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="F556" t="s">
         <v>10</v>
       </c>
       <c r="G556" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B557" t="s">
         <v>1663</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1664</v>
       </c>
       <c r="C557" t="s">
         <v>496</v>
@@ -18281,45 +18335,45 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B558" t="s">
         <v>1665</v>
       </c>
-      <c r="B558" t="s">
+      <c r="C558" t="s">
         <v>1666</v>
       </c>
-      <c r="C558" t="s">
-        <v>1667</v>
-      </c>
       <c r="D558" t="s">
         <v>10</v>
       </c>
       <c r="E558" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="F558" t="s">
         <v>10</v>
       </c>
       <c r="G558" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B559" t="s">
         <v>1668</v>
       </c>
-      <c r="B559" t="s">
+      <c r="C559" t="s">
         <v>1669</v>
       </c>
-      <c r="C559" t="s">
-        <v>1670</v>
-      </c>
       <c r="D559" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E559" t="s">
         <v>10</v>
       </c>
       <c r="F559" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="G559" t="s">
         <v>10</v>
@@ -18327,137 +18381,137 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B560" t="s">
         <v>1671</v>
       </c>
-      <c r="B560" t="s">
+      <c r="C560" t="s">
         <v>1672</v>
       </c>
-      <c r="C560" t="s">
-        <v>1673</v>
-      </c>
       <c r="D560" t="s">
         <v>10</v>
       </c>
       <c r="E560" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F560" t="s">
         <v>10</v>
       </c>
       <c r="G560" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B561" t="s">
         <v>1674</v>
       </c>
-      <c r="B561" t="s">
+      <c r="C561" t="s">
         <v>1675</v>
       </c>
-      <c r="C561" t="s">
-        <v>1676</v>
-      </c>
       <c r="D561" t="s">
         <v>10</v>
       </c>
       <c r="E561" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F561" t="s">
         <v>10</v>
       </c>
       <c r="G561" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B562" t="s">
         <v>1677</v>
       </c>
-      <c r="B562" t="s">
+      <c r="C562" t="s">
         <v>1678</v>
       </c>
-      <c r="C562" t="s">
-        <v>1679</v>
-      </c>
       <c r="D562" t="s">
         <v>10</v>
       </c>
       <c r="E562" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="F562" t="s">
         <v>10</v>
       </c>
       <c r="G562" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B563" t="s">
         <v>1680</v>
       </c>
-      <c r="B563" t="s">
+      <c r="C563" t="s">
         <v>1681</v>
       </c>
-      <c r="C563" t="s">
+      <c r="D563" t="s">
+        <v>10</v>
+      </c>
+      <c r="E563" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F563" t="s">
+        <v>10</v>
+      </c>
+      <c r="G563" t="s">
         <v>1682</v>
-      </c>
-      <c r="D563" t="s">
-        <v>10</v>
-      </c>
-      <c r="E563" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F563" t="s">
-        <v>10</v>
-      </c>
-      <c r="G563" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B564" t="s">
         <v>1684</v>
       </c>
-      <c r="B564" t="s">
+      <c r="C564" t="s">
         <v>1685</v>
       </c>
-      <c r="C564" t="s">
-        <v>1686</v>
-      </c>
       <c r="D564" t="s">
         <v>10</v>
       </c>
       <c r="E564" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="F564" t="s">
         <v>10</v>
       </c>
       <c r="G564" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B565" t="s">
         <v>1687</v>
       </c>
-      <c r="B565" t="s">
+      <c r="C565" t="s">
         <v>1688</v>
       </c>
-      <c r="C565" t="s">
-        <v>1689</v>
-      </c>
       <c r="D565" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E565" t="s">
         <v>10</v>
       </c>
       <c r="F565" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G565" t="s">
         <v>10</v>
@@ -18465,10 +18519,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B566" t="s">
         <v>1690</v>
-      </c>
-      <c r="B566" t="s">
-        <v>1691</v>
       </c>
       <c r="C566" t="s">
         <v>549</v>
@@ -18488,68 +18542,68 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B567" t="s">
         <v>1692</v>
       </c>
-      <c r="B567" t="s">
+      <c r="C567" t="s">
         <v>1693</v>
       </c>
-      <c r="C567" t="s">
+      <c r="D567" t="s">
+        <v>10</v>
+      </c>
+      <c r="E567" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F567" t="s">
+        <v>10</v>
+      </c>
+      <c r="G567" t="s">
         <v>1694</v>
-      </c>
-      <c r="D567" t="s">
-        <v>10</v>
-      </c>
-      <c r="E567" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F567" t="s">
-        <v>10</v>
-      </c>
-      <c r="G567" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B568" t="s">
         <v>1696</v>
       </c>
-      <c r="B568" t="s">
+      <c r="C568" t="s">
         <v>1697</v>
       </c>
-      <c r="C568" t="s">
+      <c r="D568" t="s">
+        <v>10</v>
+      </c>
+      <c r="E568" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F568" t="s">
+        <v>10</v>
+      </c>
+      <c r="G568" t="s">
         <v>1698</v>
-      </c>
-      <c r="D568" t="s">
-        <v>10</v>
-      </c>
-      <c r="E568" t="s">
-        <v>1698</v>
-      </c>
-      <c r="F568" t="s">
-        <v>10</v>
-      </c>
-      <c r="G568" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B569" t="s">
         <v>1700</v>
       </c>
-      <c r="B569" t="s">
-        <v>1701</v>
-      </c>
       <c r="C569" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D569" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E569" t="s">
         <v>10</v>
       </c>
       <c r="F569" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G569" t="s">
         <v>10</v>
@@ -18557,22 +18611,22 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B570" t="s">
         <v>1702</v>
       </c>
-      <c r="B570" t="s">
+      <c r="C570" t="s">
         <v>1703</v>
       </c>
-      <c r="C570" t="s">
-        <v>1704</v>
-      </c>
       <c r="D570" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E570" t="s">
         <v>10</v>
       </c>
       <c r="F570" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="G570" t="s">
         <v>10</v>
@@ -18580,71 +18634,71 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B571" t="s">
         <v>1705</v>
       </c>
-      <c r="B571" t="s">
+      <c r="C571" t="s">
         <v>1706</v>
       </c>
-      <c r="C571" t="s">
-        <v>1707</v>
-      </c>
       <c r="D571" t="s">
         <v>10</v>
       </c>
       <c r="E571" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F571" t="s">
         <v>10</v>
       </c>
       <c r="G571" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B572" t="s">
         <v>1708</v>
       </c>
-      <c r="B572" t="s">
+      <c r="C572" t="s">
         <v>1709</v>
       </c>
-      <c r="C572" t="s">
+      <c r="D572" t="s">
+        <v>10</v>
+      </c>
+      <c r="E572" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F572" t="s">
+        <v>10</v>
+      </c>
+      <c r="G572" t="s">
         <v>1710</v>
-      </c>
-      <c r="D572" t="s">
-        <v>10</v>
-      </c>
-      <c r="E572" t="s">
-        <v>1710</v>
-      </c>
-      <c r="F572" t="s">
-        <v>10</v>
-      </c>
-      <c r="G572" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B573" t="s">
         <v>1712</v>
       </c>
-      <c r="B573" t="s">
-        <v>1713</v>
-      </c>
       <c r="C573" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D573" t="s">
+        <v>10</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F573" t="s">
+        <v>10</v>
+      </c>
+      <c r="G573" t="s">
         <v>1710</v>
-      </c>
-      <c r="D573" t="s">
-        <v>10</v>
-      </c>
-      <c r="E573" t="s">
-        <v>1710</v>
-      </c>
-      <c r="F573" t="s">
-        <v>10</v>
-      </c>
-      <c r="G573" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="574">
@@ -18652,7 +18706,7 @@
         <v>934</v>
       </c>
       <c r="B574" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C574" t="s">
         <v>101</v>
@@ -18667,27 +18721,27 @@
         <v>10</v>
       </c>
       <c r="G574" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B575" t="s">
         <v>1716</v>
       </c>
-      <c r="B575" t="s">
+      <c r="C575" t="s">
         <v>1717</v>
       </c>
-      <c r="C575" t="s">
-        <v>1718</v>
-      </c>
       <c r="D575" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E575" t="s">
         <v>10</v>
       </c>
       <c r="F575" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G575" t="s">
         <v>10</v>
@@ -18695,10 +18749,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B576" t="s">
         <v>1719</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1720</v>
       </c>
       <c r="C576" t="s">
         <v>1034</v>
@@ -18718,10 +18772,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B577" t="s">
         <v>1721</v>
-      </c>
-      <c r="B577" t="s">
-        <v>1722</v>
       </c>
       <c r="C577" t="s">
         <v>1034</v>
@@ -18741,22 +18795,22 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B578" t="s">
         <v>1723</v>
       </c>
-      <c r="B578" t="s">
+      <c r="C578" t="s">
         <v>1724</v>
       </c>
-      <c r="C578" t="s">
-        <v>1725</v>
-      </c>
       <c r="D578" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E578" t="s">
         <v>10</v>
       </c>
       <c r="F578" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="G578" t="s">
         <v>10</v>
@@ -18764,10 +18818,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B579" t="s">
         <v>1726</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1727</v>
       </c>
       <c r="C579" t="s">
         <v>66</v>
@@ -18787,91 +18841,91 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B580" t="s">
         <v>1728</v>
       </c>
-      <c r="B580" t="s">
+      <c r="C580" t="s">
         <v>1729</v>
       </c>
-      <c r="C580" t="s">
-        <v>1730</v>
-      </c>
       <c r="D580" t="s">
         <v>10</v>
       </c>
       <c r="E580" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F580" t="s">
         <v>10</v>
       </c>
       <c r="G580" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B581" t="s">
         <v>1731</v>
       </c>
-      <c r="B581" t="s">
+      <c r="C581" t="s">
         <v>1732</v>
       </c>
-      <c r="C581" t="s">
-        <v>1733</v>
-      </c>
       <c r="D581" t="s">
         <v>10</v>
       </c>
       <c r="E581" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="F581" t="s">
         <v>10</v>
       </c>
       <c r="G581" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B582" t="s">
         <v>1734</v>
       </c>
-      <c r="B582" t="s">
+      <c r="C582" t="s">
         <v>1735</v>
       </c>
-      <c r="C582" t="s">
-        <v>1736</v>
-      </c>
       <c r="D582" t="s">
         <v>10</v>
       </c>
       <c r="E582" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F582" t="s">
         <v>10</v>
       </c>
       <c r="G582" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B583" t="s">
         <v>1737</v>
       </c>
-      <c r="B583" t="s">
+      <c r="C583" t="s">
         <v>1738</v>
       </c>
-      <c r="C583" t="s">
-        <v>1739</v>
-      </c>
       <c r="D583" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E583" t="s">
         <v>10</v>
       </c>
       <c r="F583" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G583" t="s">
         <v>10</v>
@@ -18879,114 +18933,114 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B584" t="s">
         <v>1740</v>
       </c>
-      <c r="B584" t="s">
+      <c r="C584" t="s">
         <v>1741</v>
       </c>
-      <c r="C584" t="s">
+      <c r="D584" t="s">
+        <v>10</v>
+      </c>
+      <c r="E584" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F584" t="s">
+        <v>10</v>
+      </c>
+      <c r="G584" t="s">
         <v>1742</v>
-      </c>
-      <c r="D584" t="s">
-        <v>10</v>
-      </c>
-      <c r="E584" t="s">
-        <v>1742</v>
-      </c>
-      <c r="F584" t="s">
-        <v>10</v>
-      </c>
-      <c r="G584" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B585" t="s">
         <v>1744</v>
       </c>
-      <c r="B585" t="s">
+      <c r="C585" t="s">
         <v>1745</v>
       </c>
-      <c r="C585" t="s">
+      <c r="D585" t="s">
+        <v>10</v>
+      </c>
+      <c r="E585" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F585" t="s">
+        <v>10</v>
+      </c>
+      <c r="G585" t="s">
         <v>1746</v>
-      </c>
-      <c r="D585" t="s">
-        <v>10</v>
-      </c>
-      <c r="E585" t="s">
-        <v>1746</v>
-      </c>
-      <c r="F585" t="s">
-        <v>10</v>
-      </c>
-      <c r="G585" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B586" t="s">
         <v>1748</v>
       </c>
-      <c r="B586" t="s">
+      <c r="C586" t="s">
         <v>1749</v>
       </c>
-      <c r="C586" t="s">
+      <c r="D586" t="s">
+        <v>10</v>
+      </c>
+      <c r="E586" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F586" t="s">
+        <v>10</v>
+      </c>
+      <c r="G586" t="s">
         <v>1750</v>
-      </c>
-      <c r="D586" t="s">
-        <v>10</v>
-      </c>
-      <c r="E586" t="s">
-        <v>1750</v>
-      </c>
-      <c r="F586" t="s">
-        <v>10</v>
-      </c>
-      <c r="G586" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B587" t="s">
         <v>1752</v>
       </c>
-      <c r="B587" t="s">
+      <c r="C587" t="s">
         <v>1753</v>
       </c>
-      <c r="C587" t="s">
+      <c r="D587" t="s">
         <v>1754</v>
       </c>
-      <c r="D587" t="s">
+      <c r="E587" t="s">
         <v>1755</v>
       </c>
-      <c r="E587" t="s">
-        <v>1756</v>
-      </c>
       <c r="F587" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G587" t="s">
         <v>1755</v>
-      </c>
-      <c r="G587" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B588" t="s">
         <v>1757</v>
       </c>
-      <c r="B588" t="s">
+      <c r="C588" t="s">
         <v>1758</v>
       </c>
-      <c r="C588" t="s">
-        <v>1759</v>
-      </c>
       <c r="D588" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E588" t="s">
         <v>10</v>
       </c>
       <c r="F588" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="G588" t="s">
         <v>10</v>
@@ -18994,91 +19048,91 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B589" t="s">
         <v>1760</v>
       </c>
-      <c r="B589" t="s">
-        <v>1761</v>
-      </c>
       <c r="C589" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D589" t="s">
         <v>10</v>
       </c>
       <c r="E589" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="F589" t="s">
         <v>10</v>
       </c>
       <c r="G589" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B590" t="s">
         <v>1762</v>
       </c>
-      <c r="B590" t="s">
+      <c r="C590" t="s">
         <v>1763</v>
       </c>
-      <c r="C590" t="s">
-        <v>1764</v>
-      </c>
       <c r="D590" t="s">
         <v>10</v>
       </c>
       <c r="E590" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="F590" t="s">
         <v>10</v>
       </c>
       <c r="G590" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B591" t="s">
         <v>1765</v>
       </c>
-      <c r="B591" t="s">
+      <c r="C591" t="s">
         <v>1766</v>
       </c>
-      <c r="C591" t="s">
+      <c r="D591" t="s">
+        <v>10</v>
+      </c>
+      <c r="E591" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F591" t="s">
+        <v>10</v>
+      </c>
+      <c r="G591" t="s">
         <v>1767</v>
-      </c>
-      <c r="D591" t="s">
-        <v>10</v>
-      </c>
-      <c r="E591" t="s">
-        <v>1767</v>
-      </c>
-      <c r="F591" t="s">
-        <v>10</v>
-      </c>
-      <c r="G591" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B592" t="s">
         <v>1769</v>
       </c>
-      <c r="B592" t="s">
+      <c r="C592" t="s">
         <v>1770</v>
       </c>
-      <c r="C592" t="s">
-        <v>1771</v>
-      </c>
       <c r="D592" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="E592" t="s">
         <v>10</v>
       </c>
       <c r="F592" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G592" t="s">
         <v>10</v>
@@ -19086,45 +19140,45 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B593" t="s">
         <v>1772</v>
       </c>
-      <c r="B593" t="s">
+      <c r="C593" t="s">
         <v>1773</v>
       </c>
-      <c r="C593" t="s">
-        <v>1774</v>
-      </c>
       <c r="D593" t="s">
         <v>10</v>
       </c>
       <c r="E593" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="F593" t="s">
         <v>10</v>
       </c>
       <c r="G593" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B594" t="s">
         <v>1775</v>
       </c>
-      <c r="B594" t="s">
+      <c r="C594" t="s">
         <v>1776</v>
       </c>
-      <c r="C594" t="s">
-        <v>1777</v>
-      </c>
       <c r="D594" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E594" t="s">
         <v>10</v>
       </c>
       <c r="F594" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="G594" t="s">
         <v>10</v>
@@ -19132,163 +19186,278 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B595" t="s">
         <v>1778</v>
       </c>
-      <c r="B595" t="s">
+      <c r="C595" t="s">
         <v>1779</v>
       </c>
-      <c r="C595" t="s">
+      <c r="D595" t="s">
         <v>1780</v>
       </c>
-      <c r="D595" t="s">
+      <c r="E595" t="s">
         <v>1781</v>
       </c>
-      <c r="E595" t="s">
-        <v>1782</v>
-      </c>
       <c r="F595" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G595" t="s">
         <v>1781</v>
-      </c>
-      <c r="G595" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B596" t="s">
         <v>1783</v>
       </c>
-      <c r="B596" t="s">
+      <c r="C596" t="s">
         <v>1784</v>
       </c>
-      <c r="C596" t="s">
-        <v>1785</v>
-      </c>
       <c r="D596" t="s">
         <v>10</v>
       </c>
       <c r="E596" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="F596" t="s">
         <v>10</v>
       </c>
       <c r="G596" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B597" t="s">
         <v>1786</v>
       </c>
-      <c r="B597" t="s">
+      <c r="C597" t="s">
         <v>1787</v>
       </c>
-      <c r="C597" t="s">
-        <v>1788</v>
-      </c>
       <c r="D597" t="s">
         <v>10</v>
       </c>
       <c r="E597" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="F597" t="s">
         <v>10</v>
       </c>
       <c r="G597" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B598" t="s">
         <v>1789</v>
       </c>
-      <c r="B598" t="s">
+      <c r="C598" t="s">
         <v>1790</v>
       </c>
-      <c r="C598" t="s">
-        <v>1791</v>
-      </c>
       <c r="D598" t="s">
         <v>10</v>
       </c>
       <c r="E598" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F598" t="s">
         <v>10</v>
       </c>
       <c r="G598" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B599" t="s">
         <v>1792</v>
       </c>
-      <c r="B599" t="s">
+      <c r="C599" t="s">
         <v>1793</v>
       </c>
-      <c r="C599" t="s">
-        <v>1794</v>
-      </c>
       <c r="D599" t="s">
         <v>10</v>
       </c>
       <c r="E599" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="F599" t="s">
         <v>10</v>
       </c>
       <c r="G599" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B600" t="s">
         <v>1795</v>
       </c>
-      <c r="B600" t="s">
+      <c r="C600" t="s">
         <v>1796</v>
       </c>
-      <c r="C600" t="s">
+      <c r="D600" t="s">
         <v>1797</v>
       </c>
-      <c r="D600" t="s">
+      <c r="E600" t="s">
         <v>1798</v>
       </c>
-      <c r="E600" t="s">
-        <v>1799</v>
-      </c>
       <c r="F600" t="s">
+        <v>1797</v>
+      </c>
+      <c r="G600" t="s">
         <v>1798</v>
-      </c>
-      <c r="G600" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B601" t="s">
         <v>1800</v>
       </c>
-      <c r="B601" t="s">
+      <c r="C601" t="s">
         <v>1801</v>
       </c>
-      <c r="C601" t="s">
+      <c r="D601" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E601" t="s">
+        <v>10</v>
+      </c>
+      <c r="F601" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G601" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
         <v>1802</v>
       </c>
-      <c r="D601" t="s">
-        <v>1802</v>
-      </c>
-      <c r="E601" t="s">
-        <v>10</v>
-      </c>
-      <c r="F601" t="s">
-        <v>1802</v>
-      </c>
-      <c r="G601" t="s">
-        <v>10</v>
+      <c r="B602" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D602" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E602" t="s">
+        <v>10</v>
+      </c>
+      <c r="F602" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G602" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E603" t="s">
+        <v>10</v>
+      </c>
+      <c r="F603" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G603" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E604" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F604" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G604" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D605" t="s">
+        <v>10</v>
+      </c>
+      <c r="E605" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F605" t="s">
+        <v>10</v>
+      </c>
+      <c r="G605" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C606" t="s">
+        <v>816</v>
+      </c>
+      <c r="D606" t="s">
+        <v>10</v>
+      </c>
+      <c r="E606" t="s">
+        <v>816</v>
+      </c>
+      <c r="F606" t="s">
+        <v>10</v>
+      </c>
+      <c r="G606" t="s">
+        <v>1820</v>
       </c>
     </row>
   </sheetData>

--- a/hans/OcrmReceiptTableEntity.xlsx
+++ b/hans/OcrmReceiptTableEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="1821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4760" uniqueCount="2029">
   <si>
     <t>_id</t>
   </si>
@@ -3060,10 +3060,13 @@
     <t>645</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "3月30日连云港供应2号副机透平备件", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "9490" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "9490" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
-  </si>
-  <si>
-    <t>9490</t>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "3月30日连云港供应2号副机透平备件", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "65000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 9490.0000949, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>65000</t>
+  </si>
+  <si>
+    <t>9490.0000949</t>
   </si>
   <si>
     <t>647</t>
@@ -3288,10 +3291,10 @@
     <t>696</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5402.02-佣金成本", "content" : "支付总运费的2.5%佣金费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 18744.38, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 18744.38, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
-  </si>
-  <si>
-    <t>18744.38</t>
+    <t>[ { "fundCategory" : "5402.02-佣金成本", "content" : "支付总运费的2.5%佣金费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 128805.76, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 18150.6038187839, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>18150.6038187839</t>
   </si>
   <si>
     <t>698</t>
@@ -4497,10 +4500,10 @@
     <t>917</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "2207-分红支出", "content" : "123", "orgGathered" : { "$numberInt" : "10" }, "orgPay" : { "$numberInt" : "10" }, "usdGathered" : { "$numberInt" : "10" }, "usdPay" : { "$numberInt" : "10" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>[ { "fundCategory" : "2207-分红支出", "content" : "123", "orgGathered" : { "$numberInt" : "120" }, "orgPay" : { "$numberInt" : "10" }, "usdGathered" : 17.1428571428571, "usdPay" : 1.42857142857143, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "33", "orgGathered" : { "$numberInt" : "120" }, "orgPay" : { "$numberInt" : "10" }, "usdGathered" : 17.1428571428571, "usdPay" : 1.42857142857143, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>220</t>
   </si>
   <si>
     <t>918</t>
@@ -4938,7 +4941,7 @@
     <t>991</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.12-润料 ", "content" : "3.31新加坡加滑油", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 34614.16, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 34614.16, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.12-润料 ", "content" : "3.31新加坡加滑油", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 34614.16, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 34614.16, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>34614.16</t>
@@ -5349,16 +5352,16 @@
     <t>1071</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "租金总收入（按USD7000）", "orgGathered" : 517093.89, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 517093.89, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "租金总收入(按USD9000)", "orgGathered" : 478596.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 478596.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.02-佣金成本", "content" : "5%佣金支出", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 49784.5, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 49784.5, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "交船重油价值", "orgGathered" : 259948.8, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 259948.8, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "交船轻油价值", "orgGathered" : { "$numberInt" : "52840" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "52840" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "还船重油价值", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 177516.8, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 177516.8, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "还船轻油价值", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "27620" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "27620" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "租家补重油差价", "orgGathered" : 1627.37, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 1627.37, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "C/E/V", "orgGathered" : 6352.4, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 6352.4, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.03-劳务费奖金", "content" : "ILOHC", "orgGathered" : { "$numberInt" : "5000" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "5000" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.17-律师等专业服务费", "content" : "还船50%量油支出", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "350" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "350" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.16-航次监装费等", "content" : "租家支付船员风险区奖金", "orgGathered" : { "$numberInt" : "8500" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "8500" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付防海盗材料费用", "orgGathered" : 445.43, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 445.43, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.16-航次监装费等", "content" : "租家支付码头监装费用", "orgGathered" : { "$numberInt" : "3150" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "3150" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.17-律师等专业服务费", "content" : "租家支付WAR&amp;KNR保险费用", "orgGathered" : 18858.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 18858.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.17-律师等专业服务费", "content" : "租家支付高风险区安保费用", "orgGathered" : { "$numberInt" : "43200" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "43200" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付船员割除地令费用", "orgGathered" : { "$numberInt" : "7304" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "7304" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付安保人员在船吃饭费用", "orgGathered" : { "$numberInt" : "1050" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "1050" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "等待时间", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 3498.75, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 3498.75, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "佣金收入", "orgGathered" : 131.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 131.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "等待时间", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 5128.28, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 5128.28, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "佣金收入", "orgGathered" : 153.13, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 153.13, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "节省距离费用", "orgGathered" : 1657.64, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 1657.64, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "佣金费用", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 28.28, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 28.28, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "等待时间", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 30323.09, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 30323.09, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "佣金收入", "orgGathered" : 1101.03, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 1101.03, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
-  </si>
-  <si>
-    <t>1112759.74</t>
-  </si>
-  <si>
-    <t>1407009.44</t>
-  </si>
-  <si>
-    <t>294249.7</t>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "租金总收入（按USD7000）", "orgGathered" : 517093.89, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 517093.89, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "租金总收入(按USD9000)", "orgGathered" : 478596.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 478596.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.02-佣金成本", "content" : "5%佣金支出", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 49784.5, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 49784.5, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "交船重油价值", "orgGathered" : 259948.8, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 259948.8, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "交船轻油价值", "orgGathered" : { "$numberInt" : "52840" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "52840" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "还船重油价值", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 177516.8, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 177516.8, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "还船轻油价值", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "27620" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "27620" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "租家补重油差价", "orgGathered" : 1627.37, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 1627.37, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "C/E/V", "orgGathered" : 6352.4, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 6352.4, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.03-劳务费奖金", "content" : "ILOHC", "orgGathered" : { "$numberInt" : "5000" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "5000" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.17-律师等专业服务费", "content" : "还船50%量油支出", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "350" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "350" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.16-航次监装费等", "content" : "租家支付船员风险区奖金", "orgGathered" : { "$numberInt" : "8500" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "8500" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付防海盗材料费用", "orgGathered" : 445.43, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 445.43, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.16-航次监装费等", "content" : "租家支付码头监装费用", "orgGathered" : { "$numberInt" : "3150" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "3150" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.16-航次监装费等", "content" : "租家支付WAR&amp;KNR保险费用", "orgGathered" : 18858.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 18858.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.16-航次监装费等", "content" : "租家支付高风险区安保费用", "orgGathered" : { "$numberInt" : "43200" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "43200" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付船员割除地令费用", "orgGathered" : { "$numberInt" : "7304" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "7304" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家支付安保人员在船吃饭费用", "orgGathered" : { "$numberInt" : "1050" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "1050" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "等待连云港PSC检察官解除滞留", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 3498.75, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 3498.75, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "佣金收入", "orgGathered" : 131.25, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 131.25, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "等待连云港船级社安排SURVEYOR上船检验", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 5128.28, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 5128.28, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "佣金收入", "orgGathered" : 153.13, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 153.13, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "为租家节省距离", "orgGathered" : 1657.64, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 1657.64, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "等待南非德班港PSC检察官解除滞留", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 30323.09, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 30323.09, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "佣金收入", "orgGathered" : 1101.03, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 1101.03, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "等待NO.1船吊修好", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1870.39, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1870.39, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.06-扣租收入", "content" : "佣金收入", "orgGathered" : 70.31, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 70.31, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "第一期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "201000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "201000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "第二期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "100500" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "100500" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "第三期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 96353.75, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 96353.75, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "第四期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 108456.26, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 108456.26, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "第五期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 93930.2, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 93930.2, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "第六期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "85900" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "85900" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "第七期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 91748.8, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 91748.8, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "第八期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "64400" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "64400" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "第九期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "53640" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "53640" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "第十期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "59400" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "59400" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "第十一期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "92600" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "92600" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "租家与船东SOA差别费用", "orgGathered" : 9.51, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 9.51, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>63068.4399999997</t>
+  </si>
+  <si>
+    <t>1407089.26</t>
+  </si>
+  <si>
+    <t>1344020.82</t>
   </si>
   <si>
     <t>1073</t>
@@ -5466,16 +5469,637 @@
     <t>17716.75</t>
   </si>
   <si>
-    <t>2560.03901452207</t>
-  </si>
-  <si>
     <t>1092</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5402.17-律师等专业服务费", "content" : "支付CAMPBELL JOHNSTON CLARK 处理货物延迟交付索赔律师费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "4000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 2962.96296296296, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
-  </si>
-  <si>
-    <t>5405.40540540541</t>
+    <t>[ { "fundCategory" : "5402.17-律师等专业服务费", "content" : "支付CAMPBELL JOHNSTON CLARK 处理MATADI港货物延迟交付索赔律师费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 2972.64, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 2972.64, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "银行手续费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 15.98, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 15.98, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>2988.62</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "4月份通信费用", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 938.49, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 938.49, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>938.49</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.03-船舶检验费", "content" : "船舶证书展期费用", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "1500" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "1500" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1097</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2207-分红支出", "content" : "Lauren ocean 2023四月分红", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 15260.85, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 15260.85, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>15260.85</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "第5期租金收入", "orgGathered" : 88348.08, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 88348.08, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>88348.08</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.04-燃料成本   ", "content" : "2023年5月13日LOME港重油，轻油费用", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "480750" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "480750" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.13-装港使费 ", "content" : "LOME加油港使费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "2800" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2800" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>483550</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2202-股东往来", "content" : "sophia ocean运费转回香港汇丰\n", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 671295.55, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 671295.55, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>671295.55</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2202-股东往来", "content" : "sophia ocean运费转回上海汇丰", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "400000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "400000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.04-燃料成本   ", "content" : "5月13日 LOME港加重油700吨，单价USD625 , 后付款", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "437500" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "437500" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "6月13日 LOME 加50吨轻油，单价USD865, 后付款", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "43250" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "43250" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.15-港使费杂项 ", "content" : "加油商代理费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "2800" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2800" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2204-贷款本金", "content" : "DINA 20230630还款本金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "66666" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "66666" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5503-财务费用 ", "content" : "DINA 20230630还款利息5.170430%+4.65%", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 3946.39, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 3946.39, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>70612.39</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.07-船舶管理费用  ", "content" : "2023年5月份船舶管理费用", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "4500" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "4500" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "第二期租金收入", "orgGathered" : 35137.22, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 35137.22, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>35137.22</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5101.03-运费收入", "content" : "运费 ：41000MT * 25USD * 100%", "orgGathered" : { "$numberInt" : "1025000" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "1025000" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "手续费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 8.31, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 8.31, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1024991.69</t>
+  </si>
+  <si>
+    <t>1025000</t>
+  </si>
+  <si>
+    <t>8.31</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.07-船舶管理费用  ", "content" : "船舶备用金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "40000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "40000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.09-杂项费用 ", "content" : "银行及代理处理费用（备用金的1.5%）", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "600" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "600" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.09-杂项费用 ", "content" : "交通艇费用", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "150" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "150" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>40750</t>
+  </si>
+  <si>
+    <t>5885.32640092432</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "第6期租金收入", "orgGathered" : 77248.08, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 77248.08, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>77248.08</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2202-股东往来", "content" : "吴总个人账户换汇", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "635000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "635000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>635000</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2203-代收代付", "content" : "吴总个人账户换汇", "orgGathered" : { "$numberInt" : "4521200" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "635000" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>4521200</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "第二期租金", "orgGathered" : 249141.29, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 249141.29, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>249141.29</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.14-卸港使费 ", "content" : "卸港YANGON港使费80%预付款", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "43040" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "43040" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>43040</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2202-股东往来", "content" : "收到吴总还款", "orgGathered" : { "$numberInt" : "30000" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "30000" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2201-划转", "content" : "收到平安划款——5月社保", "orgGathered" : { "$numberInt" : "44000" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "44000" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>44000</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2201-划转", "content" : "收到信智划款——5月公积金", "orgGathered" : { "$numberInt" : "16000" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "16000" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.17-律师等专业服务费", "content" : "AIS服务费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "1500" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 211.37180300148, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>211.37180300148</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.01-租金运费成本  ", "content" : "支付第46期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "87000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "87000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.01-租金运费成本  ", "content" : "支付第46期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "98040" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "98040" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "租金总收入", "orgGathered" : 135364.58, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 135364.58, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.02-佣金成本", "content" : "5%佣金支出", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 6768.23, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 6768.23, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "交船重油量", "orgGathered" : 78642.2, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 78642.2, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "交船轻油量", "orgGathered" : { "$numberInt" : "33894" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "33894" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "还船重油量", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 84557.2, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 84557.2, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "还船轻油量", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "30780" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "30780" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5102.04-杂项收入 ", "content" : "C/E/V", "orgGathered" : 890.13, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 890.13, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.03-劳务费奖金", "content" : "ILOHC", "orgGathered" : { "$numberInt" : "3500" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "3500" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.03-劳务费奖金", "content" : "船员割除地令166个", "orgGathered" : { "$numberInt" : "498" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "498" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.11-被扣费用 ", "content" : "2#克令吊故障扣租", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 207.05, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 207.05, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "收第一期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 86091.78, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 86091.78, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "收第二期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 21522.95, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 21522.95, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "收第三期租金", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 14348.63, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 14348.63, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>8513.06999999995</t>
+  </si>
+  <si>
+    <t>252788.91</t>
+  </si>
+  <si>
+    <t>244275.84</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "6月12日KOHSICHANG 供备件费用", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "1770" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "1770" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1770</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2203-代收代付", "content" : "代付10000USD陈丕祥账户", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "70867" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "10000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>70867</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "第3期租金收入", "orgGathered" : 14046.56, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 14046.56, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>14046.56</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "船员工资", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "107610" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "107610" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "协商每月折扣费", "orgGathered" : { "$numberInt" : "5000" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "5000" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.01-租金运费成本  ", "content" : "第45期租金（1200GMT 16/6/2023 - 1200GMT 16/7/2023）", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "108000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "108000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1142</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "第四期租金", "orgGathered" : 177781.79, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 177781.79, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>177781.79</t>
+  </si>
+  <si>
+    <t>1149</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "1", "orgGathered" : { "$numberInt" : "1" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "1" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1151</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "2022年12月3日HADONG港副机备件供船", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 2118.7, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 2118.7, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>2118.7</t>
+  </si>
+  <si>
+    <t>1153</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "1月2日镇海港供应主机备件", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 4435.2, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 4435.2, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>4435.2</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.07-船舶管理费用  ", "content" : "5月船舶管理费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "4500" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "4500" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月四名中国籍船员费用", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "36200" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "36200" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月四人杂费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "160" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "160" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月外籍带教费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "2200" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2200" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月17名外籍船员工资", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "43060" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "43060" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月10日外籍机工下船机票费用CNY2500", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 362.32, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 362.32, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>81982.32</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "4月27日大连船厂供应主机/水套备件", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 16865.69, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 16865.69, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>16865.69</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.09-杂项费用 ", "content" : "大连修船代理费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 5369.74, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 5369.74, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>5369.74</t>
+  </si>
+  <si>
+    <t>1161</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "5月5日大连船厂供防海生物装置修理和备件", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "13780" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1941.80229690693, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>13780</t>
+  </si>
+  <si>
+    <t>1941.80229690693</t>
+  </si>
+  <si>
+    <t>1163</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "5月11日天津供克令吊4个钩头组件", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "3488" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 491.509899246107, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.04-修理和维护  ", "content" : "4月27日大连船厂压载阀阀组修理", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "5540" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 780.666525752131, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>9028</t>
+  </si>
+  <si>
+    <t>1272.17642499824</t>
+  </si>
+  <si>
+    <t>1165</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.04-修理和维护  ", "content" : "大连船厂测厚", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "5610" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "5610" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.04-修理和维护  ", "content" : "救生消防检验费用", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "23156" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "23156" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.11-物料", "content" : "救生筏费用", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 2082.33, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 2082.33, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.04-修理和维护  ", "content" : "修理和供的救生消防物料费用", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "6572" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "6572" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>37420.33</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "4月27日大连船厂供马达风叶，压载水电缆，开关等", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 4066.1, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 572.972592122877, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>4066.1</t>
+  </si>
+  <si>
+    <t>572.972592122877</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.04-修理和维护  ", "content" : "大连中远船厂修船尾款", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "170000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "170000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>170000</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "4月26日连云港供海图资料", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "7260" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1023.03952652716, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.11-物料", "content" : "5月10日天津供海图资料", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "5580" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 786.303107165504, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>12840</t>
+  </si>
+  <si>
+    <t>1809.34263369267</t>
+  </si>
+  <si>
+    <t>1172</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.14-船级社 ", "content" : "保安计划批准费用", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "1807" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "1807" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1174</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "购买新抓斗预付款", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "10000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "10000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.04-修理和维护  ", "content" : "无线电检验修理", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "20520" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "20520" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>20520</t>
+  </si>
+  <si>
+    <t>1178</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "4月C站 FBB流量费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "926" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "926" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>1182</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月21名船员工资", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "82600" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "82600" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月境内差旅费及代发工资杂费18名中国籍", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "720" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "720" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月2名外籍差额", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "3100" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "3100" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月外籍船员代班费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "600" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "600" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月合同外甲板铜匠费用", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "2900" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2900" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1184</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "4月C站月租费用", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "120" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "120" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1186</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "4月FBB流量套餐", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "860" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "860" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "4月份C站 FBB 流量费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1191.86, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1191.86, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1191.86</t>
+  </si>
+  <si>
+    <t>1192</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月21名船员费用", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "91300" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "91300" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月境内差旅及代发工资杂费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "880" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "880" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月合同外甲板铜匠", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "2900" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2900" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1193</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.14-船级社 ", "content" : "大连修船NK船检费用", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "46299" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "46299" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>46299</t>
+  </si>
+  <si>
+    <t>1195</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "第7期租金", "currencyName" : null, "orgGathered" : 30898.08, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 30898.08, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>30898.08</t>
+  </si>
+  <si>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2203-代收代付", "content" : "吉总公司代收代付,，换汇人民币", "currencyName" : null, "orgGathered" : { "$numberInt" : "20000" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "20000" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2203-代收代付", "content" : "代收工资", "currencyName" : null, "orgGathered" : { "$numberInt" : "4000" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "4000" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5502.02-银行费用 ", "content" : "入账银行费用", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 11.21, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 11.21, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>3988.79</t>
+  </si>
+  <si>
+    <t>11.21</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.07-船舶管理费用  ", "content" : "5月禛航船舶管理费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "3600" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "3600" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "23年5月换班机票（赵江浩）", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1317.81, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1317.81, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.17-船员杂费", "content" : "23年5月换班机票（宋忠文）", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1998.44, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1998.44, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>3316.25</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月船员工资", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 88223.33, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 88223.33, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.17-船员杂费", "content" : "2位船员外牌证", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 102.2, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 102.2, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "缺水手长退工资", "currencyName" : null, "orgGathered" : 1453.22, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 1453.22, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "7名船员旅途工资", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 586.5, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 586.5, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.17-船员杂费", "content" : "上船船员工作服鞋", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 39.85, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 39.85, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.07-船舶管理费用  ", "content" : "现金转备用金", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "13400" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "13400" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>100898.66</t>
+  </si>
+  <si>
+    <t>1453.22</t>
+  </si>
+  <si>
+    <t>102351.88</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "4月lome换班机票费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 22709.75, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 22709.75, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>22709.75</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "4月VSAT通讯费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1730.88, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1730.88, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1730.88</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "2月电子海图", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "4025" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "4025" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>4025</t>
+  </si>
+  <si>
+    <t>1209</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "4.10 LOME换班船员工作服14套", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 262.25, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 262.25, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>262.25</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "4月25日岚山港，镇江五州供应修船物料", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "68489" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 9651.09561051222, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>68489</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.04-修理和维护  ", "content" : "4月25日在岚山港，南通振远翻新主副机备件", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "34024" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 4794.47615021489, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>34024</t>
+  </si>
+  <si>
+    <t>4794.47615021489</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.18-赔偿费用", "content" : "船员沈宇病亡案子-FINAL理赔款-律师费部分", "currencyName" : null, "orgGathered" : 7969.53, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 7969.53, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>7969.53</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.03-船舶检验费", "content" : "5月天津PNI检验", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "2000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "5月连云港分油机备件", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "1010" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "1010" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2203-代收代付", "content" : "实收3988.79新币，代收代付陈礼斌", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 20919.52, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 20919.52, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>20919.52</t>
+  </si>
+  <si>
+    <t>1225</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.04-燃料成本   ", "content" : "6月3日SOHAR港供重油100吨，后付油款", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 59755.04, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 59755.04, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.04-燃料成本   ", "content" : "供油驳船费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "6000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "6000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>65755.04</t>
   </si>
 </sst>
 </file>
@@ -5519,7 +6143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G606"/>
+  <dimension ref="A1:G680"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -13293,53 +13917,53 @@
         <v>10</v>
       </c>
       <c r="G338" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B339" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C339" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D339" t="s">
         <v>10</v>
       </c>
       <c r="E339" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F339" t="s">
         <v>10</v>
       </c>
       <c r="G339" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B340" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C340" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D340" t="s">
         <v>10</v>
       </c>
       <c r="E340" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F340" t="s">
         <v>10</v>
       </c>
       <c r="G340" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="341">
@@ -13347,99 +13971,99 @@
         <v>584</v>
       </c>
       <c r="B341" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C341" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D341" t="s">
         <v>10</v>
       </c>
       <c r="E341" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F341" t="s">
         <v>10</v>
       </c>
       <c r="G341" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B342" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C342" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D342" t="s">
         <v>10</v>
       </c>
       <c r="E342" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F342" t="s">
         <v>10</v>
       </c>
       <c r="G342" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B343" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C343" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D343" t="s">
         <v>10</v>
       </c>
       <c r="E343" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F343" t="s">
         <v>10</v>
       </c>
       <c r="G343" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B344" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C344" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D344" t="s">
         <v>10</v>
       </c>
       <c r="E344" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F344" t="s">
         <v>10</v>
       </c>
       <c r="G344" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B345" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C345" t="s">
         <v>994</v>
@@ -13459,91 +14083,91 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B346" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C346" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D346" t="s">
         <v>10</v>
       </c>
       <c r="E346" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F346" t="s">
         <v>10</v>
       </c>
       <c r="G346" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B347" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C347" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D347" t="s">
         <v>10</v>
       </c>
       <c r="E347" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F347" t="s">
         <v>10</v>
       </c>
       <c r="G347" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B348" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C348" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D348" t="s">
         <v>10</v>
       </c>
       <c r="E348" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F348" t="s">
         <v>10</v>
       </c>
       <c r="G348" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B349" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C349" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D349" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E349" t="s">
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="G349" t="s">
         <v>10</v>
@@ -13551,56 +14175,56 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B350" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C350" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D350" t="s">
         <v>10</v>
       </c>
       <c r="E350" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F350" t="s">
         <v>10</v>
       </c>
       <c r="G350" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B351" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C351" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D351" t="s">
         <v>10</v>
       </c>
       <c r="E351" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="F351" t="s">
         <v>10</v>
       </c>
       <c r="G351" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B352" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C352" t="s">
         <v>333</v>
@@ -13620,10 +14244,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B353" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C353" t="s">
         <v>359</v>
@@ -13643,94 +14267,94 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B354" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C354" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D354" t="s">
         <v>10</v>
       </c>
       <c r="E354" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F354" t="s">
         <v>10</v>
       </c>
       <c r="G354" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B355" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C355" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D355" t="s">
         <v>10</v>
       </c>
       <c r="E355" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F355" t="s">
         <v>10</v>
       </c>
       <c r="G355" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B356" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C356" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D356" t="s">
         <v>10</v>
       </c>
       <c r="E356" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F356" t="s">
         <v>10</v>
       </c>
       <c r="G356" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B357" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C357" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D357" t="s">
         <v>10</v>
       </c>
       <c r="E357" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F357" t="s">
         <v>10</v>
       </c>
       <c r="G357" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="358">
@@ -13738,7 +14362,7 @@
         <v>434</v>
       </c>
       <c r="B358" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C358" t="s">
         <v>437</v>
@@ -13758,10 +14382,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B359" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C359" t="s">
         <v>716</v>
@@ -13781,56 +14405,56 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B360" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C360" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D360" t="s">
         <v>10</v>
       </c>
       <c r="E360" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F360" t="s">
         <v>10</v>
       </c>
       <c r="G360" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B361" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C361" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D361" t="s">
         <v>10</v>
       </c>
       <c r="E361" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F361" t="s">
         <v>10</v>
       </c>
       <c r="G361" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B362" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C362" t="s">
         <v>224</v>
@@ -13850,10 +14474,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B363" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C363" t="s">
         <v>333</v>
@@ -13873,94 +14497,94 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B364" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C364" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D364" t="s">
         <v>10</v>
       </c>
       <c r="E364" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="F364" t="s">
         <v>10</v>
       </c>
       <c r="G364" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C365" t="s">
         <v>1088</v>
       </c>
-      <c r="B365" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C365" t="s">
-        <v>1087</v>
-      </c>
       <c r="D365" t="s">
         <v>10</v>
       </c>
       <c r="E365" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="F365" t="s">
         <v>10</v>
       </c>
       <c r="G365" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B366" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C366" t="s">
-        <v>1092</v>
+        <v>75</v>
       </c>
       <c r="D366" t="s">
         <v>10</v>
       </c>
       <c r="E366" t="s">
-        <v>1092</v>
+        <v>75</v>
       </c>
       <c r="F366" t="s">
         <v>10</v>
       </c>
       <c r="G366" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B367" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C367" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D367" t="s">
         <v>10</v>
       </c>
       <c r="E367" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F367" t="s">
         <v>10</v>
       </c>
       <c r="G367" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="368">
@@ -13968,19 +14592,19 @@
         <v>318</v>
       </c>
       <c r="B368" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C368" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D368" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E368" t="s">
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="G368" t="s">
         <v>10</v>
@@ -13988,22 +14612,22 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B369" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C369" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D369" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="E369" t="s">
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="G369" t="s">
         <v>10</v>
@@ -14011,68 +14635,68 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B370" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C370" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D370" t="s">
         <v>10</v>
       </c>
       <c r="E370" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="F370" t="s">
         <v>10</v>
       </c>
       <c r="G370" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B371" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C371" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D371" t="s">
         <v>10</v>
       </c>
       <c r="E371" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="F371" t="s">
         <v>10</v>
       </c>
       <c r="G371" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B372" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C372" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D372" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E372" t="s">
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="G372" t="s">
         <v>10</v>
@@ -14080,33 +14704,33 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B373" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C373" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D373" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E373" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F373" t="s">
         <v>1115</v>
       </c>
-      <c r="F373" t="s">
-        <v>1114</v>
-      </c>
       <c r="G373" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B374" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C374" t="s">
         <v>600</v>
@@ -14121,38 +14745,38 @@
         <v>10</v>
       </c>
       <c r="G374" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B375" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C375" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D375" t="s">
         <v>10</v>
       </c>
       <c r="E375" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F375" t="s">
         <v>10</v>
       </c>
       <c r="G375" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B376" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C376" t="s">
         <v>66</v>
@@ -14164,7 +14788,7 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="G376" t="s">
         <v>10</v>
@@ -14172,56 +14796,56 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B377" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C377" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D377" t="s">
         <v>10</v>
       </c>
       <c r="E377" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="F377" t="s">
         <v>10</v>
       </c>
       <c r="G377" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B378" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C378" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D378" t="s">
         <v>10</v>
       </c>
       <c r="E378" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F378" t="s">
         <v>10</v>
       </c>
       <c r="G378" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B379" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C379" t="s">
         <v>427</v>
@@ -14241,102 +14865,102 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B380" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C380" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D380" t="s">
         <v>10</v>
       </c>
       <c r="E380" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="F380" t="s">
         <v>10</v>
       </c>
       <c r="G380" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B381" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C381" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D381" t="s">
         <v>10</v>
       </c>
       <c r="E381" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F381" t="s">
         <v>10</v>
       </c>
       <c r="G381" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B382" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C382" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D382" t="s">
         <v>10</v>
       </c>
       <c r="E382" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="F382" t="s">
         <v>10</v>
       </c>
       <c r="G382" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B383" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C383" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D383" t="s">
         <v>10</v>
       </c>
       <c r="E383" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="F383" t="s">
         <v>10</v>
       </c>
       <c r="G383" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B384" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C384" t="s">
         <v>600</v>
@@ -14356,137 +14980,137 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B385" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C385" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D385" t="s">
         <v>10</v>
       </c>
       <c r="E385" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="F385" t="s">
         <v>10</v>
       </c>
       <c r="G385" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B386" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C386" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D386" t="s">
         <v>10</v>
       </c>
       <c r="E386" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F386" t="s">
         <v>10</v>
       </c>
       <c r="G386" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B387" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C387" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D387" t="s">
         <v>10</v>
       </c>
       <c r="E387" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F387" t="s">
         <v>10</v>
       </c>
       <c r="G387" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B388" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C388" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D388" t="s">
         <v>10</v>
       </c>
       <c r="E388" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="F388" t="s">
         <v>10</v>
       </c>
       <c r="G388" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B389" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C389" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D389" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E389" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F389" t="s">
         <v>1166</v>
       </c>
-      <c r="F389" t="s">
-        <v>1165</v>
-      </c>
       <c r="G389" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B390" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C390" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D390" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E390" t="s">
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="G390" t="s">
         <v>10</v>
@@ -14494,33 +15118,33 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B391" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C391" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D391" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E391" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F391" t="s">
         <v>1174</v>
       </c>
-      <c r="F391" t="s">
-        <v>1173</v>
-      </c>
       <c r="G391" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B392" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C392" t="s">
         <v>145</v>
@@ -14540,22 +15164,22 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B393" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C393" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D393" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="E393" t="s">
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="G393" t="s">
         <v>10</v>
@@ -14563,45 +15187,45 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B394" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C394" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D394" t="s">
         <v>10</v>
       </c>
       <c r="E394" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="F394" t="s">
         <v>10</v>
       </c>
       <c r="G394" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B395" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C395" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D395" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E395" t="s">
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="G395" t="s">
         <v>10</v>
@@ -14609,45 +15233,45 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B396" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C396" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D396" t="s">
         <v>10</v>
       </c>
       <c r="E396" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="F396" t="s">
         <v>10</v>
       </c>
       <c r="G396" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B397" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C397" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D397" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E397" t="s">
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="G397" t="s">
         <v>10</v>
@@ -14655,91 +15279,91 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B398" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C398" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D398" t="s">
         <v>10</v>
       </c>
       <c r="E398" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F398" t="s">
         <v>10</v>
       </c>
       <c r="G398" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B399" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C399" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D399" t="s">
         <v>10</v>
       </c>
       <c r="E399" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F399" t="s">
         <v>10</v>
       </c>
       <c r="G399" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B400" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C400" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D400" t="s">
         <v>10</v>
       </c>
       <c r="E400" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="F400" t="s">
         <v>10</v>
       </c>
       <c r="G400" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B401" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C401" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D401" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E401" t="s">
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="G401" t="s">
         <v>10</v>
@@ -14747,22 +15371,22 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B402" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C402" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D402" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="E402" t="s">
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="G402" t="s">
         <v>10</v>
@@ -14770,22 +15394,22 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B403" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C403" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D403" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="E403" t="s">
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="G403" t="s">
         <v>10</v>
@@ -14793,22 +15417,22 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B404" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C404" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D404" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E404" t="s">
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="G404" t="s">
         <v>10</v>
@@ -14816,22 +15440,22 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B405" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C405" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D405" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E405" t="s">
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="G405" t="s">
         <v>10</v>
@@ -14839,22 +15463,22 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B406" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C406" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D406" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="E406" t="s">
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="G406" t="s">
         <v>10</v>
@@ -14862,45 +15486,45 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B407" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C407" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D407" t="s">
         <v>10</v>
       </c>
       <c r="E407" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="F407" t="s">
         <v>10</v>
       </c>
       <c r="G407" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B408" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C408" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D408" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="E408" t="s">
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="G408" t="s">
         <v>10</v>
@@ -14908,22 +15532,22 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B409" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C409" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D409" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E409" t="s">
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="G409" t="s">
         <v>10</v>
@@ -14931,10 +15555,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B410" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C410" t="s">
         <v>680</v>
@@ -14954,22 +15578,22 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B411" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C411" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D411" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="E411" t="s">
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="G411" t="s">
         <v>10</v>
@@ -14977,22 +15601,22 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B412" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C412" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D412" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="E412" t="s">
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="G412" t="s">
         <v>10</v>
@@ -15000,33 +15624,33 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B413" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C413" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D413" t="s">
         <v>10</v>
       </c>
       <c r="E413" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F413" t="s">
         <v>10</v>
       </c>
       <c r="G413" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B414" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C414" t="s">
         <v>976</v>
@@ -15046,22 +15670,22 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B415" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C415" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D415" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E415" t="s">
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="G415" t="s">
         <v>10</v>
@@ -15069,68 +15693,68 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B416" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C416" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D416" t="s">
         <v>10</v>
       </c>
       <c r="E416" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F416" t="s">
         <v>10</v>
       </c>
       <c r="G416" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B417" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C417" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D417" t="s">
         <v>10</v>
       </c>
       <c r="E417" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="F417" t="s">
         <v>10</v>
       </c>
       <c r="G417" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B418" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C418" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D418" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E418" t="s">
         <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="G418" t="s">
         <v>10</v>
@@ -15138,45 +15762,45 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B419" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C419" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D419" t="s">
         <v>10</v>
       </c>
       <c r="E419" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="F419" t="s">
         <v>10</v>
       </c>
       <c r="G419" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B420" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C420" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D420" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E420" t="s">
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="G420" t="s">
         <v>10</v>
@@ -15184,33 +15808,33 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B421" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C421" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D421" t="s">
         <v>41</v>
       </c>
       <c r="E421" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F421" t="s">
         <v>41</v>
       </c>
       <c r="G421" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B422" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C422" t="s">
         <v>393</v>
@@ -15230,140 +15854,140 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B423" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C423" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D423" t="s">
         <v>10</v>
       </c>
       <c r="E423" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="F423" t="s">
         <v>10</v>
       </c>
       <c r="G423" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B424" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C424" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D424" t="s">
         <v>10</v>
       </c>
       <c r="E424" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="F424" t="s">
         <v>10</v>
       </c>
       <c r="G424" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B425" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C425" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D425" t="s">
         <v>10</v>
       </c>
       <c r="E425" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="F425" t="s">
         <v>10</v>
       </c>
       <c r="G425" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B426" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C426" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D426" t="s">
         <v>10</v>
       </c>
       <c r="E426" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="F426" t="s">
         <v>10</v>
       </c>
       <c r="G426" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B427" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C427" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D427" t="s">
         <v>10</v>
       </c>
       <c r="E427" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="F427" t="s">
         <v>10</v>
       </c>
       <c r="G427" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B428" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C428" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D428" t="s">
         <v>10</v>
       </c>
       <c r="E428" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="F428" t="s">
         <v>10</v>
       </c>
       <c r="G428" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="429">
@@ -15371,203 +15995,203 @@
         <v>50</v>
       </c>
       <c r="B429" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C429" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D429" t="s">
         <v>10</v>
       </c>
       <c r="E429" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="F429" t="s">
         <v>10</v>
       </c>
       <c r="G429" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B430" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C430" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D430" t="s">
         <v>10</v>
       </c>
       <c r="E430" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F430" t="s">
         <v>10</v>
       </c>
       <c r="G430" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B431" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C431" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D431" t="s">
         <v>10</v>
       </c>
       <c r="E431" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F431" t="s">
         <v>10</v>
       </c>
       <c r="G431" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B432" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C432" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D432" t="s">
         <v>10</v>
       </c>
       <c r="E432" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="F432" t="s">
         <v>10</v>
       </c>
       <c r="G432" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B433" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C433" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D433" t="s">
         <v>10</v>
       </c>
       <c r="E433" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F433" t="s">
         <v>10</v>
       </c>
       <c r="G433" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B434" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C434" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D434" t="s">
         <v>10</v>
       </c>
       <c r="E434" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="F434" t="s">
         <v>10</v>
       </c>
       <c r="G434" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D435" t="s">
+        <v>10</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F435" t="s">
+        <v>10</v>
+      </c>
+      <c r="G435" t="s">
         <v>1301</v>
-      </c>
-      <c r="B435" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C435" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D435" t="s">
-        <v>10</v>
-      </c>
-      <c r="E435" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F435" t="s">
-        <v>10</v>
-      </c>
-      <c r="G435" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B436" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C436" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D436" t="s">
         <v>10</v>
       </c>
       <c r="E436" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="F436" t="s">
         <v>10</v>
       </c>
       <c r="G436" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B437" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C437" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D437" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="E437" t="s">
         <v>10</v>
       </c>
       <c r="F437" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="G437" t="s">
         <v>10</v>
@@ -15575,10 +16199,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B438" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C438" t="s">
         <v>630</v>
@@ -15593,50 +16217,50 @@
         <v>10</v>
       </c>
       <c r="G438" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B439" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C439" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D439" t="s">
         <v>10</v>
       </c>
       <c r="E439" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F439" t="s">
         <v>10</v>
       </c>
       <c r="G439" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B440" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C440" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D440" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="E440" t="s">
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="G440" t="s">
         <v>10</v>
@@ -15644,45 +16268,45 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B441" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C441" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D441" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E441" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F441" t="s">
         <v>1321</v>
       </c>
-      <c r="F441" t="s">
-        <v>1320</v>
-      </c>
       <c r="G441" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B442" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C442" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D442" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="E442" t="s">
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="G442" t="s">
         <v>10</v>
@@ -15690,22 +16314,22 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B443" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C443" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D443" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E443" t="s">
         <v>10</v>
       </c>
       <c r="F443" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G443" t="s">
         <v>10</v>
@@ -15713,22 +16337,22 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B444" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C444" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D444" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E444" t="s">
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="G444" t="s">
         <v>10</v>
@@ -15736,10 +16360,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B445" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C445" t="s">
         <v>466</v>
@@ -15759,68 +16383,68 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B446" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C446" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D446" t="s">
         <v>10</v>
       </c>
       <c r="E446" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="F446" t="s">
         <v>10</v>
       </c>
       <c r="G446" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C447" t="s">
         <v>1333</v>
       </c>
-      <c r="B447" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C447" t="s">
-        <v>1332</v>
-      </c>
       <c r="D447" t="s">
         <v>10</v>
       </c>
       <c r="E447" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="F447" t="s">
         <v>10</v>
       </c>
       <c r="G447" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B448" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C448" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D448" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E448" t="s">
         <v>10</v>
       </c>
       <c r="F448" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="G448" t="s">
         <v>10</v>
@@ -15828,22 +16452,22 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B449" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C449" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D449" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E449" t="s">
         <v>10</v>
       </c>
       <c r="F449" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="G449" t="s">
         <v>10</v>
@@ -15851,125 +16475,125 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B450" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C450" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D450" t="s">
         <v>10</v>
       </c>
       <c r="E450" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="F450" t="s">
         <v>10</v>
       </c>
       <c r="G450" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B451" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C451" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D451" t="s">
         <v>10</v>
       </c>
       <c r="E451" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="F451" t="s">
         <v>10</v>
       </c>
       <c r="G451" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B452" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C452" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D452" t="s">
         <v>10</v>
       </c>
       <c r="E452" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="F452" t="s">
         <v>10</v>
       </c>
       <c r="G452" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B453" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C453" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D453" t="s">
         <v>10</v>
       </c>
       <c r="E453" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="F453" t="s">
         <v>10</v>
       </c>
       <c r="G453" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B454" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C454" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D454" t="s">
         <v>10</v>
       </c>
       <c r="E454" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="F454" t="s">
         <v>10</v>
       </c>
       <c r="G454" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B455" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C455" t="s">
         <v>387</v>
@@ -15984,38 +16608,38 @@
         <v>10</v>
       </c>
       <c r="G455" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B456" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C456" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D456" t="s">
         <v>10</v>
       </c>
       <c r="E456" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="F456" t="s">
         <v>10</v>
       </c>
       <c r="G456" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B457" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C457" t="s">
         <v>600</v>
@@ -16030,15 +16654,15 @@
         <v>10</v>
       </c>
       <c r="G457" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B458" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C458" t="s">
         <v>600</v>
@@ -16058,42 +16682,42 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B459" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C459" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D459" t="s">
         <v>10</v>
       </c>
       <c r="E459" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="F459" t="s">
         <v>10</v>
       </c>
       <c r="G459" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B460" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C460" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D460" t="s">
         <v>10</v>
       </c>
       <c r="E460" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="F460" t="s">
         <v>10</v>
@@ -16104,19 +16728,19 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C461" t="s">
         <v>1373</v>
       </c>
-      <c r="B461" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C461" t="s">
-        <v>1372</v>
-      </c>
       <c r="D461" t="s">
         <v>10</v>
       </c>
       <c r="E461" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="F461" t="s">
         <v>10</v>
@@ -16127,56 +16751,56 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B462" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C462" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D462" t="s">
         <v>10</v>
       </c>
       <c r="E462" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F462" t="s">
         <v>10</v>
       </c>
       <c r="G462" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B463" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C463" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D463" t="s">
         <v>10</v>
       </c>
       <c r="E463" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="F463" t="s">
         <v>10</v>
       </c>
       <c r="G463" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B464" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C464" t="s">
         <v>793</v>
@@ -16196,10 +16820,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B465" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C465" t="s">
         <v>89</v>
@@ -16219,42 +16843,42 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B466" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C466" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D466" t="s">
         <v>10</v>
       </c>
       <c r="E466" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="F466" t="s">
         <v>10</v>
       </c>
       <c r="G466" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B467" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C467" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D467" t="s">
         <v>10</v>
       </c>
       <c r="E467" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="F467" t="s">
         <v>10</v>
@@ -16265,79 +16889,79 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B468" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C468" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D468" t="s">
         <v>10</v>
       </c>
       <c r="E468" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="F468" t="s">
         <v>10</v>
       </c>
       <c r="G468" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B469" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C469" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D469" t="s">
         <v>10</v>
       </c>
       <c r="E469" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="F469" t="s">
         <v>10</v>
       </c>
       <c r="G469" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B470" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C470" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D470" t="s">
         <v>10</v>
       </c>
       <c r="E470" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="F470" t="s">
         <v>10</v>
       </c>
       <c r="G470" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B471" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C471" t="s">
         <v>681</v>
@@ -16357,114 +16981,114 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B472" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C472" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D472" t="s">
         <v>10</v>
       </c>
       <c r="E472" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="F472" t="s">
         <v>10</v>
       </c>
       <c r="G472" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B473" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C473" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D473" t="s">
         <v>10</v>
       </c>
       <c r="E473" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="F473" t="s">
         <v>10</v>
       </c>
       <c r="G473" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B474" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C474" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D474" t="s">
         <v>10</v>
       </c>
       <c r="E474" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="F474" t="s">
         <v>10</v>
       </c>
       <c r="G474" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B475" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C475" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D475" t="s">
         <v>10</v>
       </c>
       <c r="E475" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="F475" t="s">
         <v>10</v>
       </c>
       <c r="G475" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B476" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C476" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D476" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E476" t="s">
         <v>10</v>
       </c>
       <c r="F476" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G476" t="s">
         <v>10</v>
@@ -16472,22 +17096,22 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B477" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C477" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D477" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E477" t="s">
         <v>10</v>
       </c>
       <c r="F477" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="G477" t="s">
         <v>10</v>
@@ -16495,10 +17119,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B478" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C478" t="s">
         <v>989</v>
@@ -16518,19 +17142,19 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B479" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C479" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D479" t="s">
         <v>10</v>
       </c>
       <c r="E479" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="F479" t="s">
         <v>10</v>
@@ -16541,125 +17165,125 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B480" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C480" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D480" t="s">
         <v>10</v>
       </c>
       <c r="E480" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="F480" t="s">
         <v>10</v>
       </c>
       <c r="G480" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B481" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C481" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D481" t="s">
         <v>10</v>
       </c>
       <c r="E481" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="F481" t="s">
         <v>10</v>
       </c>
       <c r="G481" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B482" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C482" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D482" t="s">
         <v>10</v>
       </c>
       <c r="E482" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="F482" t="s">
         <v>10</v>
       </c>
       <c r="G482" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B483" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C483" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D483" t="s">
         <v>10</v>
       </c>
       <c r="E483" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="F483" t="s">
         <v>10</v>
       </c>
       <c r="G483" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B484" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C484" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D484" t="s">
         <v>10</v>
       </c>
       <c r="E484" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="F484" t="s">
         <v>10</v>
       </c>
       <c r="G484" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B485" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C485" t="s">
         <v>19</v>
@@ -16674,30 +17298,30 @@
         <v>10</v>
       </c>
       <c r="G485" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B486" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C486" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D486" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="E486" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F486" t="s">
         <v>1444</v>
       </c>
-      <c r="F486" t="s">
-        <v>1443</v>
-      </c>
       <c r="G486" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="487">
@@ -16705,42 +17329,42 @@
         <v>354</v>
       </c>
       <c r="B487" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="C487" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D487" t="s">
         <v>10</v>
       </c>
       <c r="E487" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="F487" t="s">
         <v>10</v>
       </c>
       <c r="G487" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B488" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C488" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D488" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E488" t="s">
         <v>10</v>
       </c>
       <c r="F488" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="G488" t="s">
         <v>10</v>
@@ -16748,45 +17372,45 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B489" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C489" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D489" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="E489" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F489" t="s">
         <v>1455</v>
       </c>
-      <c r="F489" t="s">
-        <v>1454</v>
-      </c>
       <c r="G489" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B490" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C490" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D490" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="E490" t="s">
         <v>10</v>
       </c>
       <c r="F490" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G490" t="s">
         <v>10</v>
@@ -16794,22 +17418,22 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B491" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C491" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D491" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="E491" t="s">
         <v>10</v>
       </c>
       <c r="F491" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="G491" t="s">
         <v>10</v>
@@ -16817,22 +17441,22 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B492" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C492" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D492" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="E492" t="s">
         <v>10</v>
       </c>
       <c r="F492" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="G492" t="s">
         <v>10</v>
@@ -16840,22 +17464,22 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B493" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C493" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D493" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="E493" t="s">
         <v>10</v>
       </c>
       <c r="F493" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="G493" t="s">
         <v>10</v>
@@ -16863,10 +17487,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B494" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C494" t="s">
         <v>89</v>
@@ -16886,22 +17510,22 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B495" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C495" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D495" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="E495" t="s">
         <v>10</v>
       </c>
       <c r="F495" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G495" t="s">
         <v>10</v>
@@ -16909,22 +17533,22 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B496" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C496" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D496" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="E496" t="s">
         <v>10</v>
       </c>
       <c r="F496" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="G496" t="s">
         <v>10</v>
@@ -16932,22 +17556,22 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B497" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C497" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D497" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E497" t="s">
         <v>10</v>
       </c>
       <c r="F497" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="G497" t="s">
         <v>10</v>
@@ -16955,10 +17579,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B498" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C498" t="s">
         <v>135</v>
@@ -16978,10 +17602,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B499" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C499" t="s">
         <v>333</v>
@@ -16996,27 +17620,27 @@
         <v>10</v>
       </c>
       <c r="G499" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B500" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C500" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D500" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="E500" t="s">
         <v>10</v>
       </c>
       <c r="F500" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="G500" t="s">
         <v>10</v>
@@ -17024,22 +17648,22 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B501" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C501" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D501" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E501" t="s">
         <v>10</v>
       </c>
       <c r="F501" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="G501" t="s">
         <v>10</v>
@@ -17047,45 +17671,45 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B502" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C502" t="s">
-        <v>10</v>
+        <v>1496</v>
       </c>
       <c r="D502" t="s">
-        <v>1495</v>
+        <v>398</v>
       </c>
       <c r="E502" t="s">
-        <v>1495</v>
+        <v>20</v>
       </c>
       <c r="F502" t="s">
-        <v>1495</v>
+        <v>398</v>
       </c>
       <c r="G502" t="s">
-        <v>1495</v>
+        <v>20</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B503" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C503" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D503" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="E503" t="s">
         <v>10</v>
       </c>
       <c r="F503" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="G503" t="s">
         <v>10</v>
@@ -17093,10 +17717,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B504" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C504" t="s">
         <v>451</v>
@@ -17116,25 +17740,25 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B505" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C505" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D505" t="s">
         <v>10</v>
       </c>
       <c r="E505" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="F505" t="s">
         <v>10</v>
       </c>
       <c r="G505" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="506">
@@ -17142,19 +17766,19 @@
         <v>107</v>
       </c>
       <c r="B506" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C506" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D506" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="E506" t="s">
         <v>10</v>
       </c>
       <c r="F506" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="G506" t="s">
         <v>10</v>
@@ -17162,10 +17786,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B507" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C507" t="s">
         <v>19</v>
@@ -17185,68 +17809,68 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B508" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C508" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D508" t="s">
         <v>10</v>
       </c>
       <c r="E508" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="F508" t="s">
         <v>10</v>
       </c>
       <c r="G508" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B509" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C509" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D509" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="E509" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F509" t="s">
         <v>1518</v>
       </c>
-      <c r="F509" t="s">
-        <v>1517</v>
-      </c>
       <c r="G509" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B510" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C510" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D510" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="E510" t="s">
         <v>10</v>
       </c>
       <c r="F510" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="G510" t="s">
         <v>10</v>
@@ -17254,22 +17878,22 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B511" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C511" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D511" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="E511" t="s">
         <v>10</v>
       </c>
       <c r="F511" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="G511" t="s">
         <v>10</v>
@@ -17277,22 +17901,22 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B512" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C512" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D512" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="E512" t="s">
         <v>10</v>
       </c>
       <c r="F512" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="G512" t="s">
         <v>10</v>
@@ -17300,22 +17924,22 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B513" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C513" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D513" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="E513" t="s">
         <v>10</v>
       </c>
       <c r="F513" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="G513" t="s">
         <v>10</v>
@@ -17323,217 +17947,217 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B514" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="C514" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D514" t="s">
         <v>10</v>
       </c>
       <c r="E514" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="F514" t="s">
         <v>10</v>
       </c>
       <c r="G514" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B515" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C515" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D515" t="s">
         <v>10</v>
       </c>
       <c r="E515" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="F515" t="s">
         <v>10</v>
       </c>
       <c r="G515" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B516" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C516" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D516" t="s">
         <v>637</v>
       </c>
       <c r="E516" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="F516" t="s">
         <v>637</v>
       </c>
       <c r="G516" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B517" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C517" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D517" t="s">
         <v>10</v>
       </c>
       <c r="E517" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="F517" t="s">
         <v>10</v>
       </c>
       <c r="G517" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B518" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C518" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D518" t="s">
         <v>10</v>
       </c>
       <c r="E518" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="F518" t="s">
         <v>10</v>
       </c>
       <c r="G518" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B519" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C519" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D519" t="s">
         <v>10</v>
       </c>
       <c r="E519" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="F519" t="s">
         <v>10</v>
       </c>
       <c r="G519" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B520" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C520" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D520" t="s">
         <v>10</v>
       </c>
       <c r="E520" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="F520" t="s">
         <v>10</v>
       </c>
       <c r="G520" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B521" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="C521" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D521" t="s">
         <v>10</v>
       </c>
       <c r="E521" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F521" t="s">
         <v>10</v>
       </c>
       <c r="G521" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B522" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="C522" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D522" t="s">
         <v>10</v>
       </c>
       <c r="E522" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="F522" t="s">
         <v>10</v>
       </c>
       <c r="G522" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B523" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C523" t="s">
         <v>904</v>
@@ -17553,125 +18177,125 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B524" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="C524" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D524" t="s">
         <v>10</v>
       </c>
       <c r="E524" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="F524" t="s">
         <v>10</v>
       </c>
       <c r="G524" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B525" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="C525" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D525" t="s">
         <v>10</v>
       </c>
       <c r="E525" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="F525" t="s">
         <v>10</v>
       </c>
       <c r="G525" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B526" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="C526" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="D526" t="s">
         <v>10</v>
       </c>
       <c r="E526" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="F526" t="s">
         <v>10</v>
       </c>
       <c r="G526" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B527" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="C527" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="D527" t="s">
         <v>10</v>
       </c>
       <c r="E527" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="F527" t="s">
         <v>10</v>
       </c>
       <c r="G527" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B528" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="C528" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="D528" t="s">
         <v>10</v>
       </c>
       <c r="E528" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="F528" t="s">
         <v>10</v>
       </c>
       <c r="G528" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B529" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C529" t="s">
         <v>549</v>
@@ -17691,10 +18315,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B530" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="C530" t="s">
         <v>186</v>
@@ -17714,22 +18338,22 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B531" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C531" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D531" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E531" t="s">
         <v>10</v>
       </c>
       <c r="F531" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="G531" t="s">
         <v>10</v>
@@ -17737,45 +18361,45 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B532" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C532" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="D532" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E532" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F532" t="s">
         <v>1592</v>
       </c>
-      <c r="F532" t="s">
-        <v>1591</v>
-      </c>
       <c r="G532" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B533" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C533" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D533" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E533" t="s">
         <v>10</v>
       </c>
       <c r="F533" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="G533" t="s">
         <v>10</v>
@@ -17783,79 +18407,79 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B534" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C534" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D534" t="s">
         <v>10</v>
       </c>
       <c r="E534" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="F534" t="s">
         <v>10</v>
       </c>
       <c r="G534" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B535" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="C535" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D535" t="s">
         <v>10</v>
       </c>
       <c r="E535" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="F535" t="s">
         <v>10</v>
       </c>
       <c r="G535" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B536" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C536" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D536" t="s">
         <v>10</v>
       </c>
       <c r="E536" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="F536" t="s">
         <v>10</v>
       </c>
       <c r="G536" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B537" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C537" t="s">
         <v>333</v>
@@ -17875,286 +18499,286 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B538" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C538" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="D538" t="s">
         <v>10</v>
       </c>
       <c r="E538" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="F538" t="s">
         <v>10</v>
       </c>
       <c r="G538" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B539" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="C539" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D539" t="s">
         <v>10</v>
       </c>
       <c r="E539" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F539" t="s">
         <v>10</v>
       </c>
       <c r="G539" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B540" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C540" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D540" t="s">
         <v>10</v>
       </c>
       <c r="E540" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="F540" t="s">
         <v>10</v>
       </c>
       <c r="G540" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B541" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C541" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="D541" t="s">
         <v>10</v>
       </c>
       <c r="E541" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="F541" t="s">
         <v>10</v>
       </c>
       <c r="G541" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B542" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C542" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="D542" t="s">
         <v>10</v>
       </c>
       <c r="E542" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="F542" t="s">
         <v>10</v>
       </c>
       <c r="G542" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B543" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C543" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D543" t="s">
         <v>10</v>
       </c>
       <c r="E543" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="F543" t="s">
         <v>10</v>
       </c>
       <c r="G543" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B544" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="C544" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="D544" t="s">
         <v>10</v>
       </c>
       <c r="E544" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="F544" t="s">
         <v>10</v>
       </c>
       <c r="G544" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B545" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C545" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="D545" t="s">
         <v>10</v>
       </c>
       <c r="E545" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="F545" t="s">
         <v>10</v>
       </c>
       <c r="G545" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B546" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="C546" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="D546" t="s">
         <v>10</v>
       </c>
       <c r="E546" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="F546" t="s">
         <v>10</v>
       </c>
       <c r="G546" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B547" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C547" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="D547" t="s">
         <v>10</v>
       </c>
       <c r="E547" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="F547" t="s">
         <v>10</v>
       </c>
       <c r="G547" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B548" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C548" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D548" t="s">
         <v>10</v>
       </c>
       <c r="E548" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="F548" t="s">
         <v>10</v>
       </c>
       <c r="G548" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B549" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C549" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="D549" t="s">
         <v>10</v>
       </c>
       <c r="E549" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="F549" t="s">
         <v>10</v>
       </c>
       <c r="G549" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B550" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C550" t="s">
         <v>135</v>
@@ -18174,79 +18798,79 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B551" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C551" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="D551" t="s">
         <v>10</v>
       </c>
       <c r="E551" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="F551" t="s">
         <v>10</v>
       </c>
       <c r="G551" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B552" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C552" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="D552" t="s">
         <v>10</v>
       </c>
       <c r="E552" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="F552" t="s">
         <v>10</v>
       </c>
       <c r="G552" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B553" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C553" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D553" t="s">
         <v>10</v>
       </c>
       <c r="E553" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="F553" t="s">
         <v>10</v>
       </c>
       <c r="G553" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B554" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C554" t="s">
         <v>575</v>
@@ -18266,22 +18890,22 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B555" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C555" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="D555" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="E555" t="s">
         <v>10</v>
       </c>
       <c r="F555" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="G555" t="s">
         <v>10</v>
@@ -18289,33 +18913,33 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B556" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C556" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="D556" t="s">
         <v>10</v>
       </c>
       <c r="E556" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="F556" t="s">
         <v>10</v>
       </c>
       <c r="G556" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B557" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C557" t="s">
         <v>496</v>
@@ -18335,45 +18959,45 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B558" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C558" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="D558" t="s">
         <v>10</v>
       </c>
       <c r="E558" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="F558" t="s">
         <v>10</v>
       </c>
       <c r="G558" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B559" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C559" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="D559" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="E559" t="s">
         <v>10</v>
       </c>
       <c r="F559" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="G559" t="s">
         <v>10</v>
@@ -18381,137 +19005,137 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B560" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C560" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="D560" t="s">
         <v>10</v>
       </c>
       <c r="E560" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="F560" t="s">
         <v>10</v>
       </c>
       <c r="G560" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B561" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C561" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="D561" t="s">
         <v>10</v>
       </c>
       <c r="E561" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="F561" t="s">
         <v>10</v>
       </c>
       <c r="G561" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B562" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C562" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="D562" t="s">
         <v>10</v>
       </c>
       <c r="E562" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="F562" t="s">
         <v>10</v>
       </c>
       <c r="G562" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B563" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C563" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="D563" t="s">
         <v>10</v>
       </c>
       <c r="E563" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="F563" t="s">
         <v>10</v>
       </c>
       <c r="G563" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B564" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C564" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D564" t="s">
         <v>10</v>
       </c>
       <c r="E564" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="F564" t="s">
         <v>10</v>
       </c>
       <c r="G564" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B565" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C565" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="D565" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="E565" t="s">
         <v>10</v>
       </c>
       <c r="F565" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="G565" t="s">
         <v>10</v>
@@ -18519,10 +19143,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B566" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C566" t="s">
         <v>549</v>
@@ -18542,68 +19166,68 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B567" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C567" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D567" t="s">
         <v>10</v>
       </c>
       <c r="E567" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="F567" t="s">
         <v>10</v>
       </c>
       <c r="G567" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B568" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C568" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="D568" t="s">
         <v>10</v>
       </c>
       <c r="E568" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="F568" t="s">
         <v>10</v>
       </c>
       <c r="G568" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B569" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C569" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D569" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="E569" t="s">
         <v>10</v>
       </c>
       <c r="F569" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G569" t="s">
         <v>10</v>
@@ -18611,22 +19235,22 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B570" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C570" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D570" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="E570" t="s">
         <v>10</v>
       </c>
       <c r="F570" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="G570" t="s">
         <v>10</v>
@@ -18634,71 +19258,71 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B571" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C571" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="D571" t="s">
         <v>10</v>
       </c>
       <c r="E571" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="F571" t="s">
         <v>10</v>
       </c>
       <c r="G571" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B572" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C572" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="D572" t="s">
         <v>10</v>
       </c>
       <c r="E572" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="F572" t="s">
         <v>10</v>
       </c>
       <c r="G572" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D573" t="s">
+        <v>10</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F573" t="s">
+        <v>10</v>
+      </c>
+      <c r="G573" t="s">
         <v>1711</v>
-      </c>
-      <c r="B573" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D573" t="s">
-        <v>10</v>
-      </c>
-      <c r="E573" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F573" t="s">
-        <v>10</v>
-      </c>
-      <c r="G573" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="574">
@@ -18706,7 +19330,7 @@
         <v>934</v>
       </c>
       <c r="B574" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C574" t="s">
         <v>101</v>
@@ -18721,27 +19345,27 @@
         <v>10</v>
       </c>
       <c r="G574" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B575" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C575" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D575" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E575" t="s">
         <v>10</v>
       </c>
       <c r="F575" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="G575" t="s">
         <v>10</v>
@@ -18749,45 +19373,45 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B576" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C576" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D576" t="s">
         <v>10</v>
       </c>
       <c r="E576" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F576" t="s">
         <v>10</v>
       </c>
       <c r="G576" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B577" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C577" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D577" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E577" t="s">
         <v>10</v>
       </c>
       <c r="F577" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G577" t="s">
         <v>10</v>
@@ -18795,22 +19419,22 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B578" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C578" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D578" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="E578" t="s">
         <v>10</v>
       </c>
       <c r="F578" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="G578" t="s">
         <v>10</v>
@@ -18818,10 +19442,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B579" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C579" t="s">
         <v>66</v>
@@ -18841,91 +19465,91 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B580" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C580" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D580" t="s">
         <v>10</v>
       </c>
       <c r="E580" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="F580" t="s">
         <v>10</v>
       </c>
       <c r="G580" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B581" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C581" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D581" t="s">
         <v>10</v>
       </c>
       <c r="E581" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="F581" t="s">
         <v>10</v>
       </c>
       <c r="G581" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B582" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C582" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="D582" t="s">
         <v>10</v>
       </c>
       <c r="E582" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="F582" t="s">
         <v>10</v>
       </c>
       <c r="G582" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B583" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C583" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D583" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="E583" t="s">
         <v>10</v>
       </c>
       <c r="F583" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="G583" t="s">
         <v>10</v>
@@ -18933,114 +19557,114 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B584" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C584" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="D584" t="s">
         <v>10</v>
       </c>
       <c r="E584" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="F584" t="s">
         <v>10</v>
       </c>
       <c r="G584" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B585" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C585" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="D585" t="s">
         <v>10</v>
       </c>
       <c r="E585" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="F585" t="s">
         <v>10</v>
       </c>
       <c r="G585" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B586" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C586" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="D586" t="s">
         <v>10</v>
       </c>
       <c r="E586" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="F586" t="s">
         <v>10</v>
       </c>
       <c r="G586" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B587" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="C587" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="D587" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="E587" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F587" t="s">
         <v>1755</v>
       </c>
-      <c r="F587" t="s">
-        <v>1754</v>
-      </c>
       <c r="G587" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B588" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C588" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="D588" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="E588" t="s">
         <v>10</v>
       </c>
       <c r="F588" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="G588" t="s">
         <v>10</v>
@@ -19048,91 +19672,91 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B589" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="C589" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="D589" t="s">
         <v>10</v>
       </c>
       <c r="E589" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="F589" t="s">
         <v>10</v>
       </c>
       <c r="G589" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B590" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="C590" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="D590" t="s">
         <v>10</v>
       </c>
       <c r="E590" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="F590" t="s">
         <v>10</v>
       </c>
       <c r="G590" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B591" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="C591" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="D591" t="s">
         <v>10</v>
       </c>
       <c r="E591" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="F591" t="s">
         <v>10</v>
       </c>
       <c r="G591" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B592" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="C592" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="D592" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="E592" t="s">
         <v>10</v>
       </c>
       <c r="F592" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="G592" t="s">
         <v>10</v>
@@ -19140,45 +19764,45 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B593" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="C593" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="D593" t="s">
         <v>10</v>
       </c>
       <c r="E593" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="F593" t="s">
         <v>10</v>
       </c>
       <c r="G593" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B594" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="C594" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="D594" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="E594" t="s">
         <v>10</v>
       </c>
       <c r="F594" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="G594" t="s">
         <v>10</v>
@@ -19186,160 +19810,160 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B595" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="C595" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="D595" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="E595" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F595" t="s">
         <v>1781</v>
       </c>
-      <c r="F595" t="s">
-        <v>1780</v>
-      </c>
       <c r="G595" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B596" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C596" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="D596" t="s">
         <v>10</v>
       </c>
       <c r="E596" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="F596" t="s">
         <v>10</v>
       </c>
       <c r="G596" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B597" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C597" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D597" t="s">
         <v>10</v>
       </c>
       <c r="E597" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="F597" t="s">
         <v>10</v>
       </c>
       <c r="G597" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B598" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="C598" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D598" t="s">
         <v>10</v>
       </c>
       <c r="E598" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="F598" t="s">
         <v>10</v>
       </c>
       <c r="G598" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B599" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C599" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D599" t="s">
         <v>10</v>
       </c>
       <c r="E599" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="F599" t="s">
         <v>10</v>
       </c>
       <c r="G599" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B600" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="C600" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="D600" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="E600" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F600" t="s">
         <v>1798</v>
       </c>
-      <c r="F600" t="s">
-        <v>1797</v>
-      </c>
       <c r="G600" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B601" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C601" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D601" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="E601" t="s">
         <v>10</v>
       </c>
       <c r="F601" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="G601" t="s">
         <v>10</v>
@@ -19347,22 +19971,22 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B602" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C602" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D602" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="E602" t="s">
         <v>10</v>
       </c>
       <c r="F602" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="G602" t="s">
         <v>10</v>
@@ -19370,22 +19994,22 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B603" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="C603" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="D603" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="E603" t="s">
         <v>10</v>
       </c>
       <c r="F603" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="G603" t="s">
         <v>10</v>
@@ -19393,42 +20017,42 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B604" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C604" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="D604" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="E604" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F604" t="s">
         <v>1813</v>
       </c>
-      <c r="F604" t="s">
-        <v>1812</v>
-      </c>
       <c r="G604" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B605" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C605" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="D605" t="s">
         <v>10</v>
       </c>
       <c r="E605" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="F605" t="s">
         <v>10</v>
@@ -19445,19 +20069,1721 @@
         <v>1819</v>
       </c>
       <c r="C606" t="s">
-        <v>816</v>
+        <v>1820</v>
       </c>
       <c r="D606" t="s">
         <v>10</v>
       </c>
       <c r="E606" t="s">
-        <v>816</v>
+        <v>1820</v>
       </c>
       <c r="F606" t="s">
         <v>10</v>
       </c>
       <c r="G606" t="s">
         <v>1820</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D607" t="s">
+        <v>10</v>
+      </c>
+      <c r="E607" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F607" t="s">
+        <v>10</v>
+      </c>
+      <c r="G607" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C608" t="s">
+        <v>302</v>
+      </c>
+      <c r="D608" t="s">
+        <v>10</v>
+      </c>
+      <c r="E608" t="s">
+        <v>302</v>
+      </c>
+      <c r="F608" t="s">
+        <v>10</v>
+      </c>
+      <c r="G608" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D609" t="s">
+        <v>10</v>
+      </c>
+      <c r="E609" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F609" t="s">
+        <v>10</v>
+      </c>
+      <c r="G609" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E610" t="s">
+        <v>10</v>
+      </c>
+      <c r="F610" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G610" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D611" t="s">
+        <v>10</v>
+      </c>
+      <c r="E611" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F611" t="s">
+        <v>10</v>
+      </c>
+      <c r="G611" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D612" t="s">
+        <v>10</v>
+      </c>
+      <c r="E612" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F612" t="s">
+        <v>10</v>
+      </c>
+      <c r="G612" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D613" t="s">
+        <v>10</v>
+      </c>
+      <c r="E613" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F613" t="s">
+        <v>10</v>
+      </c>
+      <c r="G613" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D614" t="s">
+        <v>10</v>
+      </c>
+      <c r="E614" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F614" t="s">
+        <v>10</v>
+      </c>
+      <c r="G614" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D615" t="s">
+        <v>10</v>
+      </c>
+      <c r="E615" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F615" t="s">
+        <v>10</v>
+      </c>
+      <c r="G615" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C616" t="s">
+        <v>219</v>
+      </c>
+      <c r="D616" t="s">
+        <v>10</v>
+      </c>
+      <c r="E616" t="s">
+        <v>219</v>
+      </c>
+      <c r="F616" t="s">
+        <v>10</v>
+      </c>
+      <c r="G616" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E617" t="s">
+        <v>10</v>
+      </c>
+      <c r="F617" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G617" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E618" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F618" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G618" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D619" t="s">
+        <v>10</v>
+      </c>
+      <c r="E619" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F619" t="s">
+        <v>10</v>
+      </c>
+      <c r="G619" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E620" t="s">
+        <v>10</v>
+      </c>
+      <c r="F620" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G620" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D621" t="s">
+        <v>10</v>
+      </c>
+      <c r="E621" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F621" t="s">
+        <v>10</v>
+      </c>
+      <c r="G621" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>893</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E622" t="s">
+        <v>10</v>
+      </c>
+      <c r="F622" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G622" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D623" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E623" t="s">
+        <v>10</v>
+      </c>
+      <c r="F623" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G623" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D624" t="s">
+        <v>10</v>
+      </c>
+      <c r="E624" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F624" t="s">
+        <v>10</v>
+      </c>
+      <c r="G624" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C625" t="s">
+        <v>600</v>
+      </c>
+      <c r="D625" t="s">
+        <v>600</v>
+      </c>
+      <c r="E625" t="s">
+        <v>10</v>
+      </c>
+      <c r="F625" t="s">
+        <v>600</v>
+      </c>
+      <c r="G625" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E626" t="s">
+        <v>10</v>
+      </c>
+      <c r="F626" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G626" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E627" t="s">
+        <v>10</v>
+      </c>
+      <c r="F627" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G627" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C628" t="s">
+        <v>302</v>
+      </c>
+      <c r="D628" t="s">
+        <v>10</v>
+      </c>
+      <c r="E628" t="s">
+        <v>302</v>
+      </c>
+      <c r="F628" t="s">
+        <v>10</v>
+      </c>
+      <c r="G628" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C629" t="s">
+        <v>973</v>
+      </c>
+      <c r="D629" t="s">
+        <v>10</v>
+      </c>
+      <c r="E629" t="s">
+        <v>973</v>
+      </c>
+      <c r="F629" t="s">
+        <v>10</v>
+      </c>
+      <c r="G629" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C630" t="s">
+        <v>976</v>
+      </c>
+      <c r="D630" t="s">
+        <v>10</v>
+      </c>
+      <c r="E630" t="s">
+        <v>976</v>
+      </c>
+      <c r="F630" t="s">
+        <v>10</v>
+      </c>
+      <c r="G630" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E631" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F631" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G631" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D632" t="s">
+        <v>10</v>
+      </c>
+      <c r="E632" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F632" t="s">
+        <v>10</v>
+      </c>
+      <c r="G632" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D633" t="s">
+        <v>10</v>
+      </c>
+      <c r="E633" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F633" t="s">
+        <v>10</v>
+      </c>
+      <c r="G633" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E634" t="s">
+        <v>10</v>
+      </c>
+      <c r="F634" t="s">
+        <v>1900</v>
+      </c>
+      <c r="G634" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C635" t="s">
+        <v>989</v>
+      </c>
+      <c r="D635" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E635" t="s">
+        <v>180</v>
+      </c>
+      <c r="F635" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G635" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D636" t="s">
+        <v>10</v>
+      </c>
+      <c r="E636" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F636" t="s">
+        <v>10</v>
+      </c>
+      <c r="G636" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D637" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E637" t="s">
+        <v>10</v>
+      </c>
+      <c r="F637" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G637" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E638" t="s">
+        <v>10</v>
+      </c>
+      <c r="F638" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G638" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D639" t="s">
+        <v>10</v>
+      </c>
+      <c r="E639" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F639" t="s">
+        <v>10</v>
+      </c>
+      <c r="G639" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D640" t="s">
+        <v>10</v>
+      </c>
+      <c r="E640" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F640" t="s">
+        <v>10</v>
+      </c>
+      <c r="G640" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C641" t="s">
+        <v>219</v>
+      </c>
+      <c r="D641" t="s">
+        <v>10</v>
+      </c>
+      <c r="E641" t="s">
+        <v>219</v>
+      </c>
+      <c r="F641" t="s">
+        <v>10</v>
+      </c>
+      <c r="G641" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D642" t="s">
+        <v>10</v>
+      </c>
+      <c r="E642" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F642" t="s">
+        <v>10</v>
+      </c>
+      <c r="G642" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D643" t="s">
+        <v>10</v>
+      </c>
+      <c r="E643" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F643" t="s">
+        <v>10</v>
+      </c>
+      <c r="G643" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D644" t="s">
+        <v>10</v>
+      </c>
+      <c r="E644" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F644" t="s">
+        <v>10</v>
+      </c>
+      <c r="G644" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D645" t="s">
+        <v>10</v>
+      </c>
+      <c r="E645" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F645" t="s">
+        <v>10</v>
+      </c>
+      <c r="G645" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D646" t="s">
+        <v>10</v>
+      </c>
+      <c r="E646" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F646" t="s">
+        <v>10</v>
+      </c>
+      <c r="G646" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D647" t="s">
+        <v>10</v>
+      </c>
+      <c r="E647" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F647" t="s">
+        <v>10</v>
+      </c>
+      <c r="G647" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D648" t="s">
+        <v>10</v>
+      </c>
+      <c r="E648" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F648" t="s">
+        <v>10</v>
+      </c>
+      <c r="G648" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D649" t="s">
+        <v>10</v>
+      </c>
+      <c r="E649" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F649" t="s">
+        <v>10</v>
+      </c>
+      <c r="G649" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D650" t="s">
+        <v>10</v>
+      </c>
+      <c r="E650" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F650" t="s">
+        <v>10</v>
+      </c>
+      <c r="G650" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C651" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D651" t="s">
+        <v>10</v>
+      </c>
+      <c r="E651" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F651" t="s">
+        <v>10</v>
+      </c>
+      <c r="G651" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D652" t="s">
+        <v>10</v>
+      </c>
+      <c r="E652" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F652" t="s">
+        <v>10</v>
+      </c>
+      <c r="G652" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D653" t="s">
+        <v>10</v>
+      </c>
+      <c r="E653" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F653" t="s">
+        <v>10</v>
+      </c>
+      <c r="G653" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D654" t="s">
+        <v>10</v>
+      </c>
+      <c r="E654" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F654" t="s">
+        <v>10</v>
+      </c>
+      <c r="G654" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C655" t="s">
+        <v>219</v>
+      </c>
+      <c r="D655" t="s">
+        <v>10</v>
+      </c>
+      <c r="E655" t="s">
+        <v>219</v>
+      </c>
+      <c r="F655" t="s">
+        <v>10</v>
+      </c>
+      <c r="G655" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D656" t="s">
+        <v>10</v>
+      </c>
+      <c r="E656" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F656" t="s">
+        <v>10</v>
+      </c>
+      <c r="G656" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C657" t="s">
+        <v>207</v>
+      </c>
+      <c r="D657" t="s">
+        <v>10</v>
+      </c>
+      <c r="E657" t="s">
+        <v>207</v>
+      </c>
+      <c r="F657" t="s">
+        <v>10</v>
+      </c>
+      <c r="G657" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D658" t="s">
+        <v>10</v>
+      </c>
+      <c r="E658" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F658" t="s">
+        <v>10</v>
+      </c>
+      <c r="G658" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C659" t="s">
+        <v>219</v>
+      </c>
+      <c r="D659" t="s">
+        <v>10</v>
+      </c>
+      <c r="E659" t="s">
+        <v>219</v>
+      </c>
+      <c r="F659" t="s">
+        <v>10</v>
+      </c>
+      <c r="G659" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D660" t="s">
+        <v>10</v>
+      </c>
+      <c r="E660" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F660" t="s">
+        <v>10</v>
+      </c>
+      <c r="G660" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D661" t="s">
+        <v>10</v>
+      </c>
+      <c r="E661" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F661" t="s">
+        <v>10</v>
+      </c>
+      <c r="G661" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D662" t="s">
+        <v>10</v>
+      </c>
+      <c r="E662" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F662" t="s">
+        <v>10</v>
+      </c>
+      <c r="G662" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E663" t="s">
+        <v>10</v>
+      </c>
+      <c r="F663" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G663" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C664" t="s">
+        <v>66</v>
+      </c>
+      <c r="D664" t="s">
+        <v>66</v>
+      </c>
+      <c r="E664" t="s">
+        <v>10</v>
+      </c>
+      <c r="F664" t="s">
+        <v>66</v>
+      </c>
+      <c r="G664" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D665" t="s">
+        <v>816</v>
+      </c>
+      <c r="E665" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F665" t="s">
+        <v>816</v>
+      </c>
+      <c r="G665" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C666" t="s">
+        <v>333</v>
+      </c>
+      <c r="D666" t="s">
+        <v>10</v>
+      </c>
+      <c r="E666" t="s">
+        <v>333</v>
+      </c>
+      <c r="F666" t="s">
+        <v>10</v>
+      </c>
+      <c r="G666" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D667" t="s">
+        <v>10</v>
+      </c>
+      <c r="E667" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F667" t="s">
+        <v>10</v>
+      </c>
+      <c r="G667" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D668" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E668" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F668" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G668" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D669" t="s">
+        <v>10</v>
+      </c>
+      <c r="E669" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F669" t="s">
+        <v>10</v>
+      </c>
+      <c r="G669" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C670" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D670" t="s">
+        <v>10</v>
+      </c>
+      <c r="E670" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F670" t="s">
+        <v>10</v>
+      </c>
+      <c r="G670" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B671" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C671" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D671" t="s">
+        <v>10</v>
+      </c>
+      <c r="E671" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F671" t="s">
+        <v>10</v>
+      </c>
+      <c r="G671" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B672" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C672" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D672" t="s">
+        <v>10</v>
+      </c>
+      <c r="E672" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F672" t="s">
+        <v>10</v>
+      </c>
+      <c r="G672" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B673" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C673" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D673" t="s">
+        <v>10</v>
+      </c>
+      <c r="E673" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F673" t="s">
+        <v>10</v>
+      </c>
+      <c r="G673" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B674" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C674" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D674" t="s">
+        <v>10</v>
+      </c>
+      <c r="E674" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F674" t="s">
+        <v>10</v>
+      </c>
+      <c r="G674" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B675" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C675" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D675" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E675" t="s">
+        <v>10</v>
+      </c>
+      <c r="F675" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G675" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C676" t="s">
+        <v>333</v>
+      </c>
+      <c r="D676" t="s">
+        <v>10</v>
+      </c>
+      <c r="E676" t="s">
+        <v>333</v>
+      </c>
+      <c r="F676" t="s">
+        <v>10</v>
+      </c>
+      <c r="G676" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B677" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C677" t="s">
+        <v>192</v>
+      </c>
+      <c r="D677" t="s">
+        <v>10</v>
+      </c>
+      <c r="E677" t="s">
+        <v>192</v>
+      </c>
+      <c r="F677" t="s">
+        <v>10</v>
+      </c>
+      <c r="G677" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B678" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C678" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D678" t="s">
+        <v>10</v>
+      </c>
+      <c r="E678" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F678" t="s">
+        <v>10</v>
+      </c>
+      <c r="G678" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B679" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C679" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D679" t="s">
+        <v>10</v>
+      </c>
+      <c r="E679" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F679" t="s">
+        <v>10</v>
+      </c>
+      <c r="G679" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B680" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C680" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D680" t="s">
+        <v>10</v>
+      </c>
+      <c r="E680" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F680" t="s">
+        <v>10</v>
+      </c>
+      <c r="G680" t="s">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>

--- a/hans/OcrmReceiptTableEntity.xlsx
+++ b/hans/OcrmReceiptTableEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4760" uniqueCount="2029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5082" uniqueCount="2173">
   <si>
     <t>_id</t>
   </si>
@@ -2796,7 +2796,7 @@
     <t>594</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "4月消防救生装备氧气瓶背包和呼吸阀总成", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "210" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "210" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "4月消防救生装备氧气瓶背包和呼吸阀总成", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "210" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "210" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>210</t>
@@ -2805,7 +2805,7 @@
     <t>595</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "4.5Gurrucha救生艇叶轮", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "60" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "60" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "4.5Gurrucha救生艇叶轮", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "60" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "60" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>60</t>
@@ -2814,7 +2814,7 @@
     <t>596</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "4.5Gurrucha克令吊备件", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "1035" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "1035" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "4.5Gurrucha克令吊备件", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "1035" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "1035" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>1035</t>
@@ -2823,7 +2823,7 @@
     <t>597</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "4.5Gurrucha防火阀等备件", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1924.6, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1924.6, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.06-备件供应 ", "content" : "4.5Gurrucha应急发电机配电箱", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 486.4, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 486.4, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.06-备件供应 ", "content" : "4.5Gurrucha电话交换机和运费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "2168" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2168" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.06-备件供应 ", "content" : "4.5Gurrucha牛油嘴和滤器", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "50" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "50" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "4.5Gurrucha防火阀等备件", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1924.6, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1924.6, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.06-备件供应 ", "content" : "4.5Gurrucha应急发电机配电箱", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 486.4, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 486.4, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.06-备件供应 ", "content" : "4.5Gurrucha电话交换机和运费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "2168" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2168" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.06-备件供应 ", "content" : "4.5Gurrucha牛油嘴和滤器", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "50" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "50" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>4629</t>
@@ -4107,7 +4107,7 @@
     <t>846</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "23年5月宋忠文工伤住院预付款", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "30000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 4334.94689690051, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "23年5月宋忠文工伤住院预付款", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "30000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 4334.94689690051, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>4334.94689690051</t>
@@ -4500,10 +4500,19 @@
     <t>917</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "2207-分红支出", "content" : "123", "orgGathered" : { "$numberInt" : "120" }, "orgPay" : { "$numberInt" : "10" }, "usdGathered" : 17.1428571428571, "usdPay" : 1.42857142857143, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "33", "orgGathered" : { "$numberInt" : "120" }, "orgPay" : { "$numberInt" : "10" }, "usdGathered" : 17.1428571428571, "usdPay" : 1.42857142857143, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
-  </si>
-  <si>
-    <t>220</t>
+    <t>[ { "fundCategory" : "5501.18-赔偿费用", "content" : "123", "currencyName" : null, "orgGathered" : { "$numberInt" : "30920" }, "orgPay" : { "$numberInt" : "10" }, "usdGathered" : 4417.14285714286, "usdPay" : 1.42857142857143, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5101.06-租金收入", "content" : "33", "currencyName" : null, "orgGathered" : { "$numberInt" : "20" }, "orgPay" : { "$numberInt" : "10" }, "usdGathered" : 2.85714285714286, "usdPay" : 1.42857142857143, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>30920</t>
+  </si>
+  <si>
+    <t>30940</t>
+  </si>
+  <si>
+    <t>4420</t>
+  </si>
+  <si>
+    <t>2.85714285714286</t>
   </si>
   <si>
     <t>918</t>
@@ -4650,7 +4659,7 @@
     <t>942</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "23年4月洛美船员换班代理费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 8699.4, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 8699.4, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "23年4月洛美船员换班代理费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 8699.4, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 8699.4, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>8699.4</t>
@@ -4683,7 +4692,7 @@
     <t>948</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.03-船舶检验费", "content" : "EEXI的EPL和OMM审图费用", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "2600" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2600" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.03-船舶检验费", "content" : "EEXI的EPL和OMM审图费用", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "2600" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2600" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>2600</t>
@@ -4692,7 +4701,7 @@
     <t>949</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "4.22 lome港高压清洗机备件", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "648" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "648" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "4.22 lome港高压清洗机备件", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "648" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "648" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>951</t>
@@ -4710,13 +4719,13 @@
     <t>952</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.11-物料", "content" : "4.22 非洲lome港送紧急物料", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "579" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "579" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "4.22 非洲lome港送紧急物料", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "579" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "579" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>953</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "4.22 lome港大舱进水报警备件", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "2390" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2390" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.06-备件供应 ", "content" : "4.22 lome港三位四通阀和干簧管", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "54" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "54" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "4.22 lome港大舱进水报警备件", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "2390" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2390" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.06-备件供应 ", "content" : "4.22 lome港三位四通阀和干簧管", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "54" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "54" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>2444</t>
@@ -4725,7 +4734,7 @@
     <t>954</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.11-物料", "content" : "4.22 LOME供图书资料", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "4020" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 580.882884184669, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "4.22 LOME供图书资料", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "4020" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 580.882884184669, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>4020</t>
@@ -4734,7 +4743,7 @@
     <t>955</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "4月GPS JLR-7600一套预付款", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "1750" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "1750" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "4月GPS JLR-7600一套预付款", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "1750" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "1750" }, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>1750</t>
@@ -4746,7 +4755,7 @@
     <t>957</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "22年12月-23年3月C站通讯费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "944" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "944" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "22年12月-23年3月C站通讯费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "944" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "944" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>944</t>
@@ -4755,7 +4764,7 @@
     <t>958</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "23年1月vsat通讯费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1073.83, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1073.83, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.01-通信通导", "content" : "23年2月vsat通讯费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1733.36, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1733.36, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.01-通信通导", "content" : "23年3月vsat通讯费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1730.88, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1730.88, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "23年1月vsat通讯费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1073.83, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1073.83, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.01-通信通导", "content" : "23年2月vsat通讯费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1733.36, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1733.36, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.01-通信通导", "content" : "23年3月vsat通讯费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1730.88, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1730.88, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>4538.07</t>
@@ -4899,7 +4908,7 @@
     <t>984</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "23年1月vsat通讯费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1729.9, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1729.9, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.01-通信通导", "content" : "23年2月vsat通讯费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1732.9, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1732.9, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.01-通信通导", "content" : "23年3月vsat通讯费", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1729.9, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1729.9, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "23年1月vsat通讯费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1729.9, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1729.9, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.01-通信通导", "content" : "23年2月vsat通讯费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1732.9, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1732.9, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.01-通信通导", "content" : "23年3月vsat通讯费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1729.9, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1729.9, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>5192.7</t>
@@ -5367,7 +5376,7 @@
     <t>1073</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5402.16-航次监装费等", "content" : "2023年5月11日-5月14日从Harcourt港安保护航出尼日利亚安保费用", "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "31200" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "31200" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5402.16-航次监装费等", "content" : "2023年5月11日-5月14日从Harcourt港安保护航出尼日利亚安保费用", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "31200" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "31200" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>31200</t>
@@ -5742,10 +5751,10 @@
     <t>1149</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "1", "orgGathered" : { "$numberInt" : "1" }, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : { "$numberInt" : "1" }, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "第三期租金", "currencyName" : null, "orgGathered" : 226980.63, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 226980.63, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>226980.63</t>
   </si>
   <si>
     <t>1151</t>
@@ -5979,7 +5988,7 @@
     <t>1203</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "23年5月换班机票（赵江浩）", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1317.81, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1317.81, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.17-船员杂费", "content" : "23年5月换班机票（宋忠文）", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1998.44, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1998.44, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "23年5月换班机票（赵江浩）", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1317.81, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1317.81, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.17-船员杂费", "content" : "23年5月换班机票（宋忠文）", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1998.44, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1998.44, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>3316.25</t>
@@ -6003,7 +6012,7 @@
     <t>1206</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "4月lome换班机票费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 22709.75, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 22709.75, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "4月lome换班机票费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 22709.75, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 22709.75, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>22709.75</t>
@@ -6012,7 +6021,7 @@
     <t>1207</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "4月VSAT通讯费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1730.88, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1730.88, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "4月VSAT通讯费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1730.88, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1730.88, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>1730.88</t>
@@ -6021,16 +6030,19 @@
     <t>1208</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.11-物料", "content" : "2月电子海图", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "4025" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "4025" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "2月电子海图", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "4025" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 567.965343530839, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>4025</t>
   </si>
   <si>
+    <t>567.965343530839</t>
+  </si>
+  <si>
     <t>1209</t>
   </si>
   <si>
-    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "4.10 LOME换班船员工作服14套", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 262.25, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 262.25, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "4.10 LOME换班船员工作服14套", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 262.25, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 262.25, "isDiscard" : { "$numberInt" : "0" }, "receiptObjId" : null, "receiptType" : null } ]</t>
   </si>
   <si>
     <t>262.25</t>
@@ -6100,6 +6112,426 @@
   </si>
   <si>
     <t>65755.04</t>
+  </si>
+  <si>
+    <t>1226</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.04-修理和维护  ", "content" : "4月30日大连船厂主副机油头修理费用", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "2710" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 381.878390756006, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>2710</t>
+  </si>
+  <si>
+    <t>381.878390756006</t>
+  </si>
+  <si>
+    <t>1228</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.01-租金运费成本  ", "content" : "第49期租金（1345GMT 24/6/2023 - 1345GMT 24/7/2023）", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "108000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "108000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "抓斗油缸密封件6套", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "10700" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1509.87060267826, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>10700</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.08-船员工资伙食    ", "content" : "5月船员工资", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 88223.33, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 88223.33, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.17-船员杂费", "content" : "10名船员利证", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 3533.07, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 3533.07, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.17-船员杂费", "content" : "东渡报销4名外籍船员机票", "currencyName" : null, "orgGathered" : 1087.54, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 1087.54, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>90668.86</t>
+  </si>
+  <si>
+    <t>1087.54</t>
+  </si>
+  <si>
+    <t>91756.4</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "5月新加坡换班船员机票", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 2896.26, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 2896.26, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>2896.26</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "2月电子海图", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "560" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 79.0212651868994, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>79.0212651868994</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "5月连云港航海图书", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "2770" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 390.873043870913, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>2770</t>
+  </si>
+  <si>
+    <t>390.873043870913</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.04-修理和维护  ", "content" : "天津中间检验救生艇、艇架、测厚", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "5350" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 754.935301339128, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.04-修理和维护  ", "content" : "连云港年度救生消防设备年检", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 5657.95, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 798.389941721817, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.04-修理和维护  ", "content" : "连云港供应吊艇钢丝等", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 6879.7, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 970.790353761271, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>17887.65</t>
+  </si>
+  <si>
+    <t>2524.11559682222</t>
+  </si>
+  <si>
+    <t>1236</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.04-修理和维护  ", "content" : "1吊吊臂修复", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "10000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "10000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.03-船舶检验费", "content" : "4月天津LR年检费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 2018.5, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 2018.5, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>2018.5</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.12-润料 ", "content" : "5.16新加坡补充气缸油", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "14800" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "14800" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>14800</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.04-修理和维护  ", "content" : "5月8日大连船厂主机和2#副机增压器修理和备件供应", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 16285.7, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 16285.7, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>16285.7</t>
+  </si>
+  <si>
+    <t>1244</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.03-劳务费奖金", "content" : "扫洗舱费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 17948.75, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2500" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.03-劳务费奖金", "content" : "应急备舱费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 3589.75, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "500" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.03-劳务费奖金", "content" : "船长和轮机长航次奖", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 2871.8, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "400" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.03-劳务费奖金", "content" : "船员防海盗奖金", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 21538.5, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "3000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.03-劳务费奖金", "content" : "船员割地令奖金（913PCS * 5 USD）", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 32774.42, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 4565.00034821366, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5502.03-招待费", "content" : "随船武装保安客餐费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 6558.47, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 913.499547322237, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>85281.69</t>
+  </si>
+  <si>
+    <t>11878.4998955359</t>
+  </si>
+  <si>
+    <t>1247</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.04-修理和维护  ", "content" : "5月7日大连船厂压载水设备安装及克令吊水密门备件3套", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "29368" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "29368" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>29368</t>
+  </si>
+  <si>
+    <t>1249</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.04-修理和维护  ", "content" : "5月4日大连船厂压载水安装报警装置和发电机主开关测试", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "16000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 2254.63256534912, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>2254.63256534912</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.04-修理和维护  ", "content" : "修理克令吊后勤服务", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "22990" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 3244.10515472646, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.11-物料", "content" : "氧气乙炔供应", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "4130" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 582.781830753383, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>27120</t>
+  </si>
+  <si>
+    <t>3826.88698547984</t>
+  </si>
+  <si>
+    <t>1251</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.04-修理和维护  ", "content" : "5月16日天津港2个副机空冷器端盖和4个克令吊角度指示器修理", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "3618" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 509.828788839569, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>3618</t>
+  </si>
+  <si>
+    <t>509.828788839569</t>
+  </si>
+  <si>
+    <t>1253</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.04-修理和维护  ", "content" : "5月8日大连船厂主机气动阀备件和修理", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 2688.4, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 378.834636792785, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>2688.4</t>
+  </si>
+  <si>
+    <t>378.834636792785</t>
+  </si>
+  <si>
+    <t>1254</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "5月无线电修理", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "1700" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "1700" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>1255</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "5月1日大连船厂供应尾轴白缸套和尾密封", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "7220" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "7220" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>7220</t>
+  </si>
+  <si>
+    <t>1256</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "4月VSAT通讯费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1729.9, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1729.9, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1257</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "4月份电子海图", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 90.24, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 90.24, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>90.24</t>
+  </si>
+  <si>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "5月连云港补充物料", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 4770.25, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 4770.25, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>4770.25</t>
+  </si>
+  <si>
+    <t>1259</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "4月27日大连船厂供应补充物料", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 22899.57, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 22899.57, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>22899.57</t>
+  </si>
+  <si>
+    <t>1261</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "5月6日大连船厂供应修理物料", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 13417.26, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 13417.26, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>13417.26</t>
+  </si>
+  <si>
+    <t>1263</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "4月电子图书费ADP", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 787.47, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 787.47, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.11-物料", "content" : "4月电子图书费ENP", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 125.1, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 125.1, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.11-物料", "content" : "4月电子海图", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 416.08, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 416.08, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1328.65</t>
+  </si>
+  <si>
+    <t>1265</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.17-船员杂费", "content" : "4.9天津接班船员工作服23套", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 430.84, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 430.84, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>430.84</t>
+  </si>
+  <si>
+    <t>1266</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.06-备件供应 ", "content" : "4月天津-航达充电电源", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "1410" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "1410" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.06-备件供应 ", "content" : "4月天津-扎克锅炉水位控制模块", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "1012" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "1012" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.06-备件供应 ", "content" : "4月天津-空压器控制模块", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1207.6, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1207.6, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.06-备件供应 ", "content" : "4月天津-电话机耳机", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "165" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "165" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.06-备件供应 ", "content" : "4月天津-蓄电池", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 1134.8, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 1134.8, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.06-备件供应 ", "content" : "4月天津-雷达风扇", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "36" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "36" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.06-备件供应 ", "content" : "4月天津-水位探头", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "1089" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "1089" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>6054.4</t>
+  </si>
+  <si>
+    <t>1268</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "6月 千斤钢丝+吊货钢丝各1根 预付款", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "19500" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 2751.63334132953, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>19500</t>
+  </si>
+  <si>
+    <t>2751.63334132953</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.14-卸港使费 ", "content" : "预付90%防城港港使费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 134929.76, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 19842.6117647059, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>134929.76</t>
+  </si>
+  <si>
+    <t>19842.6117647059</t>
+  </si>
+  <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.11-物料", "content" : "ORDESEN完成EPL方案 EPL装置1月25日新加坡供船 本次支付剩余款项", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "1750" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "1750" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1273</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5101.06-租金收入", "content" : "第五期租金", "currencyName" : null, "orgGathered" : 217776.07, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 217776.07, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>217776.07</t>
+  </si>
+  <si>
+    <t>1275</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5101.03-运费收入", "content" : "航次定金", "currencyName" : null, "orgGathered" : 199971.67, "orgPay" : null, "usdGathered" : 199971.67, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>199971.67</t>
+  </si>
+  <si>
+    <t>1276</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.01-通信通导", "content" : "5月份C站费用", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 190.1, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 190.1, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>190.1</t>
+  </si>
+  <si>
+    <t>1278</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2204-贷款本金", "content" : "20230706 sophia ocean还款本金", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "100000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "100000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5503-财务费用 ", "content" : "20230706 sophia ocean还款利息", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 12250.03, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 12250.03, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>112250.03</t>
+  </si>
+  <si>
+    <t>1279</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.03-劳务费奖金", "content" : "扫洗舱", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 18044.75, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "2500" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.03-劳务费奖金", "content" : "紧急扫洗舱奖励", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 2165.37, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "300" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5402.03-劳务费奖金", "content" : "船长老轨航次奖", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 2887.88, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 400.099752005431, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>23098</t>
+  </si>
+  <si>
+    <t>3200.09975200543</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5402.16-航次监装费等", "content" : "京唐、天津、日照、上海监装钢材", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "7200" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "7200" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>7200</t>
+  </si>
+  <si>
+    <t>1282</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.07-船舶管理费用  ", "content" : "23年4月华洋船舶管理费\n", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "3600" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "3600" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.07-船舶管理费用  ", "content" : "23年5月华洋船舶管理费\n", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "3600" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "3600" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null }, { "fundCategory" : "5501.07-船舶管理费用  ", "content" : "23年6月华洋船舶管理费\n", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "3600" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "3600" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1284</t>
+  </si>
+  <si>
+    <t>1285</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.07-船舶管理费用  ", "content" : "卸货港防城安排船舶备用金", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "70000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 9694.21670729005, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1287</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.20-法定费用", "content" : "2023年吨税", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 4107.55, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 4107.55, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>4107.55</t>
+  </si>
+  <si>
+    <t>1289</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2202-股东往来", "content" : "陈文锋EN分红", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 68502.24, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 68502.24, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>68502.24</t>
+  </si>
+  <si>
+    <t>1291</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2202-股东往来", "content" : "EN卖船结算（唐毅）", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : 137004.48, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : 137004.48, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>137004.48</t>
+  </si>
+  <si>
+    <t>1293</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.07-船舶管理费用  ", "content" : "防城港上备用金", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "10000" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "10000" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1295</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.02-银行费用 ", "content" : "花旗账户6月管理费", "currencyName" : null, "orgGathered" : { "$numberInt" : "0" }, "orgPay" : { "$numberInt" : "350" }, "usdGathered" : { "$numberInt" : "0" }, "usdPay" : { "$numberInt" : "350" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>1296</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.12-利息收入 ", "content" : "花旗账户6月利息收入", "currencyName" : null, "orgGathered" : 0.31, "orgPay" : { "$numberInt" : "0" }, "usdGathered" : 0.31, "usdPay" : { "$numberInt" : "0" }, "isDiscard" : null, "receiptObjId" : null, "receiptType" : null } ]</t>
+  </si>
+  <si>
+    <t>0.31</t>
   </si>
 </sst>
 </file>
@@ -6143,7 +6575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G680"/>
+  <dimension ref="A1:G726"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -17680,36 +18112,36 @@
         <v>1496</v>
       </c>
       <c r="D502" t="s">
-        <v>398</v>
+        <v>1497</v>
       </c>
       <c r="E502" t="s">
         <v>20</v>
       </c>
       <c r="F502" t="s">
-        <v>398</v>
+        <v>1498</v>
       </c>
       <c r="G502" t="s">
-        <v>20</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="B503" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="C503" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="D503" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="E503" t="s">
         <v>10</v>
       </c>
       <c r="F503" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="G503" t="s">
         <v>10</v>
@@ -17717,10 +18149,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="B504" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="C504" t="s">
         <v>451</v>
@@ -17740,25 +18172,25 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="B505" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="C505" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="D505" t="s">
         <v>10</v>
       </c>
       <c r="E505" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="F505" t="s">
         <v>10</v>
       </c>
       <c r="G505" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="506">
@@ -17766,19 +18198,19 @@
         <v>107</v>
       </c>
       <c r="B506" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="C506" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="D506" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="E506" t="s">
         <v>10</v>
       </c>
       <c r="F506" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="G506" t="s">
         <v>10</v>
@@ -17786,10 +18218,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="B507" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="C507" t="s">
         <v>19</v>
@@ -17809,68 +18241,68 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="B508" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="C508" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="D508" t="s">
         <v>10</v>
       </c>
       <c r="E508" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="F508" t="s">
         <v>10</v>
       </c>
       <c r="G508" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="B509" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="C509" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="D509" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="E509" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="F509" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="G509" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="B510" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="C510" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="D510" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="E510" t="s">
         <v>10</v>
       </c>
       <c r="F510" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="G510" t="s">
         <v>10</v>
@@ -17878,22 +18310,22 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="B511" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="C511" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="D511" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="E511" t="s">
         <v>10</v>
       </c>
       <c r="F511" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="G511" t="s">
         <v>10</v>
@@ -17901,22 +18333,22 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="B512" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="C512" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="D512" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="E512" t="s">
         <v>10</v>
       </c>
       <c r="F512" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="G512" t="s">
         <v>10</v>
@@ -17924,22 +18356,22 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="B513" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="C513" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="D513" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="E513" t="s">
         <v>10</v>
       </c>
       <c r="F513" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="G513" t="s">
         <v>10</v>
@@ -17947,171 +18379,171 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="B514" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="C514" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="D514" t="s">
         <v>10</v>
       </c>
       <c r="E514" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="F514" t="s">
         <v>10</v>
       </c>
       <c r="G514" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="B515" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="C515" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="D515" t="s">
         <v>10</v>
       </c>
       <c r="E515" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F515" t="s">
         <v>10</v>
       </c>
       <c r="G515" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="B516" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="C516" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="D516" t="s">
         <v>637</v>
       </c>
       <c r="E516" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="F516" t="s">
         <v>637</v>
       </c>
       <c r="G516" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="B517" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="C517" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="D517" t="s">
         <v>10</v>
       </c>
       <c r="E517" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="F517" t="s">
         <v>10</v>
       </c>
       <c r="G517" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="B518" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="C518" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="D518" t="s">
         <v>10</v>
       </c>
       <c r="E518" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="F518" t="s">
         <v>10</v>
       </c>
       <c r="G518" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="B519" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="C519" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="D519" t="s">
         <v>10</v>
       </c>
       <c r="E519" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="F519" t="s">
         <v>10</v>
       </c>
       <c r="G519" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="B520" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="C520" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="D520" t="s">
         <v>10</v>
       </c>
       <c r="E520" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="F520" t="s">
         <v>10</v>
       </c>
       <c r="G520" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="B521" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="C521" t="s">
         <v>1021</v>
@@ -18131,33 +18563,33 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="B522" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="C522" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="D522" t="s">
         <v>10</v>
       </c>
       <c r="E522" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="F522" t="s">
         <v>10</v>
       </c>
       <c r="G522" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="B523" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="C523" t="s">
         <v>904</v>
@@ -18177,125 +18609,125 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="B524" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="C524" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="D524" t="s">
         <v>10</v>
       </c>
       <c r="E524" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="F524" t="s">
         <v>10</v>
       </c>
       <c r="G524" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="B525" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="C525" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="D525" t="s">
         <v>10</v>
       </c>
       <c r="E525" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="F525" t="s">
         <v>10</v>
       </c>
       <c r="G525" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="B526" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="C526" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="D526" t="s">
         <v>10</v>
       </c>
       <c r="E526" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="F526" t="s">
         <v>10</v>
       </c>
       <c r="G526" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="B527" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="C527" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="D527" t="s">
         <v>10</v>
       </c>
       <c r="E527" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="F527" t="s">
         <v>10</v>
       </c>
       <c r="G527" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="B528" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="C528" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="D528" t="s">
         <v>10</v>
       </c>
       <c r="E528" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="F528" t="s">
         <v>10</v>
       </c>
       <c r="G528" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="B529" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="C529" t="s">
         <v>549</v>
@@ -18315,10 +18747,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="B530" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="C530" t="s">
         <v>186</v>
@@ -18338,22 +18770,22 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="B531" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="C531" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="D531" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="E531" t="s">
         <v>10</v>
       </c>
       <c r="F531" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="G531" t="s">
         <v>10</v>
@@ -18361,45 +18793,45 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="B532" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="C532" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="D532" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="E532" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="F532" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="G532" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="B533" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="C533" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="D533" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="E533" t="s">
         <v>10</v>
       </c>
       <c r="F533" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="G533" t="s">
         <v>10</v>
@@ -18407,76 +18839,76 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="B534" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="C534" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="D534" t="s">
         <v>10</v>
       </c>
       <c r="E534" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="F534" t="s">
         <v>10</v>
       </c>
       <c r="G534" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="B535" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="C535" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="D535" t="s">
         <v>10</v>
       </c>
       <c r="E535" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="F535" t="s">
         <v>10</v>
       </c>
       <c r="G535" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="B536" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="C536" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="D536" t="s">
         <v>10</v>
       </c>
       <c r="E536" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="F536" t="s">
         <v>10</v>
       </c>
       <c r="G536" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="B537" t="s">
         <v>1486</v>
@@ -18499,33 +18931,33 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="B538" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="C538" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="D538" t="s">
         <v>10</v>
       </c>
       <c r="E538" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="F538" t="s">
         <v>10</v>
       </c>
       <c r="G538" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="B539" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="C539" t="s">
         <v>1045</v>
@@ -18540,245 +18972,245 @@
         <v>10</v>
       </c>
       <c r="G539" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="B540" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="C540" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="D540" t="s">
         <v>10</v>
       </c>
       <c r="E540" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="F540" t="s">
         <v>10</v>
       </c>
       <c r="G540" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="B541" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="C541" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="D541" t="s">
         <v>10</v>
       </c>
       <c r="E541" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="F541" t="s">
         <v>10</v>
       </c>
       <c r="G541" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="B542" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="C542" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="D542" t="s">
         <v>10</v>
       </c>
       <c r="E542" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="F542" t="s">
         <v>10</v>
       </c>
       <c r="G542" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="B543" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="C543" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="D543" t="s">
         <v>10</v>
       </c>
       <c r="E543" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="F543" t="s">
         <v>10</v>
       </c>
       <c r="G543" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="B544" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="C544" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="D544" t="s">
         <v>10</v>
       </c>
       <c r="E544" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="F544" t="s">
         <v>10</v>
       </c>
       <c r="G544" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="B545" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="C545" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="D545" t="s">
         <v>10</v>
       </c>
       <c r="E545" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="F545" t="s">
         <v>10</v>
       </c>
       <c r="G545" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="B546" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="C546" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="D546" t="s">
         <v>10</v>
       </c>
       <c r="E546" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="F546" t="s">
         <v>10</v>
       </c>
       <c r="G546" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="B547" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="C547" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="D547" t="s">
         <v>10</v>
       </c>
       <c r="E547" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="F547" t="s">
         <v>10</v>
       </c>
       <c r="G547" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="B548" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="C548" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="D548" t="s">
         <v>10</v>
       </c>
       <c r="E548" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="F548" t="s">
         <v>10</v>
       </c>
       <c r="G548" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="B549" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="C549" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="D549" t="s">
         <v>10</v>
       </c>
       <c r="E549" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="F549" t="s">
         <v>10</v>
       </c>
       <c r="G549" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="B550" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="C550" t="s">
         <v>135</v>
@@ -18798,56 +19230,56 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="B551" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="C551" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="D551" t="s">
         <v>10</v>
       </c>
       <c r="E551" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="F551" t="s">
         <v>10</v>
       </c>
       <c r="G551" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="B552" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="C552" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="D552" t="s">
         <v>10</v>
       </c>
       <c r="E552" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="F552" t="s">
         <v>10</v>
       </c>
       <c r="G552" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="B553" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="C553" t="s">
         <v>1395</v>
@@ -18867,10 +19299,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="B554" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="C554" t="s">
         <v>575</v>
@@ -18890,22 +19322,22 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="B555" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="C555" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="D555" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="E555" t="s">
         <v>10</v>
       </c>
       <c r="F555" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="G555" t="s">
         <v>10</v>
@@ -18913,33 +19345,33 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="B556" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="C556" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="D556" t="s">
         <v>10</v>
       </c>
       <c r="E556" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="F556" t="s">
         <v>10</v>
       </c>
       <c r="G556" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="B557" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="C557" t="s">
         <v>496</v>
@@ -18959,45 +19391,45 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="B558" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="C558" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="D558" t="s">
         <v>10</v>
       </c>
       <c r="E558" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="F558" t="s">
         <v>10</v>
       </c>
       <c r="G558" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="B559" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="C559" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="D559" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="E559" t="s">
         <v>10</v>
       </c>
       <c r="F559" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="G559" t="s">
         <v>10</v>
@@ -19005,137 +19437,137 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="B560" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="C560" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="D560" t="s">
         <v>10</v>
       </c>
       <c r="E560" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="F560" t="s">
         <v>10</v>
       </c>
       <c r="G560" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="B561" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="C561" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="D561" t="s">
         <v>10</v>
       </c>
       <c r="E561" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="F561" t="s">
         <v>10</v>
       </c>
       <c r="G561" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="B562" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="C562" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="D562" t="s">
         <v>10</v>
       </c>
       <c r="E562" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="F562" t="s">
         <v>10</v>
       </c>
       <c r="G562" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="B563" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="C563" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="D563" t="s">
         <v>10</v>
       </c>
       <c r="E563" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="F563" t="s">
         <v>10</v>
       </c>
       <c r="G563" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="B564" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="C564" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="D564" t="s">
         <v>10</v>
       </c>
       <c r="E564" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="F564" t="s">
         <v>10</v>
       </c>
       <c r="G564" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="B565" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="C565" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="D565" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="E565" t="s">
         <v>10</v>
       </c>
       <c r="F565" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="G565" t="s">
         <v>10</v>
@@ -19143,10 +19575,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="B566" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="C566" t="s">
         <v>549</v>
@@ -19166,56 +19598,56 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="B567" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="C567" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="D567" t="s">
         <v>10</v>
       </c>
       <c r="E567" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="F567" t="s">
         <v>10</v>
       </c>
       <c r="G567" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="B568" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="C568" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="D568" t="s">
         <v>10</v>
       </c>
       <c r="E568" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="F568" t="s">
         <v>10</v>
       </c>
       <c r="G568" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="B569" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="C569" t="s">
         <v>1395</v>
@@ -19235,22 +19667,22 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="B570" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="C570" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="D570" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="E570" t="s">
         <v>10</v>
       </c>
       <c r="F570" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="G570" t="s">
         <v>10</v>
@@ -19258,71 +19690,71 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="B571" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="C571" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="D571" t="s">
         <v>10</v>
       </c>
       <c r="E571" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="F571" t="s">
         <v>10</v>
       </c>
       <c r="G571" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="B572" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="C572" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="D572" t="s">
         <v>10</v>
       </c>
       <c r="E572" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="F572" t="s">
         <v>10</v>
       </c>
       <c r="G572" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="B573" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C573" t="s">
         <v>1713</v>
       </c>
-      <c r="C573" t="s">
-        <v>1710</v>
-      </c>
       <c r="D573" t="s">
         <v>10</v>
       </c>
       <c r="E573" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="F573" t="s">
         <v>10</v>
       </c>
       <c r="G573" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="574">
@@ -19330,7 +19762,7 @@
         <v>934</v>
       </c>
       <c r="B574" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="C574" t="s">
         <v>101</v>
@@ -19345,27 +19777,27 @@
         <v>10</v>
       </c>
       <c r="G574" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="B575" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="C575" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="D575" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="E575" t="s">
         <v>10</v>
       </c>
       <c r="F575" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="G575" t="s">
         <v>10</v>
@@ -19373,10 +19805,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="B576" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="C576" t="s">
         <v>1035</v>
@@ -19396,10 +19828,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="B577" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="C577" t="s">
         <v>1035</v>
@@ -19419,22 +19851,22 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="B578" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="C578" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="D578" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="E578" t="s">
         <v>10</v>
       </c>
       <c r="F578" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="G578" t="s">
         <v>10</v>
@@ -19442,10 +19874,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="B579" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C579" t="s">
         <v>66</v>
@@ -19465,91 +19897,91 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="B580" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="C580" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="D580" t="s">
         <v>10</v>
       </c>
       <c r="E580" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="F580" t="s">
         <v>10</v>
       </c>
       <c r="G580" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="B581" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="C581" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="D581" t="s">
         <v>10</v>
       </c>
       <c r="E581" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="F581" t="s">
         <v>10</v>
       </c>
       <c r="G581" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="B582" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="C582" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="D582" t="s">
         <v>10</v>
       </c>
       <c r="E582" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="F582" t="s">
         <v>10</v>
       </c>
       <c r="G582" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="B583" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="C583" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="D583" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="E583" t="s">
         <v>10</v>
       </c>
       <c r="F583" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="G583" t="s">
         <v>10</v>
@@ -19557,114 +19989,114 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="B584" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="C584" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="D584" t="s">
         <v>10</v>
       </c>
       <c r="E584" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="F584" t="s">
         <v>10</v>
       </c>
       <c r="G584" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="B585" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="C585" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="D585" t="s">
         <v>10</v>
       </c>
       <c r="E585" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="F585" t="s">
         <v>10</v>
       </c>
       <c r="G585" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="B586" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="C586" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="D586" t="s">
         <v>10</v>
       </c>
       <c r="E586" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="F586" t="s">
         <v>10</v>
       </c>
       <c r="G586" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="B587" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="C587" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="D587" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="E587" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="F587" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="G587" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="B588" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="C588" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="D588" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="E588" t="s">
         <v>10</v>
       </c>
       <c r="F588" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="G588" t="s">
         <v>10</v>
@@ -19672,91 +20104,91 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="B589" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="C589" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="D589" t="s">
         <v>10</v>
       </c>
       <c r="E589" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="F589" t="s">
         <v>10</v>
       </c>
       <c r="G589" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="B590" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="C590" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="D590" t="s">
         <v>10</v>
       </c>
       <c r="E590" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="F590" t="s">
         <v>10</v>
       </c>
       <c r="G590" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="B591" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="C591" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="D591" t="s">
         <v>10</v>
       </c>
       <c r="E591" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="F591" t="s">
         <v>10</v>
       </c>
       <c r="G591" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="B592" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="C592" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="D592" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="E592" t="s">
         <v>10</v>
       </c>
       <c r="F592" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="G592" t="s">
         <v>10</v>
@@ -19764,45 +20196,45 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="B593" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="C593" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="D593" t="s">
         <v>10</v>
       </c>
       <c r="E593" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="F593" t="s">
         <v>10</v>
       </c>
       <c r="G593" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="B594" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="C594" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="D594" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="E594" t="s">
         <v>10</v>
       </c>
       <c r="F594" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="G594" t="s">
         <v>10</v>
@@ -19810,160 +20242,160 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="B595" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="C595" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="D595" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="E595" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="F595" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="G595" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="B596" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="C596" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="D596" t="s">
         <v>10</v>
       </c>
       <c r="E596" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="F596" t="s">
         <v>10</v>
       </c>
       <c r="G596" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="B597" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="C597" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="D597" t="s">
         <v>10</v>
       </c>
       <c r="E597" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="F597" t="s">
         <v>10</v>
       </c>
       <c r="G597" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="B598" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="C598" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="D598" t="s">
         <v>10</v>
       </c>
       <c r="E598" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="F598" t="s">
         <v>10</v>
       </c>
       <c r="G598" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="B599" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="C599" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="D599" t="s">
         <v>10</v>
       </c>
       <c r="E599" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="F599" t="s">
         <v>10</v>
       </c>
       <c r="G599" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="B600" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="C600" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="D600" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="E600" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="F600" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="G600" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="B601" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="C601" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="D601" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="E601" t="s">
         <v>10</v>
       </c>
       <c r="F601" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="G601" t="s">
         <v>10</v>
@@ -19971,22 +20403,22 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="B602" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="C602" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="D602" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="E602" t="s">
         <v>10</v>
       </c>
       <c r="F602" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="G602" t="s">
         <v>10</v>
@@ -19994,22 +20426,22 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B603" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="C603" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="D603" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="E603" t="s">
         <v>10</v>
       </c>
       <c r="F603" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="G603" t="s">
         <v>10</v>
@@ -20017,102 +20449,102 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="B604" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="C604" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="D604" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="E604" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="F604" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="G604" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="B605" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="C605" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="D605" t="s">
         <v>10</v>
       </c>
       <c r="E605" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="F605" t="s">
         <v>10</v>
       </c>
       <c r="G605" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="B606" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="C606" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="D606" t="s">
         <v>10</v>
       </c>
       <c r="E606" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="F606" t="s">
         <v>10</v>
       </c>
       <c r="G606" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="B607" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="C607" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="D607" t="s">
         <v>10</v>
       </c>
       <c r="E607" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="F607" t="s">
         <v>10</v>
       </c>
       <c r="G607" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="B608" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="C608" t="s">
         <v>302</v>
@@ -20132,45 +20564,45 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="B609" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="C609" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="D609" t="s">
         <v>10</v>
       </c>
       <c r="E609" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="F609" t="s">
         <v>10</v>
       </c>
       <c r="G609" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="B610" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="C610" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="D610" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="E610" t="s">
         <v>10</v>
       </c>
       <c r="F610" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="G610" t="s">
         <v>10</v>
@@ -20178,125 +20610,125 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="B611" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="C611" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="D611" t="s">
         <v>10</v>
       </c>
       <c r="E611" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="F611" t="s">
         <v>10</v>
       </c>
       <c r="G611" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="B612" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="C612" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="D612" t="s">
         <v>10</v>
       </c>
       <c r="E612" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="F612" t="s">
         <v>10</v>
       </c>
       <c r="G612" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B613" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="C613" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="D613" t="s">
         <v>10</v>
       </c>
       <c r="E613" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="F613" t="s">
         <v>10</v>
       </c>
       <c r="G613" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="B614" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="C614" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="D614" t="s">
         <v>10</v>
       </c>
       <c r="E614" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="F614" t="s">
         <v>10</v>
       </c>
       <c r="G614" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="B615" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="C615" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="D615" t="s">
         <v>10</v>
       </c>
       <c r="E615" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="F615" t="s">
         <v>10</v>
       </c>
       <c r="G615" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="B616" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="C616" t="s">
         <v>219</v>
@@ -20316,22 +20748,22 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="B617" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="C617" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="D617" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="E617" t="s">
         <v>10</v>
       </c>
       <c r="F617" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="G617" t="s">
         <v>10</v>
@@ -20339,68 +20771,68 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="B618" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="C618" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="D618" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="E618" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="F618" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="G618" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="B619" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="C619" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="D619" t="s">
         <v>10</v>
       </c>
       <c r="E619" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="F619" t="s">
         <v>10</v>
       </c>
       <c r="G619" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="B620" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="C620" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="D620" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="E620" t="s">
         <v>10</v>
       </c>
       <c r="F620" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="G620" t="s">
         <v>10</v>
@@ -20408,25 +20840,25 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="B621" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="C621" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="D621" t="s">
         <v>10</v>
       </c>
       <c r="E621" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="F621" t="s">
         <v>10</v>
       </c>
       <c r="G621" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="622">
@@ -20434,19 +20866,19 @@
         <v>893</v>
       </c>
       <c r="B622" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="C622" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="D622" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="E622" t="s">
         <v>10</v>
       </c>
       <c r="F622" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="G622" t="s">
         <v>10</v>
@@ -20454,22 +20886,22 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="B623" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="C623" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="D623" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="E623" t="s">
         <v>10</v>
       </c>
       <c r="F623" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="G623" t="s">
         <v>10</v>
@@ -20477,33 +20909,33 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="B624" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="C624" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="D624" t="s">
         <v>10</v>
       </c>
       <c r="E624" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="F624" t="s">
         <v>10</v>
       </c>
       <c r="G624" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="B625" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="C625" t="s">
         <v>600</v>
@@ -20526,19 +20958,19 @@
         <v>1322</v>
       </c>
       <c r="B626" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="C626" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="D626" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="E626" t="s">
         <v>10</v>
       </c>
       <c r="F626" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="G626" t="s">
         <v>10</v>
@@ -20546,22 +20978,22 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="B627" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="C627" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="D627" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="E627" t="s">
         <v>10</v>
       </c>
       <c r="F627" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="G627" t="s">
         <v>10</v>
@@ -20569,10 +21001,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="B628" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="C628" t="s">
         <v>302</v>
@@ -20587,15 +21019,15 @@
         <v>10</v>
       </c>
       <c r="G628" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="B629" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="C629" t="s">
         <v>973</v>
@@ -20615,10 +21047,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="B630" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="C630" t="s">
         <v>976</v>
@@ -20638,91 +21070,91 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="B631" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="C631" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="D631" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="E631" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="F631" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="G631" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="B632" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="C632" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="D632" t="s">
         <v>10</v>
       </c>
       <c r="E632" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="F632" t="s">
         <v>10</v>
       </c>
       <c r="G632" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="B633" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="C633" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="D633" t="s">
         <v>10</v>
       </c>
       <c r="E633" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F633" t="s">
         <v>10</v>
       </c>
       <c r="G633" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="B634" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="C634" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="D634" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="E634" t="s">
         <v>10</v>
       </c>
       <c r="F634" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G634" t="s">
         <v>10</v>
@@ -20730,10 +21162,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="B635" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="C635" t="s">
         <v>989</v>
@@ -20753,10 +21185,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="B636" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="C636" t="s">
         <v>1088</v>
@@ -20776,22 +21208,22 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="B637" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="C637" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="D637" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="E637" t="s">
         <v>10</v>
       </c>
       <c r="F637" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="G637" t="s">
         <v>10</v>
@@ -20799,22 +21231,22 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="B638" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="C638" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="D638" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="E638" t="s">
         <v>10</v>
       </c>
       <c r="F638" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="G638" t="s">
         <v>10</v>
@@ -20822,56 +21254,56 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="B639" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="C639" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
       <c r="D639" t="s">
         <v>10</v>
       </c>
       <c r="E639" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
       <c r="F639" t="s">
         <v>10</v>
       </c>
       <c r="G639" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="B640" t="s">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="C640" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="D640" t="s">
         <v>10</v>
       </c>
       <c r="E640" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="F640" t="s">
         <v>10</v>
       </c>
       <c r="G640" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="B641" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="C641" t="s">
         <v>219</v>
@@ -20891,309 +21323,309 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
       <c r="B642" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="C642" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="D642" t="s">
         <v>10</v>
       </c>
       <c r="E642" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="F642" t="s">
         <v>10</v>
       </c>
       <c r="G642" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="B643" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
       <c r="C643" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="D643" t="s">
         <v>10</v>
       </c>
       <c r="E643" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="F643" t="s">
         <v>10</v>
       </c>
       <c r="G643" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="B644" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="C644" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
       <c r="D644" t="s">
         <v>10</v>
       </c>
       <c r="E644" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
       <c r="F644" t="s">
         <v>10</v>
       </c>
       <c r="G644" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="B645" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="C645" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="D645" t="s">
         <v>10</v>
       </c>
       <c r="E645" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="F645" t="s">
         <v>10</v>
       </c>
       <c r="G645" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="B646" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
       <c r="C646" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="D646" t="s">
         <v>10</v>
       </c>
       <c r="E646" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="F646" t="s">
         <v>10</v>
       </c>
       <c r="G646" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="B647" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="C647" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="D647" t="s">
         <v>10</v>
       </c>
       <c r="E647" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="F647" t="s">
         <v>10</v>
       </c>
       <c r="G647" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="B648" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="C648" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="D648" t="s">
         <v>10</v>
       </c>
       <c r="E648" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="F648" t="s">
         <v>10</v>
       </c>
       <c r="G648" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="B649" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="C649" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="D649" t="s">
         <v>10</v>
       </c>
       <c r="E649" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="F649" t="s">
         <v>10</v>
       </c>
       <c r="G649" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="B650" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="C650" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="D650" t="s">
         <v>10</v>
       </c>
       <c r="E650" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="F650" t="s">
         <v>10</v>
       </c>
       <c r="G650" t="s">
-        <v>1949</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="B651" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="C651" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="D651" t="s">
         <v>10</v>
       </c>
       <c r="E651" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="F651" t="s">
         <v>10</v>
       </c>
       <c r="G651" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="B652" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="C652" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="D652" t="s">
         <v>10</v>
       </c>
       <c r="E652" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="F652" t="s">
         <v>10</v>
       </c>
       <c r="G652" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="B653" t="s">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="C653" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="D653" t="s">
         <v>10</v>
       </c>
       <c r="E653" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="F653" t="s">
         <v>10</v>
       </c>
       <c r="G653" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="B654" t="s">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="C654" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="D654" t="s">
         <v>10</v>
       </c>
       <c r="E654" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="F654" t="s">
         <v>10</v>
       </c>
       <c r="G654" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="B655" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="C655" t="s">
         <v>219</v>
@@ -21213,10 +21645,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="B656" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="C656" t="s">
         <v>1370</v>
@@ -21236,10 +21668,10 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="B657" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="C657" t="s">
         <v>207</v>
@@ -21259,10 +21691,10 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="B658" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="C658" t="s">
         <v>1155</v>
@@ -21282,10 +21714,10 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="B659" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="C659" t="s">
         <v>219</v>
@@ -21305,33 +21737,33 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="B660" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="C660" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="D660" t="s">
         <v>10</v>
       </c>
       <c r="E660" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="F660" t="s">
         <v>10</v>
       </c>
       <c r="G660" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="B661" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="C661" t="s">
         <v>1391</v>
@@ -21351,45 +21783,45 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="B662" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="C662" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="D662" t="s">
         <v>10</v>
       </c>
       <c r="E662" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="F662" t="s">
         <v>10</v>
       </c>
       <c r="G662" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="B663" t="s">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="C663" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="D663" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="E663" t="s">
         <v>10</v>
       </c>
       <c r="F663" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="G663" t="s">
         <v>10</v>
@@ -21397,10 +21829,10 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="B664" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="C664" t="s">
         <v>66</v>
@@ -21420,25 +21852,25 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="B665" t="s">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="C665" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="D665" t="s">
         <v>816</v>
       </c>
       <c r="E665" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="F665" t="s">
         <v>816</v>
       </c>
       <c r="G665" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="666">
@@ -21446,7 +21878,7 @@
         <v>1023</v>
       </c>
       <c r="B666" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="C666" t="s">
         <v>333</v>
@@ -21466,206 +21898,206 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="B667" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="C667" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="D667" t="s">
         <v>10</v>
       </c>
       <c r="E667" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="F667" t="s">
         <v>10</v>
       </c>
       <c r="G667" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="B668" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="C668" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="D668" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="E668" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="F668" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="G668" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="B669" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="C669" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="D669" t="s">
         <v>10</v>
       </c>
       <c r="E669" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F669" t="s">
         <v>10</v>
       </c>
       <c r="G669" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="B670" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="C670" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="D670" t="s">
         <v>10</v>
       </c>
       <c r="E670" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F670" t="s">
         <v>10</v>
       </c>
       <c r="G670" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="B671" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="C671" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="D671" t="s">
         <v>10</v>
       </c>
       <c r="E671" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F671" t="s">
         <v>10</v>
       </c>
       <c r="G671" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B672" t="s">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C672" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D672" t="s">
         <v>10</v>
       </c>
       <c r="E672" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="F672" t="s">
         <v>10</v>
       </c>
       <c r="G672" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="B673" t="s">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C673" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="D673" t="s">
         <v>10</v>
       </c>
       <c r="E673" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="F673" t="s">
         <v>10</v>
       </c>
       <c r="G673" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B674" t="s">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C674" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D674" t="s">
         <v>10</v>
       </c>
       <c r="E674" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="F674" t="s">
         <v>10</v>
       </c>
       <c r="G674" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B675" t="s">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C675" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D675" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E675" t="s">
         <v>10</v>
       </c>
       <c r="F675" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="G675" t="s">
         <v>10</v>
@@ -21673,10 +22105,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B676" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="C676" t="s">
         <v>333</v>
@@ -21696,10 +22128,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B677" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C677" t="s">
         <v>192</v>
@@ -21719,71 +22151,1129 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B678" t="s">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="C678" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="D678" t="s">
         <v>10</v>
       </c>
       <c r="E678" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="F678" t="s">
         <v>10</v>
       </c>
       <c r="G678" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="B679" t="s">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="C679" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="D679" t="s">
         <v>10</v>
       </c>
       <c r="E679" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="F679" t="s">
         <v>10</v>
       </c>
       <c r="G679" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="B680" t="s">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="C680" t="s">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="D680" t="s">
         <v>10</v>
       </c>
       <c r="E680" t="s">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="F680" t="s">
         <v>10</v>
       </c>
       <c r="G680" t="s">
-        <v>2028</v>
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B681" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C681" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D681" t="s">
+        <v>10</v>
+      </c>
+      <c r="E681" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F681" t="s">
+        <v>10</v>
+      </c>
+      <c r="G681" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B682" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D682" t="s">
+        <v>10</v>
+      </c>
+      <c r="E682" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F682" t="s">
+        <v>10</v>
+      </c>
+      <c r="G682" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B683" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C683" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D683" t="s">
+        <v>10</v>
+      </c>
+      <c r="E683" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F683" t="s">
+        <v>10</v>
+      </c>
+      <c r="G683" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B684" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C684" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D684" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E684" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F684" t="s">
+        <v>2045</v>
+      </c>
+      <c r="G684" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B685" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C685" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D685" t="s">
+        <v>10</v>
+      </c>
+      <c r="E685" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F685" t="s">
+        <v>10</v>
+      </c>
+      <c r="G685" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B686" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C686" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D686" t="s">
+        <v>10</v>
+      </c>
+      <c r="E686" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F686" t="s">
+        <v>10</v>
+      </c>
+      <c r="G686" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B687" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C687" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D687" t="s">
+        <v>10</v>
+      </c>
+      <c r="E687" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F687" t="s">
+        <v>10</v>
+      </c>
+      <c r="G687" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B688" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C688" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D688" t="s">
+        <v>10</v>
+      </c>
+      <c r="E688" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F688" t="s">
+        <v>10</v>
+      </c>
+      <c r="G688" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B689" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D689" t="s">
+        <v>10</v>
+      </c>
+      <c r="E689" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F689" t="s">
+        <v>10</v>
+      </c>
+      <c r="G689" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B690" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C690" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D690" t="s">
+        <v>10</v>
+      </c>
+      <c r="E690" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F690" t="s">
+        <v>10</v>
+      </c>
+      <c r="G690" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B691" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C691" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D691" t="s">
+        <v>10</v>
+      </c>
+      <c r="E691" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F691" t="s">
+        <v>10</v>
+      </c>
+      <c r="G691" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B692" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C692" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D692" t="s">
+        <v>10</v>
+      </c>
+      <c r="E692" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F692" t="s">
+        <v>10</v>
+      </c>
+      <c r="G692" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B693" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C693" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D693" t="s">
+        <v>10</v>
+      </c>
+      <c r="E693" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F693" t="s">
+        <v>10</v>
+      </c>
+      <c r="G693" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B694" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C694" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D694" t="s">
+        <v>10</v>
+      </c>
+      <c r="E694" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F694" t="s">
+        <v>10</v>
+      </c>
+      <c r="G694" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B695" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D695" t="s">
+        <v>10</v>
+      </c>
+      <c r="E695" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F695" t="s">
+        <v>10</v>
+      </c>
+      <c r="G695" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B696" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C696" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D696" t="s">
+        <v>10</v>
+      </c>
+      <c r="E696" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F696" t="s">
+        <v>10</v>
+      </c>
+      <c r="G696" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B697" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C697" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D697" t="s">
+        <v>10</v>
+      </c>
+      <c r="E697" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F697" t="s">
+        <v>10</v>
+      </c>
+      <c r="G697" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B698" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C698" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D698" t="s">
+        <v>10</v>
+      </c>
+      <c r="E698" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F698" t="s">
+        <v>10</v>
+      </c>
+      <c r="G698" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B699" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C699" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D699" t="s">
+        <v>10</v>
+      </c>
+      <c r="E699" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F699" t="s">
+        <v>10</v>
+      </c>
+      <c r="G699" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B700" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C700" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D700" t="s">
+        <v>10</v>
+      </c>
+      <c r="E700" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F700" t="s">
+        <v>10</v>
+      </c>
+      <c r="G700" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B701" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C701" t="s">
+        <v>348</v>
+      </c>
+      <c r="D701" t="s">
+        <v>10</v>
+      </c>
+      <c r="E701" t="s">
+        <v>348</v>
+      </c>
+      <c r="F701" t="s">
+        <v>10</v>
+      </c>
+      <c r="G701" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B702" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C702" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D702" t="s">
+        <v>10</v>
+      </c>
+      <c r="E702" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F702" t="s">
+        <v>10</v>
+      </c>
+      <c r="G702" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B703" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C703" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D703" t="s">
+        <v>10</v>
+      </c>
+      <c r="E703" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F703" t="s">
+        <v>10</v>
+      </c>
+      <c r="G703" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B704" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C704" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D704" t="s">
+        <v>10</v>
+      </c>
+      <c r="E704" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F704" t="s">
+        <v>10</v>
+      </c>
+      <c r="G704" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B705" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C705" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D705" t="s">
+        <v>10</v>
+      </c>
+      <c r="E705" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F705" t="s">
+        <v>10</v>
+      </c>
+      <c r="G705" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B706" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C706" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D706" t="s">
+        <v>10</v>
+      </c>
+      <c r="E706" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F706" t="s">
+        <v>10</v>
+      </c>
+      <c r="G706" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B707" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C707" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D707" t="s">
+        <v>10</v>
+      </c>
+      <c r="E707" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F707" t="s">
+        <v>10</v>
+      </c>
+      <c r="G707" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B708" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C708" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D708" t="s">
+        <v>10</v>
+      </c>
+      <c r="E708" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F708" t="s">
+        <v>10</v>
+      </c>
+      <c r="G708" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B709" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C709" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D709" t="s">
+        <v>10</v>
+      </c>
+      <c r="E709" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F709" t="s">
+        <v>10</v>
+      </c>
+      <c r="G709" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B710" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C710" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D710" t="s">
+        <v>10</v>
+      </c>
+      <c r="E710" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F710" t="s">
+        <v>10</v>
+      </c>
+      <c r="G710" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B711" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C711" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D711" t="s">
+        <v>10</v>
+      </c>
+      <c r="E711" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F711" t="s">
+        <v>10</v>
+      </c>
+      <c r="G711" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B712" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C712" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D712" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E712" t="s">
+        <v>10</v>
+      </c>
+      <c r="F712" t="s">
+        <v>2135</v>
+      </c>
+      <c r="G712" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B713" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C713" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D713" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E713" t="s">
+        <v>10</v>
+      </c>
+      <c r="F713" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G713" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B714" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C714" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D714" t="s">
+        <v>10</v>
+      </c>
+      <c r="E714" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F714" t="s">
+        <v>10</v>
+      </c>
+      <c r="G714" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B715" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C715" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D715" t="s">
+        <v>10</v>
+      </c>
+      <c r="E715" t="s">
+        <v>2144</v>
+      </c>
+      <c r="F715" t="s">
+        <v>10</v>
+      </c>
+      <c r="G715" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B716" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C716" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D716" t="s">
+        <v>10</v>
+      </c>
+      <c r="E716" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F716" t="s">
+        <v>10</v>
+      </c>
+      <c r="G716" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B717" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C717" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D717" t="s">
+        <v>10</v>
+      </c>
+      <c r="E717" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F717" t="s">
+        <v>10</v>
+      </c>
+      <c r="G717" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B718" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C718" t="s">
+        <v>571</v>
+      </c>
+      <c r="D718" t="s">
+        <v>10</v>
+      </c>
+      <c r="E718" t="s">
+        <v>571</v>
+      </c>
+      <c r="F718" t="s">
+        <v>10</v>
+      </c>
+      <c r="G718" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B719" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C719" t="s">
+        <v>571</v>
+      </c>
+      <c r="D719" t="s">
+        <v>10</v>
+      </c>
+      <c r="E719" t="s">
+        <v>571</v>
+      </c>
+      <c r="F719" t="s">
+        <v>10</v>
+      </c>
+      <c r="G719" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B720" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D720" t="s">
+        <v>10</v>
+      </c>
+      <c r="E720" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F720" t="s">
+        <v>10</v>
+      </c>
+      <c r="G720" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B721" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C721" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D721" t="s">
+        <v>10</v>
+      </c>
+      <c r="E721" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F721" t="s">
+        <v>10</v>
+      </c>
+      <c r="G721" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B722" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C722" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D722" t="s">
+        <v>10</v>
+      </c>
+      <c r="E722" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F722" t="s">
+        <v>10</v>
+      </c>
+      <c r="G722" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B723" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C723" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D723" t="s">
+        <v>10</v>
+      </c>
+      <c r="E723" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F723" t="s">
+        <v>10</v>
+      </c>
+      <c r="G723" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B724" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C724" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D724" t="s">
+        <v>10</v>
+      </c>
+      <c r="E724" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F724" t="s">
+        <v>10</v>
+      </c>
+      <c r="G724" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B725" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C725" t="s">
+        <v>437</v>
+      </c>
+      <c r="D725" t="s">
+        <v>10</v>
+      </c>
+      <c r="E725" t="s">
+        <v>437</v>
+      </c>
+      <c r="F725" t="s">
+        <v>10</v>
+      </c>
+      <c r="G725" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B726" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C726" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D726" t="s">
+        <v>2172</v>
+      </c>
+      <c r="E726" t="s">
+        <v>10</v>
+      </c>
+      <c r="F726" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G726" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
